--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,15 @@
     <sheet name="자연상수" sheetId="9" r:id="rId8"/>
     <sheet name="머신러닝기초" sheetId="3" r:id="rId9"/>
     <sheet name="MNIST(데이터셋)" sheetId="4" r:id="rId10"/>
+    <sheet name="EDA" sheetId="13" r:id="rId11"/>
+    <sheet name="pivot_table" sheetId="14" r:id="rId12"/>
+    <sheet name="adv" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId15"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
   <si>
     <t>항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,12 +848,357 @@
     <t>영 벡터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>David Baker</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Juan Martinez</t>
+  </si>
+  <si>
+    <t>Jane Connor</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>데이터 병합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 만드는 일반적인 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang2</t>
+  </si>
+  <si>
+    <t>hang3</t>
+  </si>
+  <si>
+    <t>hang4</t>
+  </si>
+  <si>
+    <t>hang5</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍일동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍삼동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍사동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍오동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임1.join(데이터프레임2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas.concat([데이터프레임1, 데이터프레임2])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명(헤더)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Harry Potter',</t>
+  </si>
+  <si>
+    <t>'David Baker',</t>
+  </si>
+  <si>
+    <t>'John Smith',</t>
+  </si>
+  <si>
+    <t>'Juan Martinez',</t>
+  </si>
+  <si>
+    <t>'Jane Connor',</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex Du Bois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joanne Rowling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Connor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Lead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>영</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>평균 : 국</t>
+  </si>
+  <si>
+    <t>평균 : 영</t>
+  </si>
+  <si>
+    <t>평균 : 수</t>
+  </si>
+  <si>
+    <t>과목</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>국</t>
+  </si>
+  <si>
+    <t>영</t>
+  </si>
+  <si>
+    <t>평균 : A</t>
+  </si>
+  <si>
+    <t>평균 : B</t>
+  </si>
+  <si>
+    <t>평균 : C</t>
+  </si>
+  <si>
+    <t>평균 : D</t>
+  </si>
+  <si>
+    <t>평균 : E</t>
+  </si>
+  <si>
+    <t>연도</t>
+  </si>
+  <si>
+    <t>광고비</t>
+  </si>
+  <si>
+    <t>매출액</t>
+  </si>
+  <si>
+    <t>광고비 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고비 편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액 편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고비 편차 X 매출액 편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분산 =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고비 모표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분산=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액 모표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액 표본표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고비 표본표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관 =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,8 +1281,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.95"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,8 +1326,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF193EB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1050,12 +1463,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1126,6 +1593,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,9 +1677,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7619,6 +8157,357 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="343555392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>adv!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>매출액</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>adv!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>adv!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A70-4CAB-BFED-D2437AF542CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1003846592"/>
+        <c:axId val="1003848672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1003846592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003848672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1003848672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003846592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11088,6 +11977,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18593,6 +19522,522 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25548,8 +26993,8 @@
       <xdr:rowOff>22460</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7964360" cy="886974"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -25656,7 +27101,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25688,7 +27133,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -25955,8 +27400,8 @@
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3776931" cy="620876"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52"/>
@@ -26057,7 +27502,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52"/>
@@ -26153,8 +27598,8 @@
       <xdr:rowOff>198781</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="604140" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -26205,7 +27650,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -26237,7 +27682,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -26502,8 +27947,8 @@
       <xdr:rowOff>198781</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="604140" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="TextBox 57"/>
@@ -26554,7 +27999,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -26586,7 +28031,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="TextBox 57"/>
@@ -26717,8 +28162,8 @@
       <xdr:rowOff>11714</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="144975" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -26754,6 +28199,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -26786,7 +28232,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -26897,8 +28343,8 @@
       <xdr:rowOff>66614</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="141321" cy="255647"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -26934,6 +28380,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -26966,7 +28413,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -28235,6 +29682,331 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="만든 이" refreshedDate="45512.513328819441" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D6" sheet="pivot_table" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="학생" numFmtId="0">
+      <sharedItems count="5">
+        <s v="A"/>
+        <s v="B"/>
+        <s v="C"/>
+        <s v="D"/>
+        <s v="E"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="국" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="95" count="5">
+        <n v="80"/>
+        <n v="90"/>
+        <n v="95"/>
+        <n v="70"/>
+        <n v="75"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="영" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="95" count="4">
+        <n v="90"/>
+        <n v="95"/>
+        <n v="70"/>
+        <n v="85"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="수" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="75" maxValue="95" count="4">
+        <n v="85"/>
+        <n v="95"/>
+        <n v="75"/>
+        <n v="80"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="만든 이" refreshedDate="45512.517191550927" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A11:F14" sheet="pivot_table" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="과목" numFmtId="0">
+      <sharedItems count="3">
+        <s v="국"/>
+        <s v="영"/>
+        <s v="수"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="A" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="80" maxValue="90"/>
+    </cacheField>
+    <cacheField name="B" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="95"/>
+    </cacheField>
+    <cacheField name="C" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="95"/>
+    </cacheField>
+    <cacheField name="D" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="85"/>
+    </cacheField>
+    <cacheField name="E" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="75" maxValue="90"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <r>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="90"/>
+    <n v="95"/>
+    <n v="70"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="95"/>
+    <n v="70"/>
+    <n v="85"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="85"/>
+    <n v="95"/>
+    <n v="75"/>
+    <n v="80"/>
+    <n v="85"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I11:N15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="평균 : A" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : B" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : C" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : D" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : E" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -28500,7 +30272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z122"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
@@ -28955,7 +30727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
@@ -29028,7 +30800,9 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="B3" s="23">
+        <v>3</v>
+      </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -29817,11 +31591,1688 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46">
+        <v>95</v>
+      </c>
+      <c r="C5" s="46">
+        <v>91</v>
+      </c>
+      <c r="E5" s="48">
+        <v>87</v>
+      </c>
+      <c r="F5" s="48">
+        <v>85</v>
+      </c>
+      <c r="H5" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="46">
+        <v>92</v>
+      </c>
+      <c r="C6" s="46">
+        <v>93</v>
+      </c>
+      <c r="E6" s="48">
+        <v>89</v>
+      </c>
+      <c r="F6" s="48">
+        <v>90</v>
+      </c>
+      <c r="H6" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46">
+        <v>98</v>
+      </c>
+      <c r="C7" s="46">
+        <v>97</v>
+      </c>
+      <c r="H7" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46">
+        <v>100</v>
+      </c>
+      <c r="C8" s="46">
+        <v>99</v>
+      </c>
+      <c r="H8" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="46">
+        <v>95</v>
+      </c>
+      <c r="C13" s="46">
+        <v>91</v>
+      </c>
+      <c r="D13" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="46">
+        <v>92</v>
+      </c>
+      <c r="C14" s="46">
+        <v>93</v>
+      </c>
+      <c r="D14" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="46">
+        <v>98</v>
+      </c>
+      <c r="C15" s="46">
+        <v>97</v>
+      </c>
+      <c r="D15" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="46">
+        <v>100</v>
+      </c>
+      <c r="C16" s="46">
+        <v>99</v>
+      </c>
+      <c r="D16" s="44">
+        <v>100</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="N17" t="str">
+        <f>CONCATENATE(N13,N14,N15,N16)</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f>CONCATENATE(O13,O14,O15,O16)</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(P13,P14,P15,P16)</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f>CONCATENATE(Q13,Q14,Q15,Q16)</f>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f>CONCATENATE(R13,R14,R15,R16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" t="str">
+        <f>CONCATENATE(N14,N15,N16,N17)</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f>CONCATENATE(O14,O15,O16,O17)</f>
+        <v/>
+      </c>
+      <c r="P18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>170</v>
+      </c>
+      <c r="R18" t="s">
+        <v>171</v>
+      </c>
+      <c r="S18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="33"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="46">
+        <v>95</v>
+      </c>
+      <c r="C21" s="46">
+        <v>91</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="str">
+        <f>CONCATENATE(I21,J21,K21,L21)</f>
+        <v>'Harry Potter',</v>
+      </c>
+      <c r="O21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="46">
+        <v>92</v>
+      </c>
+      <c r="C22" s="46">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:M25" si="0">CONCATENATE(I22,J22,K22,L22)</f>
+        <v>'David Baker',</v>
+      </c>
+      <c r="O22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="46">
+        <v>98</v>
+      </c>
+      <c r="C23" s="46">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>'John Smith',</v>
+      </c>
+      <c r="O23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="46">
+        <v>100</v>
+      </c>
+      <c r="C24" s="46">
+        <v>99</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>'Juan Martinez',</v>
+      </c>
+      <c r="O24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="48">
+        <v>87</v>
+      </c>
+      <c r="C25" s="48">
+        <v>85</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>'Jane Connor',</v>
+      </c>
+      <c r="O25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="48">
+        <v>89</v>
+      </c>
+      <c r="C26" s="48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="33"/>
+    </row>
+    <row r="29" spans="2:20" s="1" customFormat="1">
+      <c r="B29" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="H30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="H31" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="30">
+        <v>166</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="L32" s="49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="30">
+        <v>168</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="L33" s="49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="30">
+        <v>170</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="L34" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="30">
+        <v>172</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="L35" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="30">
+        <v>174</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="L36" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="17.25" thickBot="1">
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+    </row>
+    <row r="41" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B41" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41" s="54"/>
+    </row>
+    <row r="42" spans="2:12" ht="33.75" thickBot="1">
+      <c r="B42" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="39">
+        <v>23</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="42">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="33.75" thickBot="1">
+      <c r="B43" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="39">
+        <v>31</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="39">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="33.75" thickBot="1">
+      <c r="B44" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="42">
+        <v>22</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="39">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="33.75" thickBot="1">
+      <c r="B45" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="39">
+        <v>36</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="42">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="33.75" thickBot="1">
+      <c r="B46" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="42">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:H40"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="23" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="30">
+        <v>80</v>
+      </c>
+      <c r="C2" s="30">
+        <v>90</v>
+      </c>
+      <c r="D2" s="30">
+        <v>85</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="57">
+        <v>80</v>
+      </c>
+      <c r="K2" s="57">
+        <v>90</v>
+      </c>
+      <c r="L2" s="57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="30">
+        <v>90</v>
+      </c>
+      <c r="C3" s="30">
+        <v>95</v>
+      </c>
+      <c r="D3" s="30">
+        <v>95</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="57">
+        <v>90</v>
+      </c>
+      <c r="K3" s="57">
+        <v>95</v>
+      </c>
+      <c r="L3" s="57">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="30">
+        <v>95</v>
+      </c>
+      <c r="C4" s="30">
+        <v>70</v>
+      </c>
+      <c r="D4" s="30">
+        <v>75</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="57">
+        <v>95</v>
+      </c>
+      <c r="K4" s="57">
+        <v>70</v>
+      </c>
+      <c r="L4" s="57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="30">
+        <v>70</v>
+      </c>
+      <c r="C5" s="30">
+        <v>85</v>
+      </c>
+      <c r="D5" s="30">
+        <v>80</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="57">
+        <v>70</v>
+      </c>
+      <c r="K5" s="57">
+        <v>85</v>
+      </c>
+      <c r="L5" s="57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="30">
+        <v>75</v>
+      </c>
+      <c r="C6" s="30">
+        <v>90</v>
+      </c>
+      <c r="D6" s="30">
+        <v>85</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="57">
+        <v>75</v>
+      </c>
+      <c r="K6" s="57">
+        <v>90</v>
+      </c>
+      <c r="L6" s="57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="I7" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="57">
+        <v>82</v>
+      </c>
+      <c r="K7" s="57">
+        <v>86</v>
+      </c>
+      <c r="L7" s="57">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" t="s">
+        <v>210</v>
+      </c>
+      <c r="N11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="30">
+        <v>80</v>
+      </c>
+      <c r="C12" s="30">
+        <v>90</v>
+      </c>
+      <c r="D12" s="30">
+        <v>95</v>
+      </c>
+      <c r="E12" s="30">
+        <v>70</v>
+      </c>
+      <c r="F12" s="30">
+        <v>75</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="57">
+        <v>85</v>
+      </c>
+      <c r="K12" s="57">
+        <v>95</v>
+      </c>
+      <c r="L12" s="57">
+        <v>75</v>
+      </c>
+      <c r="M12" s="57">
+        <v>80</v>
+      </c>
+      <c r="N12" s="57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="30">
+        <v>90</v>
+      </c>
+      <c r="C13" s="30">
+        <v>95</v>
+      </c>
+      <c r="D13" s="30">
+        <v>70</v>
+      </c>
+      <c r="E13" s="30">
+        <v>85</v>
+      </c>
+      <c r="F13" s="30">
+        <v>90</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="57">
+        <v>80</v>
+      </c>
+      <c r="K13" s="57">
+        <v>90</v>
+      </c>
+      <c r="L13" s="57">
+        <v>95</v>
+      </c>
+      <c r="M13" s="57">
+        <v>70</v>
+      </c>
+      <c r="N13" s="57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="30">
+        <v>85</v>
+      </c>
+      <c r="C14" s="30">
+        <v>95</v>
+      </c>
+      <c r="D14" s="30">
+        <v>75</v>
+      </c>
+      <c r="E14" s="30">
+        <v>80</v>
+      </c>
+      <c r="F14" s="30">
+        <v>85</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="57">
+        <v>90</v>
+      </c>
+      <c r="K14" s="57">
+        <v>95</v>
+      </c>
+      <c r="L14" s="57">
+        <v>70</v>
+      </c>
+      <c r="M14" s="57">
+        <v>85</v>
+      </c>
+      <c r="N14" s="57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="I15" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" s="57">
+        <v>85</v>
+      </c>
+      <c r="K15" s="57">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="L15" s="57">
+        <v>80</v>
+      </c>
+      <c r="M15" s="57">
+        <v>78.333333333333329</v>
+      </c>
+      <c r="N15" s="57">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="31">
+        <v>13</v>
+      </c>
+      <c r="C2" s="31">
+        <f>B2-$B$18</f>
+        <v>-3.466666666666665</v>
+      </c>
+      <c r="D2" s="31">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <f>D2-$B$19</f>
+        <v>-4.9333333333333371</v>
+      </c>
+      <c r="F2">
+        <f>C2*E2</f>
+        <v>17.102222222222228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="31">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="31">
+        <v>8</v>
+      </c>
+      <c r="C3" s="31">
+        <f t="shared" ref="C3:C16" si="0">B3-$B$18</f>
+        <v>-8.466666666666665</v>
+      </c>
+      <c r="D3" s="31">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="1">D3-$B$19</f>
+        <v>-28.933333333333337</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="2">C3*E3</f>
+        <v>244.96888888888887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="31">
+        <v>10</v>
+      </c>
+      <c r="C4" s="31">
+        <f t="shared" si="0"/>
+        <v>-6.466666666666665</v>
+      </c>
+      <c r="D4" s="31">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-8.9333333333333371</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>57.768888888888895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="31">
+        <v>15</v>
+      </c>
+      <c r="C5" s="31">
+        <f t="shared" si="0"/>
+        <v>-1.466666666666665</v>
+      </c>
+      <c r="D5" s="31">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.0666666666666629</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-1.5644444444444372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="31">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="31">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31">
+        <f t="shared" si="0"/>
+        <v>-4.466666666666665</v>
+      </c>
+      <c r="D6" s="31">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-3.9333333333333371</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>17.5688888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="31">
+        <v>15</v>
+      </c>
+      <c r="C7" s="31">
+        <f t="shared" si="0"/>
+        <v>-1.466666666666665</v>
+      </c>
+      <c r="D7" s="31">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.0666666666666629</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-1.5644444444444372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="31">
+        <v>14</v>
+      </c>
+      <c r="C8" s="31">
+        <f t="shared" si="0"/>
+        <v>-2.466666666666665</v>
+      </c>
+      <c r="D8" s="31">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-13.933333333333337</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>34.368888888888875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="31">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="31">
+        <v>15</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" si="0"/>
+        <v>-1.466666666666665</v>
+      </c>
+      <c r="D9" s="31">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-3.9333333333333371</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>5.7688888888888883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="31">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333499</v>
+      </c>
+      <c r="D10" s="31">
+        <v>105</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>3.2355555555555635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="31">
+        <v>19</v>
+      </c>
+      <c r="C11" s="31">
+        <f t="shared" si="0"/>
+        <v>2.533333333333335</v>
+      </c>
+      <c r="D11" s="31">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>15.36888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="31">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="31">
+        <v>20</v>
+      </c>
+      <c r="C12" s="31">
+        <f t="shared" si="0"/>
+        <v>3.533333333333335</v>
+      </c>
+      <c r="D12" s="31">
+        <v>110</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>11.066666666666663</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>39.102222222222224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="31">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="31">
+        <v>21</v>
+      </c>
+      <c r="C13" s="31">
+        <f t="shared" si="0"/>
+        <v>4.533333333333335</v>
+      </c>
+      <c r="D13" s="31">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>27.502222222222215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="31">
+        <v>22</v>
+      </c>
+      <c r="C14" s="31">
+        <f t="shared" si="0"/>
+        <v>5.533333333333335</v>
+      </c>
+      <c r="D14" s="31">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>5.0666666666666629</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>28.035555555555543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="31">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="31">
+        <v>21</v>
+      </c>
+      <c r="C15" s="31">
+        <f t="shared" si="0"/>
+        <v>4.533333333333335</v>
+      </c>
+      <c r="D15" s="31">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>27.502222222222215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="31">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="31">
+        <v>25</v>
+      </c>
+      <c r="C16" s="31">
+        <f t="shared" si="0"/>
+        <v>8.533333333333335</v>
+      </c>
+      <c r="D16" s="31">
+        <v>121</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>22.066666666666663</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>188.30222222222221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="F17">
+        <f>SUM(F2:F16)</f>
+        <v>703.4666666666667</v>
+      </c>
+      <c r="H17" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B16)</f>
+        <v>16.466666666666665</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="31">
+        <v>703.4666666666667</v>
+      </c>
+      <c r="J18" s="58">
+        <f>I18/I19</f>
+        <v>46.897777777777783</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="31">
+        <v>703.4666666666667</v>
+      </c>
+      <c r="N18" s="58">
+        <f>M18/M19</f>
+        <v>50.247619047619047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(D2:D16)</f>
+        <v>98.933333333333337</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="31">
+        <f>COUNT(B2:B16)</f>
+        <v>15</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19">
+        <f>I19-1</f>
+        <v>14</v>
+      </c>
+      <c r="N19" s="58"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21">
+        <f>_xlfn.STDEV.P(B2:B16)</f>
+        <v>4.6312945154555747</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.COVARIANCE.P(B2:B16,D2:D16)</f>
+        <v>46.897777777777783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22">
+        <f>_xlfn.STDEV.S(B2:B16)</f>
+        <v>4.7938452604305413</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.COVARIANCE.S(B2:B16,D2:D16)</f>
+        <v>50.247619047619047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24">
+        <f>_xlfn.STDEV.P(D2:D16)</f>
+        <v>11.404482549516318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25">
+        <f>_xlfn.STDEV.S(D2:D16)</f>
+        <v>11.804760944313102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="H26" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="I26">
+        <v>46.897777777777783</v>
+      </c>
+      <c r="J26" s="58">
+        <f>I26/I27</f>
+        <v>0.88792090224061171</v>
+      </c>
+      <c r="L26" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26">
+        <v>50.247619047619047</v>
+      </c>
+      <c r="N26" s="58">
+        <f>M26/M27</f>
+        <v>0.88792090224061504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="H27" s="58"/>
+      <c r="I27">
+        <f>B21*B24</f>
+        <v>52.817517483183735</v>
+      </c>
+      <c r="J27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27">
+        <f>B22*B25</f>
+        <v>56.590197303410925</v>
+      </c>
+      <c r="N27" s="58"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="F32">
+        <f>$B$2</f>
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:K32" si="3">C$2</f>
+        <v>-3.466666666666665</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>-4.9333333333333371</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>17.102222222222228</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33">
+        <f t="shared" ref="F33:F46" si="4">$B$2</f>
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G46" si="5">$B$2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="N26:N27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
@@ -30314,11 +33765,11 @@
       <c r="L148" t="s">
         <v>130</v>
       </c>
-      <c r="P148" s="36">
+      <c r="P148" s="32">
         <v>4</v>
       </c>
       <c r="Q148" s="29"/>
-      <c r="R148" s="36">
+      <c r="R148" s="32">
         <v>3</v>
       </c>
     </row>
@@ -30479,7 +33930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -30601,13 +34052,13 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="58" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="58">
         <v>8</v>
       </c>
     </row>
@@ -30616,11 +34067,11 @@
         <f>SUM(D5:D9)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
@@ -30956,14 +34407,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -31603,13 +35054,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -31997,13 +35448,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -33758,14 +37209,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -34170,11 +37621,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -34510,7 +37961,7 @@
   <dimension ref="A4:Y83"/>
   <sheetViews>
     <sheetView topLeftCell="J58" workbookViewId="0">
-      <selection activeCell="W83" sqref="W83"/>
+      <selection activeCell="X63" sqref="X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -34693,40 +38144,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="63">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">

--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,20 @@
     <sheet name="EDA" sheetId="13" r:id="rId11"/>
     <sheet name="pivot_table" sheetId="14" r:id="rId12"/>
     <sheet name="adv" sheetId="15" r:id="rId13"/>
+    <sheet name="확률" sheetId="16" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.1" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.2" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId14"/>
-    <pivotCache cacheId="3" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="283">
   <si>
     <t>항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,12 +1202,536 @@
     <t>상관=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>정규화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 최소 최대 정규화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min-Max Normalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 특성의 값을 0과 1사이의 범위로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFCE5C00"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFCE5C00"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFCE5C00"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF222832"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF0000CF"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+        <family val="2"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당값-최솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최댓값-최솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x'1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x'2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 표준화(Z-score normalization)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 0 표준편차 1로 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징 간 척도 차이가 커서 정규화가 필요한 경우 유용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치에 민감할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키에 대한 z값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게에 대한 z값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상자수염(boxplot) - 이상치(outlier)를 보고자할 때 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3사분위수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>중위수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1사분위수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소값</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 이상치가 없을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3사분위수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 이상치가 있을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import  itertools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elements = ['A', 'B', 'C']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A B C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A C B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B A C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B C A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C A B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C B A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3개 중에 3개뽑기(순서를 고려)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,8 +1833,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--pst-font-family-monospace"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FFCE5C00"/>
+      <name val="Var(--pst-font-family-monospace"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--pst-font-family-monospace"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FF0000CF"/>
+      <name val="Var(--pst-font-family-monospace"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF222832"/>
+      <name val="Var(--pst-font-family-monospace"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,6 +1931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,7 +2094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1665,6 +2237,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1679,6 +2257,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2568,6 +3170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3012,6 +3615,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5842,6 +6446,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6703,6 +7308,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7804,6 +8410,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8206,6 +8813,96 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>상자수염그림</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>(box plot)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1BFB30B1-44A8-4131-81A9-82E36C4DDEC6}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="185" min="140"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{AC978CD3-BA90-4E4D-85AD-EC592B6CA9E7}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="600" min="140"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -9735,6 +10432,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10173,6 +10871,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10984,6 +11683,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12017,6 +12717,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20038,6 +20818,978 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24391,6 +26143,125 @@
         <a:xfrm>
           <a:off x="792584" y="17053035"/>
           <a:ext cx="7147533" cy="5501772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="228600"/>
+          <a:ext cx="9124950" cy="2621083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200824</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="4600575"/>
+          <a:ext cx="5725324" cy="4944165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>181738</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="4581525"/>
+          <a:ext cx="5468113" cy="3486637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29686,6 +31557,147 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214679</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330444</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>176579</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="차트 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>Excel 버전에서는 이 차트를 사용할 수 없습니다.
+이 도형 편집하거나 이 통합 문서를 다른 파일 형식으로 저장하면 차트가 영구적으로 손상됩니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210282</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>205886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>646967</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>186836</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="차트 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>Excel 버전에서는 이 차트를 사용할 수 없습니다.
+이 도형 편집하거나 이 통합 문서를 다른 파일 형식으로 저장하면 차트가 영구적으로 손상됩니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -29715,6 +31727,323 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="이상치가없는경우"/>
+      <sheetName val="이상치가있는경우"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>171</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>152</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>171</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>142</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>153</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>144</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>181</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>178</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>175</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>157</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>176</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>154</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>177</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>173</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>172</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>182</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>149</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>153</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>147</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>171</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>152</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>171</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>142</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>153</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>144</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>181</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>178</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>175</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>157</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>176</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>154</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>177</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>173</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>172</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>182</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>149</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>153</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>147</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29868,7 +32197,76 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I11:N15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -29928,75 +32326,6 @@
     <dataField name="평균 : C" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : D" fld="4" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : E" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -30727,8 +33056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -31593,14 +33922,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T46"/>
+  <dimension ref="B2:T158"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="13" max="13" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32061,12 +34394,12 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
     </row>
     <row r="41" spans="2:12" ht="36.75" thickBot="1">
       <c r="B41" s="34" t="s">
@@ -32180,14 +34513,1653 @@
         <v>30</v>
       </c>
     </row>
+    <row r="53" spans="2:12" s="1" customFormat="1">
+      <c r="B53" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56">
+        <f>MAX(B62:B65)</f>
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K56" t="s">
+        <v>238</v>
+      </c>
+      <c r="L56">
+        <f>MAX(C62:C65)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="G57" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57">
+        <f>MIN(B62:B65)</f>
+        <v>-1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>239</v>
+      </c>
+      <c r="L57">
+        <f>MIN(C62:C65)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="G59" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="59">
+        <v>-1</v>
+      </c>
+      <c r="C62" s="59">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <f>(B62-$H$57) / ($H$56-$H$57)</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>(C62-$L$57) / ($L$56-$L$57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="59">
+        <v>-0.5</v>
+      </c>
+      <c r="C63" s="59">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <f>(B63-$H$57) / ($H$56-$H$57)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G63">
+        <f>(C63-$L$57) / ($L$56-$L$57)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="59">
+        <v>0</v>
+      </c>
+      <c r="C64" s="59">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <f>(B64-$H$57) / ($H$56-$H$57)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G64">
+        <f>(C64-$L$57) / ($L$56-$L$57)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="59">
+        <v>1</v>
+      </c>
+      <c r="C65" s="59">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <f>(B65-$H$57) / ($H$56-$H$57)</f>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f>(C65-$L$57) / ($L$56-$L$57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="59"/>
+      <c r="C67" s="56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="59"/>
+      <c r="C68" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" t="s">
+        <v>246</v>
+      </c>
+      <c r="F75" t="s">
+        <v>251</v>
+      </c>
+      <c r="G75">
+        <f>AVERAGE(B77:B81)</f>
+        <v>170</v>
+      </c>
+      <c r="I75" t="s">
+        <v>258</v>
+      </c>
+      <c r="J75">
+        <f>AVERAGE(C77:C81)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="F76" t="s">
+        <v>252</v>
+      </c>
+      <c r="G76">
+        <f>_xlfn.STDEV.S(B77:B81)</f>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I76" t="s">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <f>_xlfn.STDEV.S(C77:C81)</f>
+        <v>21.201415047114189</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="59">
+        <v>166</v>
+      </c>
+      <c r="C77" s="59">
+        <v>55</v>
+      </c>
+      <c r="F77" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="G77" s="69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="59">
+        <v>168</v>
+      </c>
+      <c r="C78" s="59">
+        <v>40</v>
+      </c>
+      <c r="F78" s="60"/>
+      <c r="G78" s="59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="59">
+        <v>170</v>
+      </c>
+      <c r="C79" s="59">
+        <v>80</v>
+      </c>
+      <c r="F79" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="I79" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="59">
+        <v>172</v>
+      </c>
+      <c r="C80" s="59">
+        <v>93</v>
+      </c>
+      <c r="F80" s="60"/>
+      <c r="I80" s="60"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="59">
+        <v>174</v>
+      </c>
+      <c r="C81" s="59">
+        <v>77</v>
+      </c>
+      <c r="F81" s="59">
+        <f>(B77-$G$75) / $G$76</f>
+        <v>-1.2649110640673518</v>
+      </c>
+      <c r="I81">
+        <f>(C77-$J$75) / $J$76</f>
+        <v>-0.66033328289120952</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="F82" s="59">
+        <f t="shared" ref="F82:F85" si="1">(B78-$G$75) / $G$76</f>
+        <v>-0.63245553203367588</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82:I85" si="2">(C78-$J$75) / $J$76</f>
+        <v>-1.3678332288460768</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="F83" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="2"/>
+        <v>0.51883329370023601</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="F84" s="59">
+        <f t="shared" si="1"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="2"/>
+        <v>1.1319999135277878</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="F85" s="59">
+        <f t="shared" si="1"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>0.37733330450926261</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" s="1" customFormat="1">
+      <c r="B88" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="71"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="72">
+        <v>1</v>
+      </c>
+      <c r="C93" s="72">
+        <v>171</v>
+      </c>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="71"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="72">
+        <v>2</v>
+      </c>
+      <c r="C94" s="72">
+        <v>152</v>
+      </c>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="71"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="72">
+        <v>3</v>
+      </c>
+      <c r="C95" s="72">
+        <v>171</v>
+      </c>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="72">
+        <v>4</v>
+      </c>
+      <c r="C96" s="72">
+        <v>142</v>
+      </c>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="72">
+        <v>5</v>
+      </c>
+      <c r="C97" s="72">
+        <v>153</v>
+      </c>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="71"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="72">
+        <v>6</v>
+      </c>
+      <c r="C98" s="72">
+        <v>168</v>
+      </c>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="71"/>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="72">
+        <v>7</v>
+      </c>
+      <c r="C99" s="72">
+        <v>150</v>
+      </c>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="71"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="72">
+        <v>8</v>
+      </c>
+      <c r="C100" s="72">
+        <v>160</v>
+      </c>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="71"/>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="72">
+        <v>9</v>
+      </c>
+      <c r="C101" s="72">
+        <v>170</v>
+      </c>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="71"/>
+      <c r="M101" s="71"/>
+      <c r="N101" s="71"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="72">
+        <v>10</v>
+      </c>
+      <c r="C102" s="72">
+        <v>143</v>
+      </c>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="71"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103" s="72">
+        <v>11</v>
+      </c>
+      <c r="C103" s="72">
+        <v>144</v>
+      </c>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="71"/>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104" s="72">
+        <v>12</v>
+      </c>
+      <c r="C104" s="72">
+        <v>181</v>
+      </c>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="71"/>
+      <c r="N104" s="71"/>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="B105" s="72">
+        <v>13</v>
+      </c>
+      <c r="C105" s="72">
+        <v>178</v>
+      </c>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="72">
+        <v>14</v>
+      </c>
+      <c r="C106" s="72">
+        <v>175</v>
+      </c>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+    </row>
+    <row r="107" spans="2:14">
+      <c r="B107" s="72">
+        <v>15</v>
+      </c>
+      <c r="C107" s="72">
+        <v>170</v>
+      </c>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="72">
+        <v>16</v>
+      </c>
+      <c r="C108" s="72">
+        <v>157</v>
+      </c>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="71"/>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" s="72">
+        <v>17</v>
+      </c>
+      <c r="C109" s="72">
+        <v>150</v>
+      </c>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="71"/>
+      <c r="L109" s="71"/>
+      <c r="M109" s="71"/>
+      <c r="N109" s="71"/>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="72">
+        <v>18</v>
+      </c>
+      <c r="C110" s="72">
+        <v>176</v>
+      </c>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="71"/>
+      <c r="L110" s="71"/>
+      <c r="M110" s="71"/>
+      <c r="N110" s="71"/>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="72">
+        <v>19</v>
+      </c>
+      <c r="C111" s="72">
+        <v>154</v>
+      </c>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="71"/>
+      <c r="K111" s="71"/>
+      <c r="L111" s="71"/>
+      <c r="M111" s="71"/>
+      <c r="N111" s="71"/>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="72">
+        <v>20</v>
+      </c>
+      <c r="C112" s="72">
+        <v>150</v>
+      </c>
+      <c r="D112" s="71"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="71"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="71"/>
+      <c r="N112" s="71"/>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="B113" s="72">
+        <v>21</v>
+      </c>
+      <c r="C113" s="72">
+        <v>170</v>
+      </c>
+      <c r="D113" s="71"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
+      <c r="K113" s="71"/>
+      <c r="L113" s="71"/>
+      <c r="M113" s="71"/>
+      <c r="N113" s="71"/>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" s="72">
+        <v>22</v>
+      </c>
+      <c r="C114" s="72">
+        <v>177</v>
+      </c>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="71"/>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" s="72">
+        <v>23</v>
+      </c>
+      <c r="C115" s="72">
+        <v>173</v>
+      </c>
+      <c r="D115" s="71"/>
+      <c r="E115" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="F115" s="73">
+        <f>MAX(C93:C122)</f>
+        <v>182</v>
+      </c>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
+      <c r="K115" s="71"/>
+      <c r="L115" s="71"/>
+      <c r="M115" s="71"/>
+      <c r="N115" s="71"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="72">
+        <v>24</v>
+      </c>
+      <c r="C116" s="72">
+        <v>172</v>
+      </c>
+      <c r="D116" s="71"/>
+      <c r="E116" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="F116" s="73">
+        <f>_xlfn.QUARTILE.EXC(C93:C122,3)</f>
+        <v>172.25</v>
+      </c>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
+      <c r="K116" s="71"/>
+      <c r="L116" s="71"/>
+      <c r="M116" s="71"/>
+      <c r="N116" s="71"/>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="B117" s="72">
+        <v>25</v>
+      </c>
+      <c r="C117" s="72">
+        <v>143</v>
+      </c>
+      <c r="D117" s="71"/>
+      <c r="E117" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="F117" s="73">
+        <f>AVERAGE(C93:C122)</f>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+      <c r="L117" s="71"/>
+      <c r="M117" s="71"/>
+      <c r="N117" s="71"/>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" s="72">
+        <v>26</v>
+      </c>
+      <c r="C118" s="72">
+        <v>182</v>
+      </c>
+      <c r="D118" s="71"/>
+      <c r="E118" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="F118" s="75">
+        <f>MEDIAN(C93:C122)</f>
+        <v>158.5</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21">
+        <f>_xlfn.QUARTILE.EXC(C93:C122,2)</f>
+        <v>158.5</v>
+      </c>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="71"/>
+      <c r="M118" s="71"/>
+      <c r="N118" s="71"/>
+    </row>
+    <row r="119" spans="2:14">
+      <c r="B119" s="72">
+        <v>27</v>
+      </c>
+      <c r="C119" s="72">
+        <v>143</v>
+      </c>
+      <c r="D119" s="71"/>
+      <c r="E119" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" s="73">
+        <f>_xlfn.QUARTILE.EXC(C93:C122,1)</f>
+        <v>149.75</v>
+      </c>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="71"/>
+      <c r="M119" s="71"/>
+      <c r="N119" s="71"/>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" s="72">
+        <v>28</v>
+      </c>
+      <c r="C120" s="72">
+        <v>149</v>
+      </c>
+      <c r="D120" s="71"/>
+      <c r="E120" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="73">
+        <f>MIN(C93:C122)</f>
+        <v>142</v>
+      </c>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="71"/>
+      <c r="M120" s="71"/>
+      <c r="N120" s="71"/>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" s="72">
+        <v>29</v>
+      </c>
+      <c r="C121" s="72">
+        <v>153</v>
+      </c>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
+      <c r="J121" s="71"/>
+      <c r="K121" s="71"/>
+      <c r="L121" s="71"/>
+      <c r="M121" s="71"/>
+      <c r="N121" s="71"/>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="B122" s="72">
+        <v>30</v>
+      </c>
+      <c r="C122" s="72">
+        <v>147</v>
+      </c>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="71"/>
+      <c r="L122" s="71"/>
+      <c r="M122" s="71"/>
+      <c r="N122" s="71"/>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="71"/>
+      <c r="M123" s="71"/>
+      <c r="N123" s="71"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14">
+      <c r="B126" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126" s="71"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="71"/>
+      <c r="M126" s="71"/>
+      <c r="N126" s="71"/>
+    </row>
+    <row r="127" spans="2:14">
+      <c r="B127" s="72">
+        <v>1</v>
+      </c>
+      <c r="C127" s="72">
+        <v>171</v>
+      </c>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="71"/>
+      <c r="M127" s="71"/>
+      <c r="N127" s="71"/>
+    </row>
+    <row r="128" spans="2:14">
+      <c r="B128" s="72">
+        <v>2</v>
+      </c>
+      <c r="C128" s="72">
+        <v>152</v>
+      </c>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="71"/>
+      <c r="L128" s="71"/>
+      <c r="M128" s="71"/>
+      <c r="N128" s="71"/>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="B129" s="72">
+        <v>3</v>
+      </c>
+      <c r="C129" s="72">
+        <v>171</v>
+      </c>
+      <c r="D129" s="71"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
+      <c r="L129" s="71"/>
+      <c r="M129" s="71"/>
+      <c r="N129" s="71"/>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="B130" s="72">
+        <v>4</v>
+      </c>
+      <c r="C130" s="72">
+        <v>142</v>
+      </c>
+      <c r="D130" s="71"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="71"/>
+      <c r="L130" s="71"/>
+      <c r="M130" s="71"/>
+      <c r="N130" s="71"/>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="B131" s="72">
+        <v>5</v>
+      </c>
+      <c r="C131" s="72">
+        <v>153</v>
+      </c>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="71"/>
+      <c r="L131" s="71"/>
+      <c r="M131" s="71"/>
+      <c r="N131" s="71"/>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="B132" s="72">
+        <v>6</v>
+      </c>
+      <c r="C132" s="72">
+        <v>168</v>
+      </c>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
+      <c r="L132" s="71"/>
+      <c r="M132" s="71"/>
+      <c r="N132" s="71"/>
+    </row>
+    <row r="133" spans="2:14">
+      <c r="B133" s="72">
+        <v>7</v>
+      </c>
+      <c r="C133" s="72">
+        <v>150</v>
+      </c>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="71"/>
+      <c r="M133" s="71"/>
+      <c r="N133" s="71"/>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="B134" s="72">
+        <v>8</v>
+      </c>
+      <c r="C134" s="72">
+        <v>500</v>
+      </c>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="71"/>
+      <c r="L134" s="71"/>
+      <c r="M134" s="71"/>
+      <c r="N134" s="71"/>
+    </row>
+    <row r="135" spans="2:14">
+      <c r="B135" s="72">
+        <v>9</v>
+      </c>
+      <c r="C135" s="72">
+        <v>170</v>
+      </c>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="71"/>
+      <c r="J135" s="71"/>
+      <c r="K135" s="71"/>
+      <c r="L135" s="71"/>
+      <c r="M135" s="71"/>
+      <c r="N135" s="71"/>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136" s="72">
+        <v>10</v>
+      </c>
+      <c r="C136" s="72">
+        <v>143</v>
+      </c>
+      <c r="D136" s="71"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="71"/>
+      <c r="I136" s="71"/>
+      <c r="J136" s="71"/>
+      <c r="K136" s="71"/>
+      <c r="L136" s="71"/>
+      <c r="M136" s="71"/>
+      <c r="N136" s="71"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137" s="72">
+        <v>11</v>
+      </c>
+      <c r="C137" s="72">
+        <v>144</v>
+      </c>
+      <c r="D137" s="71"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="71"/>
+      <c r="J137" s="71"/>
+      <c r="K137" s="71"/>
+      <c r="L137" s="71"/>
+      <c r="M137" s="71"/>
+      <c r="N137" s="71"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138" s="72">
+        <v>12</v>
+      </c>
+      <c r="C138" s="72">
+        <v>181</v>
+      </c>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="71"/>
+      <c r="J138" s="71"/>
+      <c r="K138" s="71"/>
+      <c r="L138" s="71"/>
+      <c r="M138" s="71"/>
+      <c r="N138" s="71"/>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="B139" s="72">
+        <v>13</v>
+      </c>
+      <c r="C139" s="72">
+        <v>178</v>
+      </c>
+      <c r="D139" s="71"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="71"/>
+      <c r="I139" s="71"/>
+      <c r="J139" s="71"/>
+      <c r="K139" s="71"/>
+      <c r="L139" s="71"/>
+      <c r="M139" s="71"/>
+      <c r="N139" s="71"/>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="B140" s="72">
+        <v>14</v>
+      </c>
+      <c r="C140" s="72">
+        <v>175</v>
+      </c>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="71"/>
+      <c r="M140" s="71"/>
+      <c r="N140" s="71"/>
+    </row>
+    <row r="141" spans="2:14">
+      <c r="B141" s="72">
+        <v>15</v>
+      </c>
+      <c r="C141" s="72">
+        <v>170</v>
+      </c>
+      <c r="D141" s="71"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="71"/>
+      <c r="J141" s="71"/>
+      <c r="K141" s="71"/>
+      <c r="L141" s="71"/>
+      <c r="M141" s="71"/>
+      <c r="N141" s="71"/>
+    </row>
+    <row r="142" spans="2:14">
+      <c r="B142" s="72">
+        <v>16</v>
+      </c>
+      <c r="C142" s="72">
+        <v>157</v>
+      </c>
+      <c r="D142" s="71"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="71"/>
+      <c r="J142" s="71"/>
+      <c r="K142" s="71"/>
+      <c r="L142" s="71"/>
+      <c r="M142" s="71"/>
+      <c r="N142" s="71"/>
+    </row>
+    <row r="143" spans="2:14">
+      <c r="B143" s="72">
+        <v>17</v>
+      </c>
+      <c r="C143" s="72">
+        <v>150</v>
+      </c>
+      <c r="D143" s="71"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="71"/>
+      <c r="J143" s="71"/>
+      <c r="K143" s="71"/>
+      <c r="L143" s="71"/>
+      <c r="M143" s="71"/>
+      <c r="N143" s="71"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="B144" s="72">
+        <v>18</v>
+      </c>
+      <c r="C144" s="72">
+        <v>176</v>
+      </c>
+      <c r="D144" s="71"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="71"/>
+      <c r="J144" s="71"/>
+      <c r="K144" s="71"/>
+      <c r="L144" s="71"/>
+      <c r="M144" s="71"/>
+      <c r="N144" s="71"/>
+    </row>
+    <row r="145" spans="2:14">
+      <c r="B145" s="72">
+        <v>19</v>
+      </c>
+      <c r="C145" s="72">
+        <v>154</v>
+      </c>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="71"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="71"/>
+      <c r="L145" s="71"/>
+      <c r="M145" s="71"/>
+      <c r="N145" s="71"/>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="B146" s="72">
+        <v>20</v>
+      </c>
+      <c r="C146" s="72">
+        <v>150</v>
+      </c>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="71"/>
+      <c r="M146" s="71"/>
+      <c r="N146" s="71"/>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="B147" s="72">
+        <v>21</v>
+      </c>
+      <c r="C147" s="72">
+        <v>170</v>
+      </c>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="71"/>
+      <c r="M147" s="71"/>
+      <c r="N147" s="71"/>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148" s="72">
+        <v>22</v>
+      </c>
+      <c r="C148" s="72">
+        <v>177</v>
+      </c>
+      <c r="D148" s="71"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="71"/>
+      <c r="K148" s="71"/>
+      <c r="L148" s="71"/>
+      <c r="M148" s="71"/>
+      <c r="N148" s="71"/>
+    </row>
+    <row r="149" spans="2:14">
+      <c r="B149" s="72">
+        <v>23</v>
+      </c>
+      <c r="C149" s="72">
+        <v>173</v>
+      </c>
+      <c r="D149" s="71"/>
+      <c r="E149" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="F149" s="73">
+        <f>MAX(C127:C156)</f>
+        <v>500</v>
+      </c>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="71"/>
+      <c r="J149" s="71"/>
+      <c r="K149" s="71"/>
+      <c r="L149" s="71"/>
+      <c r="M149" s="71"/>
+      <c r="N149" s="71"/>
+    </row>
+    <row r="150" spans="2:14">
+      <c r="B150" s="72">
+        <v>24</v>
+      </c>
+      <c r="C150" s="72">
+        <v>172</v>
+      </c>
+      <c r="D150" s="71"/>
+      <c r="E150" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="F150" s="73">
+        <f>_xlfn.QUARTILE.EXC(C127:C156,3)</f>
+        <v>173.5</v>
+      </c>
+      <c r="G150" s="71"/>
+      <c r="H150" s="71"/>
+      <c r="I150" s="71"/>
+      <c r="J150" s="71"/>
+      <c r="K150" s="71"/>
+      <c r="L150" s="71"/>
+      <c r="M150" s="71"/>
+      <c r="N150" s="71"/>
+    </row>
+    <row r="151" spans="2:14">
+      <c r="B151" s="72">
+        <v>25</v>
+      </c>
+      <c r="C151" s="72">
+        <v>143</v>
+      </c>
+      <c r="D151" s="71"/>
+      <c r="E151" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="F151" s="73">
+        <f>AVERAGE(C127:C156)</f>
+        <v>172.13333333333333</v>
+      </c>
+      <c r="G151" s="71"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="71"/>
+      <c r="J151" s="71"/>
+      <c r="K151" s="71"/>
+      <c r="L151" s="71"/>
+      <c r="M151" s="71"/>
+      <c r="N151" s="71"/>
+    </row>
+    <row r="152" spans="2:14">
+      <c r="B152" s="72">
+        <v>26</v>
+      </c>
+      <c r="C152" s="72">
+        <v>182</v>
+      </c>
+      <c r="D152" s="71"/>
+      <c r="E152" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="F152" s="75">
+        <f>MEDIAN(C127:C156)</f>
+        <v>162.5</v>
+      </c>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21">
+        <f>_xlfn.QUARTILE.EXC(C127:C156,2)</f>
+        <v>162.5</v>
+      </c>
+      <c r="I152" s="71"/>
+      <c r="J152" s="71"/>
+      <c r="K152" s="71"/>
+      <c r="L152" s="71"/>
+      <c r="M152" s="71"/>
+      <c r="N152" s="71"/>
+    </row>
+    <row r="153" spans="2:14">
+      <c r="B153" s="72">
+        <v>27</v>
+      </c>
+      <c r="C153" s="72">
+        <v>143</v>
+      </c>
+      <c r="D153" s="71"/>
+      <c r="E153" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="F153" s="73">
+        <f>_xlfn.QUARTILE.EXC(C127:C156,1)</f>
+        <v>149.75</v>
+      </c>
+      <c r="G153" s="71"/>
+      <c r="H153" s="71"/>
+      <c r="I153" s="71"/>
+      <c r="J153" s="71"/>
+      <c r="K153" s="71"/>
+      <c r="L153" s="71"/>
+      <c r="M153" s="71"/>
+      <c r="N153" s="71"/>
+    </row>
+    <row r="154" spans="2:14">
+      <c r="B154" s="72">
+        <v>28</v>
+      </c>
+      <c r="C154" s="72">
+        <v>149</v>
+      </c>
+      <c r="D154" s="71"/>
+      <c r="E154" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="F154" s="73">
+        <f>MIN(C127:C156)</f>
+        <v>142</v>
+      </c>
+      <c r="G154" s="71"/>
+      <c r="H154" s="71"/>
+      <c r="I154" s="71"/>
+      <c r="J154" s="71"/>
+      <c r="K154" s="71"/>
+      <c r="L154" s="71"/>
+      <c r="M154" s="71"/>
+      <c r="N154" s="71"/>
+    </row>
+    <row r="155" spans="2:14">
+      <c r="B155" s="72">
+        <v>29</v>
+      </c>
+      <c r="C155" s="72">
+        <v>153</v>
+      </c>
+      <c r="D155" s="71"/>
+      <c r="E155" s="71"/>
+      <c r="F155" s="71"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="71"/>
+      <c r="I155" s="71"/>
+      <c r="J155" s="71"/>
+      <c r="K155" s="71"/>
+      <c r="L155" s="71"/>
+      <c r="M155" s="71"/>
+      <c r="N155" s="71"/>
+    </row>
+    <row r="156" spans="2:14">
+      <c r="B156" s="72">
+        <v>30</v>
+      </c>
+      <c r="C156" s="72">
+        <v>147</v>
+      </c>
+      <c r="D156" s="71"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="71"/>
+      <c r="G156" s="71"/>
+      <c r="H156" s="71"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="71"/>
+      <c r="K156" s="71"/>
+      <c r="L156" s="71"/>
+      <c r="M156" s="71"/>
+      <c r="N156" s="71"/>
+    </row>
+    <row r="157" spans="2:14">
+      <c r="B157" s="58"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="71"/>
+      <c r="H157" s="71"/>
+      <c r="I157" s="71"/>
+      <c r="J157" s="71"/>
+      <c r="K157" s="71"/>
+      <c r="L157" s="71"/>
+      <c r="M157" s="71"/>
+      <c r="N157" s="71"/>
+    </row>
+    <row r="158" spans="2:14">
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="71"/>
+      <c r="G158" s="71"/>
+      <c r="H158" s="71"/>
+      <c r="I158" s="71"/>
+      <c r="J158" s="71"/>
+      <c r="K158" s="71"/>
+      <c r="L158" s="71"/>
+      <c r="M158" s="71"/>
+      <c r="N158" s="71"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="I79:I80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32562,10 +36534,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -32962,23 +36934,23 @@
         <f>AVERAGE(B2:B16)</f>
         <v>16.466666666666665</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="60" t="s">
         <v>220</v>
       </c>
       <c r="I18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="60">
         <f>I18/I19</f>
         <v>46.897777777777783</v>
       </c>
-      <c r="L18" s="58" t="s">
+      <c r="L18" s="60" t="s">
         <v>222</v>
       </c>
       <c r="M18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="60">
         <f>M18/M19</f>
         <v>50.247619047619047</v>
       </c>
@@ -32991,18 +36963,18 @@
         <f>AVERAGE(D2:D16)</f>
         <v>98.933333333333337</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="31">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="L19" s="58"/>
+      <c r="J19" s="60"/>
+      <c r="L19" s="60"/>
       <c r="M19">
         <f>I19-1</f>
         <v>14</v>
       </c>
-      <c r="N19" s="58"/>
+      <c r="N19" s="60"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -33049,206 +37021,40 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="60" t="s">
         <v>228</v>
       </c>
       <c r="I26">
         <v>46.897777777777783</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="60">
         <f>I26/I27</f>
         <v>0.88792090224061171</v>
       </c>
-      <c r="L26" s="58" t="s">
+      <c r="L26" s="60" t="s">
         <v>229</v>
       </c>
       <c r="M26">
         <v>50.247619047619047</v>
       </c>
-      <c r="N26" s="58">
+      <c r="N26" s="60">
         <f>M26/M27</f>
         <v>0.88792090224061504</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="H27" s="58"/>
+      <c r="H27" s="60"/>
       <c r="I27">
         <f>B21*B24</f>
         <v>52.817517483183735</v>
       </c>
-      <c r="J27" s="58"/>
-      <c r="L27" s="58"/>
+      <c r="J27" s="60"/>
+      <c r="L27" s="60"/>
       <c r="M27">
         <f>B22*B25</f>
         <v>56.590197303410925</v>
       </c>
-      <c r="N27" s="58"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="F32">
-        <f>$B$2</f>
-        <v>13</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:K32" si="3">C$2</f>
-        <v>-3.466666666666665</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>-4.9333333333333371</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>17.102222222222228</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7">
-      <c r="F33">
-        <f t="shared" ref="F33:F46" si="4">$B$2</f>
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G46" si="5">$B$2</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7">
-      <c r="F34">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7">
-      <c r="F35">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7">
-      <c r="F37">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7">
-      <c r="F38">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7">
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7">
-      <c r="F41">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7">
-      <c r="F42">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7">
-      <c r="F43">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7">
-      <c r="F44">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7">
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7">
-      <c r="F46">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+      <c r="N27" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -33268,11 +37074,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B15:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="15" spans="2:5">
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="E18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="E19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="E20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="E21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T180"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A119" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
@@ -33931,7 +37796,7 @@
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -34052,13 +37917,13 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="60" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="60">
         <v>8</v>
       </c>
     </row>
@@ -34067,11 +37932,11 @@
         <f>SUM(D5:D9)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
@@ -34135,7 +38000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N15"/>
     </sheetView>
   </sheetViews>
@@ -34393,7 +38258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI170"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y128" sqref="Y128"/>
     </sheetView>
   </sheetViews>
@@ -34407,14 +38272,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -35054,13 +38919,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -35448,13 +39313,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -37209,14 +41074,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -37621,11 +41486,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -37960,7 +41825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Y83"/>
   <sheetViews>
-    <sheetView topLeftCell="J58" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="X63" sqref="X63"/>
     </sheetView>
   </sheetViews>
@@ -38144,40 +42009,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="65">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="63"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">

--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="4" activeTab="13"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,23 @@
     <sheet name="MNIST(데이터셋)" sheetId="4" r:id="rId10"/>
     <sheet name="EDA" sheetId="13" r:id="rId11"/>
     <sheet name="pivot_table" sheetId="14" r:id="rId12"/>
-    <sheet name="adv" sheetId="15" r:id="rId13"/>
+    <sheet name="상관_회귀" sheetId="15" r:id="rId13"/>
     <sheet name="확률" sheetId="16" r:id="rId14"/>
+    <sheet name="예측모델" sheetId="17" r:id="rId15"/>
+    <sheet name="미분공식" sheetId="18" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.0" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
     <definedName name="_xlchart.1" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.2" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="320">
   <si>
     <t>항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1726,12 +1728,164 @@
     <t>3개 중에 3개뽑기(순서를 고려)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>로그함수 변형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교차(cross) 엔트로피(entropy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 그래프를 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란색 선은 실제값이 1일때 사용할 수 있는 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측값이 1일때 오차가 0이고, 반대로 예측값이 0에 가까울수록 오차는 커짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색 선은 실제값이 0일때 사용할 수 있는 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측값이 0일때 오차가 0이고, 반대로 예측값이 1에 가까울수록 오차는 커짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기울기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x편차 * y편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x편차^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y절편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = 2.3x + 79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 공식에 의해 구한 단순 선형 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝은 임의의 선을 긋고 그 기울기를 조정해가면서 오차가 가장 적은 기울기를 찾아나가야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고비 편차^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차 = 실제값 - 예측값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임의로 머신이 예측한 선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기울기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = 3x + 76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y(실제성적, 
+실제값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean absolute error
+(mae)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차 = 
+실제값 - 예측값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|오차|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차제곱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean squared error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root mean 
+squared error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = 2.5x + 76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경사하강법(gradient descent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1866,8 +2020,68 @@
       <name val="Var(--pst-font-family-monospace"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1937,6 +2151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,7 +2314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2237,26 +2457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2280,6 +2480,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3170,7 +3425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3615,7 +3869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6162,6 +6415,491 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5FE4-4609-ACEC-80EB5F2ED21F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]로그함수2!$O$109:$O$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="5">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]로그함수2!$Q$109:$Q$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="5">
+                  <c:v>-7.9181246047624818E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1392685158225077E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5757490560675115E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6910013008056392E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15490195998574319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22184874961635639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52287874528033751</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69897000433601886</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5FE4-4609-ACEC-80EB5F2ED21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5FE4-4609-ACEC-80EB5F2ED21F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]로그함수2!$O$109:$O$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="5">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]로그함수2!$R$109:$R$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69897000433601875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52287874528033762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22184874961635639</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15490195998574319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6910013008056392E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5757490560675115E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.1392685158225077E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.9181246047624818E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.11394335230683679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5FE4-4609-ACEC-80EB5F2ED21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1174979519"/>
+        <c:axId val="1174979935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1174979519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174979935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1174979935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174979519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>머신러닝기초!$C$5</c:f>
@@ -6383,426 +7121,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="211539632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>머신러닝기초!$O$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>머신러닝기초!$N$37:$N$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>머신러닝기초!$O$37:$O$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE77-4791-9F95-3ECC0F39784E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="331540032"/>
-        <c:axId val="331540448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="331540032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="331540448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="331540448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="331540032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7308,7 +7626,425 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>머신러닝기초!$O$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>머신러닝기초!$N$37:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>머신러닝기초!$O$37:$O$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE77-4791-9F95-3ECC0F39784E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331540032"/>
+        <c:axId val="331540448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331540032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331540448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="331540448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331540032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7713,7 +8449,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -8395,7 +9131,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -8410,7 +9146,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8812,12 +9547,12 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.2</cx:f>
+        <cx:f>_xlchart.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8868,7 +9603,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -8902,7 +9637,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -8927,7 +9662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>adv!$D$1</c:f>
+              <c:f>상관_회귀!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8960,7 +9695,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>adv!$B$2:$B$16</c:f>
+              <c:f>상관_회귀!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -9014,7 +9749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>adv!$D$2:$D$16</c:f>
+              <c:f>상관_회귀!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -9205,6 +9940,293 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1003846592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>예측모델!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y(실제성적, 
+실제값)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>예측모델!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>예측모델!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24D7-46C5-9C5B-A02D97B850AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="387034464"/>
+        <c:axId val="387035296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="387034464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387035296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="387035296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387034464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10432,7 +11454,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10871,7 +11892,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11683,7 +12703,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12438,12 +13457,9 @@
 </file>
 
 <file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -12797,6 +13813,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19786,7 +20882,7 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19813,8 +20909,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -19894,11 +20990,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -19909,11 +21000,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -19925,7 +21011,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -19945,9 +21031,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19960,10 +21043,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -20003,22 +21086,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -20123,8 +21207,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -20256,19 +21340,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -20282,6 +21367,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -20302,7 +21398,7 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20329,8 +21425,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -20410,6 +21506,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -20420,6 +21521,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -20431,7 +21537,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -20451,6 +21557,512 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20817,7 +22429,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21303,7 +22915,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21789,7 +23401,523 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26262,6 +28390,838 @@
         <a:xfrm>
           <a:off x="7058025" y="4581525"/>
           <a:ext cx="5468113" cy="3486637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>315084</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="247650"/>
+          <a:ext cx="5439534" cy="1333686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114772</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="2209800"/>
+          <a:ext cx="3381847" cy="685896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>305308</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>314443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="3238500"/>
+          <a:ext cx="3639058" cy="847843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9572625" y="200025"/>
+          <a:ext cx="3581400" cy="4514851"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 연결선 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8096250" y="8667750"/>
+          <a:ext cx="438150" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9896475" y="0"/>
+          <a:ext cx="2286000" cy="4905375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619824</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="16421100"/>
+          <a:ext cx="5010849" cy="4553585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>125929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="내용 개체 틀 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noGrp="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="16602075"/>
+          <a:ext cx="5991225" cy="4964629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0">
+          <a:normAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="225425" indent="-225425" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="110000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="600"/>
+            </a:spcBef>
+            <a:buClr>
+              <a:srgbClr val="E0AC00"/>
+            </a:buClr>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="l"/>
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="504B4B"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="573088" indent="-238125" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="110000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buClr>
+              <a:srgbClr val="E0AC00"/>
+            </a:buClr>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="l"/>
+            <a:defRPr sz="1600" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="504B4B"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="860425" indent="-182563" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="110000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="300"/>
+            </a:spcBef>
+            <a:buClr>
+              <a:srgbClr val="E0AC00"/>
+            </a:buClr>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="l"/>
+            <a:defRPr sz="1400" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="504B4B"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1198563" indent="-225425" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="110000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="100"/>
+            </a:spcBef>
+            <a:buClr>
+              <a:srgbClr val="E0AC00"/>
+            </a:buClr>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="l"/>
+            <a:defRPr sz="1200" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="504B4B"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1544638" indent="-228600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="110000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:buClr>
+              <a:srgbClr val="E0AC00"/>
+            </a:buClr>
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="l"/>
+            <a:defRPr sz="1200" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="504B4B"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2514600" indent="-228600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="2000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2971800" indent="-228600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="2000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3429000" indent="-228600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="2000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3886200" indent="-228600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="2000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" b="1">
+              <a:latin typeface="KoPub돋움체_Pro Bold" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Bold" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>경사 하강법의 개요</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>경사 하강법은 이렇게 반복적으로 기울기 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>를 변화시켜서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>m </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>값을 찾아내는 방법</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>여기서 우리는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" b="1">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>학습률</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>(learning rate)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이라는 개념을 알 수 있음</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>기울기의 부호를 바꾸어 이동시킬 때 적절한 거리를 찾지 못해 너무 멀리 이동시키면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>값이 한 점으로 모이지 않고 그림 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>5-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>와 같이 위로 치솟아 버림</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="KoPub돋움체_Pro Light" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248507</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="19373850"/>
+          <a:ext cx="6144482" cy="4048690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419980</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="3952875"/>
+          <a:ext cx="6306430" cy="5430008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>610128</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="9496425"/>
+          <a:ext cx="3781953" cy="2257740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248131</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>162600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="11877675"/>
+          <a:ext cx="3448531" cy="4839375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31186,7 +34146,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>469480</xdr:colOff>
+      <xdr:colOff>222951</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -31254,7 +34214,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>466627</xdr:colOff>
+      <xdr:colOff>220098</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>88596</xdr:rowOff>
     </xdr:to>
@@ -31311,6 +34271,235 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>216125</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>18456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="10724030"/>
+          <a:ext cx="6973273" cy="3772426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190014</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>107144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143001" y="15553765"/>
+          <a:ext cx="7249719" cy="5205820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>191327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="차트 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>356153</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>422414</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6528353" y="26392533"/>
+          <a:ext cx="752061" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>예측값</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662610</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1348410" y="22739075"/>
+          <a:ext cx="750404" cy="435664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오차</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -31698,13 +34887,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -32041,6 +35230,197 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="기초수학"/>
+      <sheetName val="자연상수"/>
+      <sheetName val="선형대수"/>
+      <sheetName val="기하학"/>
+      <sheetName val="지수함수"/>
+      <sheetName val="로그함수"/>
+      <sheetName val="로그함수2"/>
+      <sheetName val="머신러닝기초"/>
+      <sheetName val="MNIST데이터셋"/>
+      <sheetName val="EDA"/>
+      <sheetName val="pivot_table"/>
+      <sheetName val="상관_회귀"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="114">
+          <cell r="O114">
+            <v>-0.2</v>
+          </cell>
+          <cell r="Q114">
+            <v>-7.9181246047624818E-2</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="O115">
+            <v>-0.1</v>
+          </cell>
+          <cell r="Q115">
+            <v>-4.1392685158225077E-2</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="O116">
+            <v>0</v>
+          </cell>
+          <cell r="Q116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="O117">
+            <v>0.1</v>
+          </cell>
+          <cell r="Q117">
+            <v>4.5757490560675115E-2</v>
+          </cell>
+          <cell r="R117">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="O118">
+            <v>0.2</v>
+          </cell>
+          <cell r="Q118">
+            <v>9.6910013008056392E-2</v>
+          </cell>
+          <cell r="R118">
+            <v>0.69897000433601875</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="O119">
+            <v>0.3</v>
+          </cell>
+          <cell r="Q119">
+            <v>0.15490195998574319</v>
+          </cell>
+          <cell r="R119">
+            <v>0.52287874528033762</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="O120">
+            <v>0.4</v>
+          </cell>
+          <cell r="Q120">
+            <v>0.22184874961635639</v>
+          </cell>
+          <cell r="R120">
+            <v>0.3979400086720376</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="O121">
+            <v>0.5</v>
+          </cell>
+          <cell r="Q121">
+            <v>0.3010299956639812</v>
+          </cell>
+          <cell r="R121">
+            <v>0.3010299956639812</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="O122">
+            <v>0.6</v>
+          </cell>
+          <cell r="Q122">
+            <v>0.3979400086720376</v>
+          </cell>
+          <cell r="R122">
+            <v>0.22184874961635639</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="O123">
+            <v>0.7</v>
+          </cell>
+          <cell r="Q123">
+            <v>0.52287874528033751</v>
+          </cell>
+          <cell r="R123">
+            <v>0.15490195998574319</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="O124">
+            <v>0.8</v>
+          </cell>
+          <cell r="Q124">
+            <v>0.69897000433601886</v>
+          </cell>
+          <cell r="R124">
+            <v>9.6910013008056392E-2</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="O125">
+            <v>0.9</v>
+          </cell>
+          <cell r="Q125">
+            <v>1</v>
+          </cell>
+          <cell r="R125">
+            <v>4.5757490560675115E-2</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="O126">
+            <v>1</v>
+          </cell>
+          <cell r="R126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="O127">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="R127">
+            <v>-4.1392685158225077E-2</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="O128">
+            <v>1.2</v>
+          </cell>
+          <cell r="R128">
+            <v>-7.9181246047624818E-2</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="O129">
+            <v>1.3</v>
+          </cell>
+          <cell r="R129">
+            <v>-0.11394335230683679</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -33056,8 +36436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:G34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -33924,8 +37304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -34394,14 +37774,14 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-    </row>
-    <row r="41" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="2:12" ht="18.75" thickBot="1">
       <c r="B41" s="34" t="s">
         <v>133</v>
       </c>
@@ -34422,7 +37802,7 @@
       </c>
       <c r="K41" s="54"/>
     </row>
-    <row r="42" spans="2:12" ht="33.75" thickBot="1">
+    <row r="42" spans="2:12" ht="17.25" thickBot="1">
       <c r="B42" s="37" t="s">
         <v>136</v>
       </c>
@@ -34442,7 +37822,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="33.75" thickBot="1">
+    <row r="43" spans="2:12" ht="17.25" thickBot="1">
       <c r="B43" s="37" t="s">
         <v>138</v>
       </c>
@@ -34482,7 +37862,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="33.75" thickBot="1">
+    <row r="45" spans="2:12" ht="17.25" thickBot="1">
       <c r="B45" s="37" t="s">
         <v>140</v>
       </c>
@@ -34502,7 +37882,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="33.75" thickBot="1">
+    <row r="46" spans="2:12" ht="17.25" thickBot="1">
       <c r="B46" s="40" t="s">
         <v>141</v>
       </c>
@@ -34568,7 +37948,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="60" t="s">
         <v>234</v>
       </c>
       <c r="G58" s="32" t="s">
@@ -34743,10 +38123,10 @@
       <c r="C77" s="59">
         <v>55</v>
       </c>
-      <c r="F77" s="60" t="s">
+      <c r="F77" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="G77" s="69" t="s">
+      <c r="G77" s="61" t="s">
         <v>254</v>
       </c>
     </row>
@@ -34757,7 +38137,7 @@
       <c r="C78" s="59">
         <v>40</v>
       </c>
-      <c r="F78" s="60"/>
+      <c r="F78" s="70"/>
       <c r="G78" s="59" t="s">
         <v>255</v>
       </c>
@@ -34769,10 +38149,10 @@
       <c r="C79" s="59">
         <v>80</v>
       </c>
-      <c r="F79" s="60" t="s">
+      <c r="F79" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="I79" s="60" t="s">
+      <c r="I79" s="70" t="s">
         <v>257</v>
       </c>
     </row>
@@ -34783,8 +38163,8 @@
       <c r="C80" s="59">
         <v>93</v>
       </c>
-      <c r="F80" s="60"/>
-      <c r="I80" s="60"/>
+      <c r="F80" s="70"/>
+      <c r="I80" s="70"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="59">
@@ -34855,526 +38235,526 @@
       </c>
     </row>
     <row r="92" spans="2:14">
-      <c r="B92" s="70" t="s">
+      <c r="B92" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="70" t="s">
+      <c r="C92" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="71"/>
-      <c r="N92" s="71"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="63"/>
+      <c r="L92" s="63"/>
+      <c r="M92" s="63"/>
+      <c r="N92" s="63"/>
     </row>
     <row r="93" spans="2:14">
-      <c r="B93" s="72">
+      <c r="B93" s="64">
         <v>1</v>
       </c>
-      <c r="C93" s="72">
+      <c r="C93" s="64">
         <v>171</v>
       </c>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="63"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
     </row>
     <row r="94" spans="2:14">
-      <c r="B94" s="72">
+      <c r="B94" s="64">
         <v>2</v>
       </c>
-      <c r="C94" s="72">
+      <c r="C94" s="64">
         <v>152</v>
       </c>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="63"/>
+      <c r="L94" s="63"/>
+      <c r="M94" s="63"/>
+      <c r="N94" s="63"/>
     </row>
     <row r="95" spans="2:14">
-      <c r="B95" s="72">
+      <c r="B95" s="64">
         <v>3</v>
       </c>
-      <c r="C95" s="72">
+      <c r="C95" s="64">
         <v>171</v>
       </c>
-      <c r="D95" s="71"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="L95" s="63"/>
+      <c r="M95" s="63"/>
+      <c r="N95" s="63"/>
     </row>
     <row r="96" spans="2:14">
-      <c r="B96" s="72">
+      <c r="B96" s="64">
         <v>4</v>
       </c>
-      <c r="C96" s="72">
+      <c r="C96" s="64">
         <v>142</v>
       </c>
-      <c r="D96" s="71"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="71"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="63"/>
+      <c r="L96" s="63"/>
+      <c r="M96" s="63"/>
+      <c r="N96" s="63"/>
     </row>
     <row r="97" spans="2:14">
-      <c r="B97" s="72">
+      <c r="B97" s="64">
         <v>5</v>
       </c>
-      <c r="C97" s="72">
+      <c r="C97" s="64">
         <v>153</v>
       </c>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="71"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="63"/>
     </row>
     <row r="98" spans="2:14">
-      <c r="B98" s="72">
+      <c r="B98" s="64">
         <v>6</v>
       </c>
-      <c r="C98" s="72">
+      <c r="C98" s="64">
         <v>168</v>
       </c>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="71"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="71"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="63"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="63"/>
+      <c r="N98" s="63"/>
     </row>
     <row r="99" spans="2:14">
-      <c r="B99" s="72">
+      <c r="B99" s="64">
         <v>7</v>
       </c>
-      <c r="C99" s="72">
+      <c r="C99" s="64">
         <v>150</v>
       </c>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="63"/>
+      <c r="N99" s="63"/>
     </row>
     <row r="100" spans="2:14">
-      <c r="B100" s="72">
+      <c r="B100" s="64">
         <v>8</v>
       </c>
-      <c r="C100" s="72">
+      <c r="C100" s="64">
         <v>160</v>
       </c>
-      <c r="D100" s="71"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="71"/>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="63"/>
+      <c r="M100" s="63"/>
+      <c r="N100" s="63"/>
     </row>
     <row r="101" spans="2:14">
-      <c r="B101" s="72">
+      <c r="B101" s="64">
         <v>9</v>
       </c>
-      <c r="C101" s="72">
+      <c r="C101" s="64">
         <v>170</v>
       </c>
-      <c r="D101" s="71"/>
-      <c r="E101" s="71"/>
-      <c r="F101" s="71"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="71"/>
-      <c r="K101" s="71"/>
-      <c r="L101" s="71"/>
-      <c r="M101" s="71"/>
-      <c r="N101" s="71"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="63"/>
+      <c r="L101" s="63"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="63"/>
     </row>
     <row r="102" spans="2:14">
-      <c r="B102" s="72">
+      <c r="B102" s="64">
         <v>10</v>
       </c>
-      <c r="C102" s="72">
+      <c r="C102" s="64">
         <v>143</v>
       </c>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="71"/>
-      <c r="L102" s="71"/>
-      <c r="M102" s="71"/>
-      <c r="N102" s="71"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
+      <c r="L102" s="63"/>
+      <c r="M102" s="63"/>
+      <c r="N102" s="63"/>
     </row>
     <row r="103" spans="2:14">
-      <c r="B103" s="72">
+      <c r="B103" s="64">
         <v>11</v>
       </c>
-      <c r="C103" s="72">
+      <c r="C103" s="64">
         <v>144</v>
       </c>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="71"/>
-      <c r="H103" s="71"/>
-      <c r="I103" s="71"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="71"/>
-      <c r="L103" s="71"/>
-      <c r="M103" s="71"/>
-      <c r="N103" s="71"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="63"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="63"/>
     </row>
     <row r="104" spans="2:14">
-      <c r="B104" s="72">
+      <c r="B104" s="64">
         <v>12</v>
       </c>
-      <c r="C104" s="72">
+      <c r="C104" s="64">
         <v>181</v>
       </c>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="71"/>
-      <c r="N104" s="71"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="63"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="63"/>
+      <c r="K104" s="63"/>
+      <c r="L104" s="63"/>
+      <c r="M104" s="63"/>
+      <c r="N104" s="63"/>
     </row>
     <row r="105" spans="2:14">
-      <c r="B105" s="72">
+      <c r="B105" s="64">
         <v>13</v>
       </c>
-      <c r="C105" s="72">
+      <c r="C105" s="64">
         <v>178</v>
       </c>
-      <c r="D105" s="71"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="63"/>
+      <c r="M105" s="63"/>
+      <c r="N105" s="63"/>
     </row>
     <row r="106" spans="2:14">
-      <c r="B106" s="72">
+      <c r="B106" s="64">
         <v>14</v>
       </c>
-      <c r="C106" s="72">
+      <c r="C106" s="64">
         <v>175</v>
       </c>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="71"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="63"/>
+      <c r="L106" s="63"/>
+      <c r="M106" s="63"/>
+      <c r="N106" s="63"/>
     </row>
     <row r="107" spans="2:14">
-      <c r="B107" s="72">
+      <c r="B107" s="64">
         <v>15</v>
       </c>
-      <c r="C107" s="72">
+      <c r="C107" s="64">
         <v>170</v>
       </c>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
-      <c r="L107" s="71"/>
-      <c r="M107" s="71"/>
-      <c r="N107" s="71"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="63"/>
+      <c r="K107" s="63"/>
+      <c r="L107" s="63"/>
+      <c r="M107" s="63"/>
+      <c r="N107" s="63"/>
     </row>
     <row r="108" spans="2:14">
-      <c r="B108" s="72">
+      <c r="B108" s="64">
         <v>16</v>
       </c>
-      <c r="C108" s="72">
+      <c r="C108" s="64">
         <v>157</v>
       </c>
-      <c r="D108" s="71"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="71"/>
-      <c r="L108" s="71"/>
-      <c r="M108" s="71"/>
-      <c r="N108" s="71"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="63"/>
+      <c r="J108" s="63"/>
+      <c r="K108" s="63"/>
+      <c r="L108" s="63"/>
+      <c r="M108" s="63"/>
+      <c r="N108" s="63"/>
     </row>
     <row r="109" spans="2:14">
-      <c r="B109" s="72">
+      <c r="B109" s="64">
         <v>17</v>
       </c>
-      <c r="C109" s="72">
+      <c r="C109" s="64">
         <v>150</v>
       </c>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
-      <c r="L109" s="71"/>
-      <c r="M109" s="71"/>
-      <c r="N109" s="71"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
     </row>
     <row r="110" spans="2:14">
-      <c r="B110" s="72">
+      <c r="B110" s="64">
         <v>18</v>
       </c>
-      <c r="C110" s="72">
+      <c r="C110" s="64">
         <v>176</v>
       </c>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
-      <c r="L110" s="71"/>
-      <c r="M110" s="71"/>
-      <c r="N110" s="71"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="63"/>
+      <c r="L110" s="63"/>
+      <c r="M110" s="63"/>
+      <c r="N110" s="63"/>
     </row>
     <row r="111" spans="2:14">
-      <c r="B111" s="72">
+      <c r="B111" s="64">
         <v>19</v>
       </c>
-      <c r="C111" s="72">
+      <c r="C111" s="64">
         <v>154</v>
       </c>
-      <c r="D111" s="71"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="71"/>
-      <c r="L111" s="71"/>
-      <c r="M111" s="71"/>
-      <c r="N111" s="71"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="63"/>
+      <c r="L111" s="63"/>
+      <c r="M111" s="63"/>
+      <c r="N111" s="63"/>
     </row>
     <row r="112" spans="2:14">
-      <c r="B112" s="72">
+      <c r="B112" s="64">
         <v>20</v>
       </c>
-      <c r="C112" s="72">
+      <c r="C112" s="64">
         <v>150</v>
       </c>
-      <c r="D112" s="71"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="71"/>
-      <c r="L112" s="71"/>
-      <c r="M112" s="71"/>
-      <c r="N112" s="71"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="63"/>
+      <c r="K112" s="63"/>
+      <c r="L112" s="63"/>
+      <c r="M112" s="63"/>
+      <c r="N112" s="63"/>
     </row>
     <row r="113" spans="2:14">
-      <c r="B113" s="72">
+      <c r="B113" s="64">
         <v>21</v>
       </c>
-      <c r="C113" s="72">
+      <c r="C113" s="64">
         <v>170</v>
       </c>
-      <c r="D113" s="71"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="71"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="71"/>
-      <c r="L113" s="71"/>
-      <c r="M113" s="71"/>
-      <c r="N113" s="71"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="63"/>
+      <c r="L113" s="63"/>
+      <c r="M113" s="63"/>
+      <c r="N113" s="63"/>
     </row>
     <row r="114" spans="2:14">
-      <c r="B114" s="72">
+      <c r="B114" s="64">
         <v>22</v>
       </c>
-      <c r="C114" s="72">
+      <c r="C114" s="64">
         <v>177</v>
       </c>
-      <c r="D114" s="71"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="71"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="71"/>
-      <c r="L114" s="71"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="63"/>
+      <c r="L114" s="63"/>
+      <c r="M114" s="63"/>
+      <c r="N114" s="63"/>
     </row>
     <row r="115" spans="2:14">
-      <c r="B115" s="72">
+      <c r="B115" s="64">
         <v>23</v>
       </c>
-      <c r="C115" s="72">
+      <c r="C115" s="64">
         <v>173</v>
       </c>
-      <c r="D115" s="71"/>
-      <c r="E115" s="72" t="s">
+      <c r="D115" s="63"/>
+      <c r="E115" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="F115" s="73">
+      <c r="F115" s="65">
         <f>MAX(C93:C122)</f>
         <v>182</v>
       </c>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="71"/>
-      <c r="J115" s="71"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="71"/>
-      <c r="M115" s="71"/>
-      <c r="N115" s="71"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="63"/>
+      <c r="K115" s="63"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="63"/>
+      <c r="N115" s="63"/>
     </row>
     <row r="116" spans="2:14">
-      <c r="B116" s="72">
+      <c r="B116" s="64">
         <v>24</v>
       </c>
-      <c r="C116" s="72">
+      <c r="C116" s="64">
         <v>172</v>
       </c>
-      <c r="D116" s="71"/>
-      <c r="E116" s="72" t="s">
+      <c r="D116" s="63"/>
+      <c r="E116" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="F116" s="73">
+      <c r="F116" s="65">
         <f>_xlfn.QUARTILE.EXC(C93:C122,3)</f>
         <v>172.25</v>
       </c>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="71"/>
-      <c r="J116" s="71"/>
-      <c r="K116" s="71"/>
-      <c r="L116" s="71"/>
-      <c r="M116" s="71"/>
-      <c r="N116" s="71"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="63"/>
+      <c r="I116" s="63"/>
+      <c r="J116" s="63"/>
+      <c r="K116" s="63"/>
+      <c r="L116" s="63"/>
+      <c r="M116" s="63"/>
+      <c r="N116" s="63"/>
     </row>
     <row r="117" spans="2:14">
-      <c r="B117" s="72">
+      <c r="B117" s="64">
         <v>25</v>
       </c>
-      <c r="C117" s="72">
+      <c r="C117" s="64">
         <v>143</v>
       </c>
-      <c r="D117" s="71"/>
-      <c r="E117" s="72" t="s">
+      <c r="D117" s="63"/>
+      <c r="E117" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="F117" s="73">
+      <c r="F117" s="65">
         <f>AVERAGE(C93:C122)</f>
         <v>160.80000000000001</v>
       </c>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-      <c r="L117" s="71"/>
-      <c r="M117" s="71"/>
-      <c r="N117" s="71"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="63"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="63"/>
+      <c r="K117" s="63"/>
+      <c r="L117" s="63"/>
+      <c r="M117" s="63"/>
+      <c r="N117" s="63"/>
     </row>
     <row r="118" spans="2:14">
-      <c r="B118" s="72">
+      <c r="B118" s="64">
         <v>26</v>
       </c>
-      <c r="C118" s="72">
+      <c r="C118" s="64">
         <v>182</v>
       </c>
-      <c r="D118" s="71"/>
-      <c r="E118" s="74" t="s">
+      <c r="D118" s="63"/>
+      <c r="E118" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="F118" s="75">
+      <c r="F118" s="67">
         <f>MEDIAN(C93:C122)</f>
         <v>158.5</v>
       </c>
@@ -35383,113 +38763,113 @@
         <f>_xlfn.QUARTILE.EXC(C93:C122,2)</f>
         <v>158.5</v>
       </c>
-      <c r="I118" s="71"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="71"/>
-      <c r="L118" s="71"/>
-      <c r="M118" s="71"/>
-      <c r="N118" s="71"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="63"/>
+      <c r="L118" s="63"/>
+      <c r="M118" s="63"/>
+      <c r="N118" s="63"/>
     </row>
     <row r="119" spans="2:14">
-      <c r="B119" s="72">
+      <c r="B119" s="64">
         <v>27</v>
       </c>
-      <c r="C119" s="72">
+      <c r="C119" s="64">
         <v>143</v>
       </c>
-      <c r="D119" s="71"/>
-      <c r="E119" s="72" t="s">
+      <c r="D119" s="63"/>
+      <c r="E119" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="F119" s="73">
+      <c r="F119" s="65">
         <f>_xlfn.QUARTILE.EXC(C93:C122,1)</f>
         <v>149.75</v>
       </c>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="71"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="71"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="71"/>
-      <c r="N119" s="71"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="63"/>
+      <c r="I119" s="63"/>
+      <c r="J119" s="63"/>
+      <c r="K119" s="63"/>
+      <c r="L119" s="63"/>
+      <c r="M119" s="63"/>
+      <c r="N119" s="63"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="B120" s="72">
+      <c r="B120" s="64">
         <v>28</v>
       </c>
-      <c r="C120" s="72">
+      <c r="C120" s="64">
         <v>149</v>
       </c>
-      <c r="D120" s="71"/>
-      <c r="E120" s="72" t="s">
+      <c r="D120" s="63"/>
+      <c r="E120" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="F120" s="73">
+      <c r="F120" s="65">
         <f>MIN(C93:C122)</f>
         <v>142</v>
       </c>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="71"/>
-      <c r="J120" s="71"/>
-      <c r="K120" s="71"/>
-      <c r="L120" s="71"/>
-      <c r="M120" s="71"/>
-      <c r="N120" s="71"/>
+      <c r="G120" s="63"/>
+      <c r="H120" s="63"/>
+      <c r="I120" s="63"/>
+      <c r="J120" s="63"/>
+      <c r="K120" s="63"/>
+      <c r="L120" s="63"/>
+      <c r="M120" s="63"/>
+      <c r="N120" s="63"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="B121" s="72">
+      <c r="B121" s="64">
         <v>29</v>
       </c>
-      <c r="C121" s="72">
+      <c r="C121" s="64">
         <v>153</v>
       </c>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="71"/>
-      <c r="J121" s="71"/>
-      <c r="K121" s="71"/>
-      <c r="L121" s="71"/>
-      <c r="M121" s="71"/>
-      <c r="N121" s="71"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="63"/>
+      <c r="I121" s="63"/>
+      <c r="J121" s="63"/>
+      <c r="K121" s="63"/>
+      <c r="L121" s="63"/>
+      <c r="M121" s="63"/>
+      <c r="N121" s="63"/>
     </row>
     <row r="122" spans="2:14">
-      <c r="B122" s="72">
+      <c r="B122" s="64">
         <v>30</v>
       </c>
-      <c r="C122" s="72">
+      <c r="C122" s="64">
         <v>147</v>
       </c>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="71"/>
-      <c r="J122" s="71"/>
-      <c r="K122" s="71"/>
-      <c r="L122" s="71"/>
-      <c r="M122" s="71"/>
-      <c r="N122" s="71"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
+      <c r="L122" s="63"/>
+      <c r="M122" s="63"/>
+      <c r="N122" s="63"/>
     </row>
     <row r="123" spans="2:14">
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
-      <c r="D123" s="71"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="71"/>
-      <c r="J123" s="71"/>
-      <c r="K123" s="71"/>
-      <c r="L123" s="71"/>
-      <c r="M123" s="71"/>
-      <c r="N123" s="71"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="63"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="63"/>
+      <c r="I123" s="63"/>
+      <c r="J123" s="63"/>
+      <c r="K123" s="63"/>
+      <c r="L123" s="63"/>
+      <c r="M123" s="63"/>
+      <c r="N123" s="63"/>
     </row>
     <row r="124" spans="2:14">
       <c r="B124" t="s">
@@ -35497,526 +38877,526 @@
       </c>
     </row>
     <row r="126" spans="2:14">
-      <c r="B126" s="70" t="s">
+      <c r="B126" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C126" s="70" t="s">
+      <c r="C126" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="D126" s="71"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="71"/>
-      <c r="J126" s="71"/>
-      <c r="K126" s="71"/>
-      <c r="L126" s="71"/>
-      <c r="M126" s="71"/>
-      <c r="N126" s="71"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
+      <c r="L126" s="63"/>
+      <c r="M126" s="63"/>
+      <c r="N126" s="63"/>
     </row>
     <row r="127" spans="2:14">
-      <c r="B127" s="72">
+      <c r="B127" s="64">
         <v>1</v>
       </c>
-      <c r="C127" s="72">
+      <c r="C127" s="64">
         <v>171</v>
       </c>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="71"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="71"/>
-      <c r="L127" s="71"/>
-      <c r="M127" s="71"/>
-      <c r="N127" s="71"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="63"/>
+      <c r="I127" s="63"/>
+      <c r="J127" s="63"/>
+      <c r="K127" s="63"/>
+      <c r="L127" s="63"/>
+      <c r="M127" s="63"/>
+      <c r="N127" s="63"/>
     </row>
     <row r="128" spans="2:14">
-      <c r="B128" s="72">
+      <c r="B128" s="64">
         <v>2</v>
       </c>
-      <c r="C128" s="72">
+      <c r="C128" s="64">
         <v>152</v>
       </c>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="71"/>
-      <c r="J128" s="71"/>
-      <c r="K128" s="71"/>
-      <c r="L128" s="71"/>
-      <c r="M128" s="71"/>
-      <c r="N128" s="71"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
+      <c r="H128" s="63"/>
+      <c r="I128" s="63"/>
+      <c r="J128" s="63"/>
+      <c r="K128" s="63"/>
+      <c r="L128" s="63"/>
+      <c r="M128" s="63"/>
+      <c r="N128" s="63"/>
     </row>
     <row r="129" spans="2:14">
-      <c r="B129" s="72">
+      <c r="B129" s="64">
         <v>3</v>
       </c>
-      <c r="C129" s="72">
+      <c r="C129" s="64">
         <v>171</v>
       </c>
-      <c r="D129" s="71"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="71"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="71"/>
-      <c r="L129" s="71"/>
-      <c r="M129" s="71"/>
-      <c r="N129" s="71"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="63"/>
+      <c r="I129" s="63"/>
+      <c r="J129" s="63"/>
+      <c r="K129" s="63"/>
+      <c r="L129" s="63"/>
+      <c r="M129" s="63"/>
+      <c r="N129" s="63"/>
     </row>
     <row r="130" spans="2:14">
-      <c r="B130" s="72">
+      <c r="B130" s="64">
         <v>4</v>
       </c>
-      <c r="C130" s="72">
+      <c r="C130" s="64">
         <v>142</v>
       </c>
-      <c r="D130" s="71"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="71"/>
-      <c r="J130" s="71"/>
-      <c r="K130" s="71"/>
-      <c r="L130" s="71"/>
-      <c r="M130" s="71"/>
-      <c r="N130" s="71"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="63"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="63"/>
+      <c r="L130" s="63"/>
+      <c r="M130" s="63"/>
+      <c r="N130" s="63"/>
     </row>
     <row r="131" spans="2:14">
-      <c r="B131" s="72">
+      <c r="B131" s="64">
         <v>5</v>
       </c>
-      <c r="C131" s="72">
+      <c r="C131" s="64">
         <v>153</v>
       </c>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="71"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="71"/>
-      <c r="L131" s="71"/>
-      <c r="M131" s="71"/>
-      <c r="N131" s="71"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="63"/>
+      <c r="L131" s="63"/>
+      <c r="M131" s="63"/>
+      <c r="N131" s="63"/>
     </row>
     <row r="132" spans="2:14">
-      <c r="B132" s="72">
+      <c r="B132" s="64">
         <v>6</v>
       </c>
-      <c r="C132" s="72">
+      <c r="C132" s="64">
         <v>168</v>
       </c>
-      <c r="D132" s="71"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="71"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="71"/>
-      <c r="L132" s="71"/>
-      <c r="M132" s="71"/>
-      <c r="N132" s="71"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="63"/>
+      <c r="J132" s="63"/>
+      <c r="K132" s="63"/>
+      <c r="L132" s="63"/>
+      <c r="M132" s="63"/>
+      <c r="N132" s="63"/>
     </row>
     <row r="133" spans="2:14">
-      <c r="B133" s="72">
+      <c r="B133" s="64">
         <v>7</v>
       </c>
-      <c r="C133" s="72">
+      <c r="C133" s="64">
         <v>150</v>
       </c>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="71"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="71"/>
-      <c r="L133" s="71"/>
-      <c r="M133" s="71"/>
-      <c r="N133" s="71"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="63"/>
+      <c r="I133" s="63"/>
+      <c r="J133" s="63"/>
+      <c r="K133" s="63"/>
+      <c r="L133" s="63"/>
+      <c r="M133" s="63"/>
+      <c r="N133" s="63"/>
     </row>
     <row r="134" spans="2:14">
-      <c r="B134" s="72">
+      <c r="B134" s="64">
         <v>8</v>
       </c>
-      <c r="C134" s="72">
+      <c r="C134" s="64">
         <v>500</v>
       </c>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="71"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="71"/>
-      <c r="L134" s="71"/>
-      <c r="M134" s="71"/>
-      <c r="N134" s="71"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="63"/>
+      <c r="H134" s="63"/>
+      <c r="I134" s="63"/>
+      <c r="J134" s="63"/>
+      <c r="K134" s="63"/>
+      <c r="L134" s="63"/>
+      <c r="M134" s="63"/>
+      <c r="N134" s="63"/>
     </row>
     <row r="135" spans="2:14">
-      <c r="B135" s="72">
+      <c r="B135" s="64">
         <v>9</v>
       </c>
-      <c r="C135" s="72">
+      <c r="C135" s="64">
         <v>170</v>
       </c>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="71"/>
-      <c r="J135" s="71"/>
-      <c r="K135" s="71"/>
-      <c r="L135" s="71"/>
-      <c r="M135" s="71"/>
-      <c r="N135" s="71"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="63"/>
+      <c r="H135" s="63"/>
+      <c r="I135" s="63"/>
+      <c r="J135" s="63"/>
+      <c r="K135" s="63"/>
+      <c r="L135" s="63"/>
+      <c r="M135" s="63"/>
+      <c r="N135" s="63"/>
     </row>
     <row r="136" spans="2:14">
-      <c r="B136" s="72">
+      <c r="B136" s="64">
         <v>10</v>
       </c>
-      <c r="C136" s="72">
+      <c r="C136" s="64">
         <v>143</v>
       </c>
-      <c r="D136" s="71"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="71"/>
-      <c r="J136" s="71"/>
-      <c r="K136" s="71"/>
-      <c r="L136" s="71"/>
-      <c r="M136" s="71"/>
-      <c r="N136" s="71"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="63"/>
+      <c r="J136" s="63"/>
+      <c r="K136" s="63"/>
+      <c r="L136" s="63"/>
+      <c r="M136" s="63"/>
+      <c r="N136" s="63"/>
     </row>
     <row r="137" spans="2:14">
-      <c r="B137" s="72">
+      <c r="B137" s="64">
         <v>11</v>
       </c>
-      <c r="C137" s="72">
+      <c r="C137" s="64">
         <v>144</v>
       </c>
-      <c r="D137" s="71"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="71"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="71"/>
-      <c r="L137" s="71"/>
-      <c r="M137" s="71"/>
-      <c r="N137" s="71"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="63"/>
+      <c r="H137" s="63"/>
+      <c r="I137" s="63"/>
+      <c r="J137" s="63"/>
+      <c r="K137" s="63"/>
+      <c r="L137" s="63"/>
+      <c r="M137" s="63"/>
+      <c r="N137" s="63"/>
     </row>
     <row r="138" spans="2:14">
-      <c r="B138" s="72">
+      <c r="B138" s="64">
         <v>12</v>
       </c>
-      <c r="C138" s="72">
+      <c r="C138" s="64">
         <v>181</v>
       </c>
-      <c r="D138" s="71"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="71"/>
-      <c r="J138" s="71"/>
-      <c r="K138" s="71"/>
-      <c r="L138" s="71"/>
-      <c r="M138" s="71"/>
-      <c r="N138" s="71"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="63"/>
+      <c r="H138" s="63"/>
+      <c r="I138" s="63"/>
+      <c r="J138" s="63"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="63"/>
+      <c r="M138" s="63"/>
+      <c r="N138" s="63"/>
     </row>
     <row r="139" spans="2:14">
-      <c r="B139" s="72">
+      <c r="B139" s="64">
         <v>13</v>
       </c>
-      <c r="C139" s="72">
+      <c r="C139" s="64">
         <v>178</v>
       </c>
-      <c r="D139" s="71"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="71"/>
-      <c r="J139" s="71"/>
-      <c r="K139" s="71"/>
-      <c r="L139" s="71"/>
-      <c r="M139" s="71"/>
-      <c r="N139" s="71"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="63"/>
+      <c r="G139" s="63"/>
+      <c r="H139" s="63"/>
+      <c r="I139" s="63"/>
+      <c r="J139" s="63"/>
+      <c r="K139" s="63"/>
+      <c r="L139" s="63"/>
+      <c r="M139" s="63"/>
+      <c r="N139" s="63"/>
     </row>
     <row r="140" spans="2:14">
-      <c r="B140" s="72">
+      <c r="B140" s="64">
         <v>14</v>
       </c>
-      <c r="C140" s="72">
+      <c r="C140" s="64">
         <v>175</v>
       </c>
-      <c r="D140" s="71"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="71"/>
-      <c r="J140" s="71"/>
-      <c r="K140" s="71"/>
-      <c r="L140" s="71"/>
-      <c r="M140" s="71"/>
-      <c r="N140" s="71"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="63"/>
+      <c r="I140" s="63"/>
+      <c r="J140" s="63"/>
+      <c r="K140" s="63"/>
+      <c r="L140" s="63"/>
+      <c r="M140" s="63"/>
+      <c r="N140" s="63"/>
     </row>
     <row r="141" spans="2:14">
-      <c r="B141" s="72">
+      <c r="B141" s="64">
         <v>15</v>
       </c>
-      <c r="C141" s="72">
+      <c r="C141" s="64">
         <v>170</v>
       </c>
-      <c r="D141" s="71"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="71"/>
-      <c r="J141" s="71"/>
-      <c r="K141" s="71"/>
-      <c r="L141" s="71"/>
-      <c r="M141" s="71"/>
-      <c r="N141" s="71"/>
+      <c r="D141" s="63"/>
+      <c r="E141" s="63"/>
+      <c r="F141" s="63"/>
+      <c r="G141" s="63"/>
+      <c r="H141" s="63"/>
+      <c r="I141" s="63"/>
+      <c r="J141" s="63"/>
+      <c r="K141" s="63"/>
+      <c r="L141" s="63"/>
+      <c r="M141" s="63"/>
+      <c r="N141" s="63"/>
     </row>
     <row r="142" spans="2:14">
-      <c r="B142" s="72">
+      <c r="B142" s="64">
         <v>16</v>
       </c>
-      <c r="C142" s="72">
+      <c r="C142" s="64">
         <v>157</v>
       </c>
-      <c r="D142" s="71"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="71"/>
-      <c r="J142" s="71"/>
-      <c r="K142" s="71"/>
-      <c r="L142" s="71"/>
-      <c r="M142" s="71"/>
-      <c r="N142" s="71"/>
+      <c r="D142" s="63"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="63"/>
+      <c r="G142" s="63"/>
+      <c r="H142" s="63"/>
+      <c r="I142" s="63"/>
+      <c r="J142" s="63"/>
+      <c r="K142" s="63"/>
+      <c r="L142" s="63"/>
+      <c r="M142" s="63"/>
+      <c r="N142" s="63"/>
     </row>
     <row r="143" spans="2:14">
-      <c r="B143" s="72">
+      <c r="B143" s="64">
         <v>17</v>
       </c>
-      <c r="C143" s="72">
+      <c r="C143" s="64">
         <v>150</v>
       </c>
-      <c r="D143" s="71"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="71"/>
-      <c r="J143" s="71"/>
-      <c r="K143" s="71"/>
-      <c r="L143" s="71"/>
-      <c r="M143" s="71"/>
-      <c r="N143" s="71"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
+      <c r="H143" s="63"/>
+      <c r="I143" s="63"/>
+      <c r="J143" s="63"/>
+      <c r="K143" s="63"/>
+      <c r="L143" s="63"/>
+      <c r="M143" s="63"/>
+      <c r="N143" s="63"/>
     </row>
     <row r="144" spans="2:14">
-      <c r="B144" s="72">
+      <c r="B144" s="64">
         <v>18</v>
       </c>
-      <c r="C144" s="72">
+      <c r="C144" s="64">
         <v>176</v>
       </c>
-      <c r="D144" s="71"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="71"/>
-      <c r="J144" s="71"/>
-      <c r="K144" s="71"/>
-      <c r="L144" s="71"/>
-      <c r="M144" s="71"/>
-      <c r="N144" s="71"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="63"/>
+      <c r="G144" s="63"/>
+      <c r="H144" s="63"/>
+      <c r="I144" s="63"/>
+      <c r="J144" s="63"/>
+      <c r="K144" s="63"/>
+      <c r="L144" s="63"/>
+      <c r="M144" s="63"/>
+      <c r="N144" s="63"/>
     </row>
     <row r="145" spans="2:14">
-      <c r="B145" s="72">
+      <c r="B145" s="64">
         <v>19</v>
       </c>
-      <c r="C145" s="72">
+      <c r="C145" s="64">
         <v>154</v>
       </c>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="71"/>
-      <c r="J145" s="71"/>
-      <c r="K145" s="71"/>
-      <c r="L145" s="71"/>
-      <c r="M145" s="71"/>
-      <c r="N145" s="71"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="63"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63"/>
+      <c r="J145" s="63"/>
+      <c r="K145" s="63"/>
+      <c r="L145" s="63"/>
+      <c r="M145" s="63"/>
+      <c r="N145" s="63"/>
     </row>
     <row r="146" spans="2:14">
-      <c r="B146" s="72">
+      <c r="B146" s="64">
         <v>20</v>
       </c>
-      <c r="C146" s="72">
+      <c r="C146" s="64">
         <v>150</v>
       </c>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="71"/>
-      <c r="J146" s="71"/>
-      <c r="K146" s="71"/>
-      <c r="L146" s="71"/>
-      <c r="M146" s="71"/>
-      <c r="N146" s="71"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="63"/>
+      <c r="J146" s="63"/>
+      <c r="K146" s="63"/>
+      <c r="L146" s="63"/>
+      <c r="M146" s="63"/>
+      <c r="N146" s="63"/>
     </row>
     <row r="147" spans="2:14">
-      <c r="B147" s="72">
+      <c r="B147" s="64">
         <v>21</v>
       </c>
-      <c r="C147" s="72">
+      <c r="C147" s="64">
         <v>170</v>
       </c>
-      <c r="D147" s="71"/>
-      <c r="E147" s="71"/>
-      <c r="F147" s="71"/>
-      <c r="G147" s="71"/>
-      <c r="H147" s="71"/>
-      <c r="I147" s="71"/>
-      <c r="J147" s="71"/>
-      <c r="K147" s="71"/>
-      <c r="L147" s="71"/>
-      <c r="M147" s="71"/>
-      <c r="N147" s="71"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="63"/>
+      <c r="G147" s="63"/>
+      <c r="H147" s="63"/>
+      <c r="I147" s="63"/>
+      <c r="J147" s="63"/>
+      <c r="K147" s="63"/>
+      <c r="L147" s="63"/>
+      <c r="M147" s="63"/>
+      <c r="N147" s="63"/>
     </row>
     <row r="148" spans="2:14">
-      <c r="B148" s="72">
+      <c r="B148" s="64">
         <v>22</v>
       </c>
-      <c r="C148" s="72">
+      <c r="C148" s="64">
         <v>177</v>
       </c>
-      <c r="D148" s="71"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="71"/>
-      <c r="J148" s="71"/>
-      <c r="K148" s="71"/>
-      <c r="L148" s="71"/>
-      <c r="M148" s="71"/>
-      <c r="N148" s="71"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="63"/>
+      <c r="G148" s="63"/>
+      <c r="H148" s="63"/>
+      <c r="I148" s="63"/>
+      <c r="J148" s="63"/>
+      <c r="K148" s="63"/>
+      <c r="L148" s="63"/>
+      <c r="M148" s="63"/>
+      <c r="N148" s="63"/>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="72">
+      <c r="B149" s="64">
         <v>23</v>
       </c>
-      <c r="C149" s="72">
+      <c r="C149" s="64">
         <v>173</v>
       </c>
-      <c r="D149" s="71"/>
-      <c r="E149" s="72" t="s">
+      <c r="D149" s="63"/>
+      <c r="E149" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="F149" s="73">
+      <c r="F149" s="65">
         <f>MAX(C127:C156)</f>
         <v>500</v>
       </c>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="71"/>
-      <c r="J149" s="71"/>
-      <c r="K149" s="71"/>
-      <c r="L149" s="71"/>
-      <c r="M149" s="71"/>
-      <c r="N149" s="71"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="63"/>
+      <c r="K149" s="63"/>
+      <c r="L149" s="63"/>
+      <c r="M149" s="63"/>
+      <c r="N149" s="63"/>
     </row>
     <row r="150" spans="2:14">
-      <c r="B150" s="72">
+      <c r="B150" s="64">
         <v>24</v>
       </c>
-      <c r="C150" s="72">
+      <c r="C150" s="64">
         <v>172</v>
       </c>
-      <c r="D150" s="71"/>
-      <c r="E150" s="72" t="s">
+      <c r="D150" s="63"/>
+      <c r="E150" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="F150" s="73">
+      <c r="F150" s="65">
         <f>_xlfn.QUARTILE.EXC(C127:C156,3)</f>
         <v>173.5</v>
       </c>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="71"/>
-      <c r="J150" s="71"/>
-      <c r="K150" s="71"/>
-      <c r="L150" s="71"/>
-      <c r="M150" s="71"/>
-      <c r="N150" s="71"/>
+      <c r="G150" s="63"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="63"/>
+      <c r="J150" s="63"/>
+      <c r="K150" s="63"/>
+      <c r="L150" s="63"/>
+      <c r="M150" s="63"/>
+      <c r="N150" s="63"/>
     </row>
     <row r="151" spans="2:14">
-      <c r="B151" s="72">
+      <c r="B151" s="64">
         <v>25</v>
       </c>
-      <c r="C151" s="72">
+      <c r="C151" s="64">
         <v>143</v>
       </c>
-      <c r="D151" s="71"/>
-      <c r="E151" s="72" t="s">
+      <c r="D151" s="63"/>
+      <c r="E151" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="F151" s="73">
+      <c r="F151" s="65">
         <f>AVERAGE(C127:C156)</f>
         <v>172.13333333333333</v>
       </c>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="71"/>
-      <c r="J151" s="71"/>
-      <c r="K151" s="71"/>
-      <c r="L151" s="71"/>
-      <c r="M151" s="71"/>
-      <c r="N151" s="71"/>
+      <c r="G151" s="63"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="63"/>
+      <c r="J151" s="63"/>
+      <c r="K151" s="63"/>
+      <c r="L151" s="63"/>
+      <c r="M151" s="63"/>
+      <c r="N151" s="63"/>
     </row>
     <row r="152" spans="2:14">
-      <c r="B152" s="72">
+      <c r="B152" s="64">
         <v>26</v>
       </c>
-      <c r="C152" s="72">
+      <c r="C152" s="64">
         <v>182</v>
       </c>
-      <c r="D152" s="71"/>
-      <c r="E152" s="74" t="s">
+      <c r="D152" s="63"/>
+      <c r="E152" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="F152" s="75">
+      <c r="F152" s="67">
         <f>MEDIAN(C127:C156)</f>
         <v>162.5</v>
       </c>
@@ -36025,128 +39405,128 @@
         <f>_xlfn.QUARTILE.EXC(C127:C156,2)</f>
         <v>162.5</v>
       </c>
-      <c r="I152" s="71"/>
-      <c r="J152" s="71"/>
-      <c r="K152" s="71"/>
-      <c r="L152" s="71"/>
-      <c r="M152" s="71"/>
-      <c r="N152" s="71"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="63"/>
+      <c r="K152" s="63"/>
+      <c r="L152" s="63"/>
+      <c r="M152" s="63"/>
+      <c r="N152" s="63"/>
     </row>
     <row r="153" spans="2:14">
-      <c r="B153" s="72">
+      <c r="B153" s="64">
         <v>27</v>
       </c>
-      <c r="C153" s="72">
+      <c r="C153" s="64">
         <v>143</v>
       </c>
-      <c r="D153" s="71"/>
-      <c r="E153" s="72" t="s">
+      <c r="D153" s="63"/>
+      <c r="E153" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="F153" s="73">
+      <c r="F153" s="65">
         <f>_xlfn.QUARTILE.EXC(C127:C156,1)</f>
         <v>149.75</v>
       </c>
-      <c r="G153" s="71"/>
-      <c r="H153" s="71"/>
-      <c r="I153" s="71"/>
-      <c r="J153" s="71"/>
-      <c r="K153" s="71"/>
-      <c r="L153" s="71"/>
-      <c r="M153" s="71"/>
-      <c r="N153" s="71"/>
+      <c r="G153" s="63"/>
+      <c r="H153" s="63"/>
+      <c r="I153" s="63"/>
+      <c r="J153" s="63"/>
+      <c r="K153" s="63"/>
+      <c r="L153" s="63"/>
+      <c r="M153" s="63"/>
+      <c r="N153" s="63"/>
     </row>
     <row r="154" spans="2:14">
-      <c r="B154" s="72">
+      <c r="B154" s="64">
         <v>28</v>
       </c>
-      <c r="C154" s="72">
+      <c r="C154" s="64">
         <v>149</v>
       </c>
-      <c r="D154" s="71"/>
-      <c r="E154" s="72" t="s">
+      <c r="D154" s="63"/>
+      <c r="E154" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="F154" s="73">
+      <c r="F154" s="65">
         <f>MIN(C127:C156)</f>
         <v>142</v>
       </c>
-      <c r="G154" s="71"/>
-      <c r="H154" s="71"/>
-      <c r="I154" s="71"/>
-      <c r="J154" s="71"/>
-      <c r="K154" s="71"/>
-      <c r="L154" s="71"/>
-      <c r="M154" s="71"/>
-      <c r="N154" s="71"/>
+      <c r="G154" s="63"/>
+      <c r="H154" s="63"/>
+      <c r="I154" s="63"/>
+      <c r="J154" s="63"/>
+      <c r="K154" s="63"/>
+      <c r="L154" s="63"/>
+      <c r="M154" s="63"/>
+      <c r="N154" s="63"/>
     </row>
     <row r="155" spans="2:14">
-      <c r="B155" s="72">
+      <c r="B155" s="64">
         <v>29</v>
       </c>
-      <c r="C155" s="72">
+      <c r="C155" s="64">
         <v>153</v>
       </c>
-      <c r="D155" s="71"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="71"/>
-      <c r="G155" s="71"/>
-      <c r="H155" s="71"/>
-      <c r="I155" s="71"/>
-      <c r="J155" s="71"/>
-      <c r="K155" s="71"/>
-      <c r="L155" s="71"/>
-      <c r="M155" s="71"/>
-      <c r="N155" s="71"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="63"/>
+      <c r="L155" s="63"/>
+      <c r="M155" s="63"/>
+      <c r="N155" s="63"/>
     </row>
     <row r="156" spans="2:14">
-      <c r="B156" s="72">
+      <c r="B156" s="64">
         <v>30</v>
       </c>
-      <c r="C156" s="72">
+      <c r="C156" s="64">
         <v>147</v>
       </c>
-      <c r="D156" s="71"/>
-      <c r="E156" s="71"/>
-      <c r="F156" s="71"/>
-      <c r="G156" s="71"/>
-      <c r="H156" s="71"/>
-      <c r="I156" s="71"/>
-      <c r="J156" s="71"/>
-      <c r="K156" s="71"/>
-      <c r="L156" s="71"/>
-      <c r="M156" s="71"/>
-      <c r="N156" s="71"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="63"/>
+      <c r="H156" s="63"/>
+      <c r="I156" s="63"/>
+      <c r="J156" s="63"/>
+      <c r="K156" s="63"/>
+      <c r="L156" s="63"/>
+      <c r="M156" s="63"/>
+      <c r="N156" s="63"/>
     </row>
     <row r="157" spans="2:14">
       <c r="B157" s="58"/>
       <c r="C157" s="58"/>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="71"/>
-      <c r="H157" s="71"/>
-      <c r="I157" s="71"/>
-      <c r="J157" s="71"/>
-      <c r="K157" s="71"/>
-      <c r="L157" s="71"/>
-      <c r="M157" s="71"/>
-      <c r="N157" s="71"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="63"/>
+      <c r="H157" s="63"/>
+      <c r="I157" s="63"/>
+      <c r="J157" s="63"/>
+      <c r="K157" s="63"/>
+      <c r="L157" s="63"/>
+      <c r="M157" s="63"/>
+      <c r="N157" s="63"/>
     </row>
     <row r="158" spans="2:14">
       <c r="B158" s="58"/>
       <c r="C158" s="58"/>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="71"/>
-      <c r="H158" s="71"/>
-      <c r="I158" s="71"/>
-      <c r="J158" s="71"/>
-      <c r="K158" s="71"/>
-      <c r="L158" s="71"/>
-      <c r="M158" s="71"/>
-      <c r="N158" s="71"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="63"/>
+      <c r="H158" s="63"/>
+      <c r="I158" s="63"/>
+      <c r="J158" s="63"/>
+      <c r="K158" s="63"/>
+      <c r="L158" s="63"/>
+      <c r="M158" s="63"/>
+      <c r="N158" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -36168,7 +39548,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36534,22 +39914,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
         <v>212</v>
       </c>
@@ -36559,17 +39940,20 @@
       <c r="C1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="31">
         <v>2006</v>
       </c>
@@ -36580,19 +39964,23 @@
         <f>B2-$B$18</f>
         <v>-3.466666666666665</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="69">
+        <f>C2^2</f>
+        <v>12.017777777777766</v>
+      </c>
+      <c r="E2" s="31">
         <v>94</v>
       </c>
-      <c r="E2">
-        <f>D2-$B$19</f>
+      <c r="F2">
+        <f>E2-$B$19</f>
         <v>-4.9333333333333371</v>
       </c>
-      <c r="F2">
-        <f>C2*E2</f>
+      <c r="G2">
+        <f>C2*F2</f>
         <v>17.102222222222228</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="31">
         <v>2007</v>
       </c>
@@ -36603,19 +39991,23 @@
         <f t="shared" ref="C3:C16" si="0">B3-$B$18</f>
         <v>-8.466666666666665</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="69">
+        <f t="shared" ref="D3:D16" si="1">C3^2</f>
+        <v>71.684444444444409</v>
+      </c>
+      <c r="E3" s="31">
         <v>70</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E16" si="1">D3-$B$19</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="2">E3-$B$19</f>
         <v>-28.933333333333337</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F16" si="2">C3*E3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="3">C3*F3</f>
         <v>244.96888888888887</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="31">
         <v>2008</v>
       </c>
@@ -36626,19 +40018,23 @@
         <f t="shared" si="0"/>
         <v>-6.466666666666665</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="69">
+        <f t="shared" si="1"/>
+        <v>41.817777777777756</v>
+      </c>
+      <c r="E4" s="31">
         <v>90</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-8.9333333333333371</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
+        <v>-8.9333333333333371</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
         <v>57.768888888888895</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="31">
         <v>2009</v>
       </c>
@@ -36649,19 +40045,23 @@
         <f t="shared" si="0"/>
         <v>-1.466666666666665</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="69">
+        <f t="shared" si="1"/>
+        <v>2.1511111111111063</v>
+      </c>
+      <c r="E5" s="31">
         <v>100</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>1.0666666666666629</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
+        <v>1.0666666666666629</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
         <v>-1.5644444444444372</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="31">
         <v>2010</v>
       </c>
@@ -36672,19 +40072,23 @@
         <f t="shared" si="0"/>
         <v>-4.466666666666665</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="69">
+        <f t="shared" si="1"/>
+        <v>19.951111111111096</v>
+      </c>
+      <c r="E6" s="31">
         <v>95</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-3.9333333333333371</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
+        <v>-3.9333333333333371</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
         <v>17.5688888888889</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="31">
         <v>2011</v>
       </c>
@@ -36695,19 +40099,23 @@
         <f t="shared" si="0"/>
         <v>-1.466666666666665</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="69">
+        <f t="shared" si="1"/>
+        <v>2.1511111111111063</v>
+      </c>
+      <c r="E7" s="31">
         <v>100</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1.0666666666666629</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
+        <v>1.0666666666666629</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
         <v>-1.5644444444444372</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="31">
         <v>2012</v>
       </c>
@@ -36718,19 +40126,23 @@
         <f t="shared" si="0"/>
         <v>-2.466666666666665</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="69">
+        <f t="shared" si="1"/>
+        <v>6.0844444444444363</v>
+      </c>
+      <c r="E8" s="31">
         <v>85</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>-13.933333333333337</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
+        <v>-13.933333333333337</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
         <v>34.368888888888875</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="31">
         <v>2013</v>
       </c>
@@ -36741,19 +40153,23 @@
         <f t="shared" si="0"/>
         <v>-1.466666666666665</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="69">
+        <f t="shared" si="1"/>
+        <v>2.1511111111111063</v>
+      </c>
+      <c r="E9" s="31">
         <v>95</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-3.9333333333333371</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
+        <v>-3.9333333333333371</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
         <v>5.7688888888888883</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="31">
         <v>2014</v>
       </c>
@@ -36764,19 +40180,23 @@
         <f t="shared" si="0"/>
         <v>0.53333333333333499</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="69">
+        <f t="shared" si="1"/>
+        <v>0.28444444444444622</v>
+      </c>
+      <c r="E10" s="31">
         <v>105</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>6.0666666666666629</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
         <v>3.2355555555555635</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="31">
         <v>2015</v>
       </c>
@@ -36787,19 +40207,23 @@
         <f t="shared" si="0"/>
         <v>2.533333333333335</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="69">
+        <f t="shared" si="1"/>
+        <v>6.4177777777777862</v>
+      </c>
+      <c r="E11" s="31">
         <v>105</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>6.0666666666666629</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
         <v>15.36888888888889</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="31">
         <v>2016</v>
       </c>
@@ -36810,19 +40234,23 @@
         <f t="shared" si="0"/>
         <v>3.533333333333335</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="69">
+        <f t="shared" si="1"/>
+        <v>12.484444444444456</v>
+      </c>
+      <c r="E12" s="31">
         <v>110</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>11.066666666666663</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
+        <v>11.066666666666663</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
         <v>39.102222222222224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="31">
         <v>2017</v>
       </c>
@@ -36833,19 +40261,23 @@
         <f t="shared" si="0"/>
         <v>4.533333333333335</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="69">
+        <f t="shared" si="1"/>
+        <v>20.551111111111126</v>
+      </c>
+      <c r="E13" s="31">
         <v>105</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>6.0666666666666629</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
         <v>27.502222222222215</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="31">
         <v>2018</v>
       </c>
@@ -36856,19 +40288,23 @@
         <f t="shared" si="0"/>
         <v>5.533333333333335</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="69">
+        <f t="shared" si="1"/>
+        <v>30.617777777777796</v>
+      </c>
+      <c r="E14" s="31">
         <v>104</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>5.0666666666666629</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
+        <v>5.0666666666666629</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
         <v>28.035555555555543</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="31">
         <v>2019</v>
       </c>
@@ -36879,19 +40315,23 @@
         <f t="shared" si="0"/>
         <v>4.533333333333335</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="69">
+        <f t="shared" si="1"/>
+        <v>20.551111111111126</v>
+      </c>
+      <c r="E15" s="31">
         <v>105</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>6.0666666666666629</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
+        <v>6.0666666666666629</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
         <v>27.502222222222215</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="31">
         <v>2020</v>
       </c>
@@ -36902,31 +40342,39 @@
         <f t="shared" si="0"/>
         <v>8.533333333333335</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="69">
+        <f t="shared" si="1"/>
+        <v>72.817777777777806</v>
+      </c>
+      <c r="E16" s="31">
         <v>121</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>22.066666666666663</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
+        <v>22.066666666666663</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
         <v>188.30222222222221</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="F17">
-        <f>SUM(F2:F16)</f>
+    <row r="17" spans="1:15">
+      <c r="D17" s="69">
+        <f>SUM(D2:D16)</f>
+        <v>321.73333333333329</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G2:G16)</f>
         <v>703.4666666666667</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>223</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -36934,49 +40382,49 @@
         <f>AVERAGE(B2:B16)</f>
         <v>16.466666666666665</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="I18" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="I18" s="31">
+      <c r="J18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="J18" s="60">
-        <f>I18/I19</f>
+      <c r="K18" s="70">
+        <f>J18/J19</f>
         <v>46.897777777777783</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="M18" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="M18" s="31">
+      <c r="N18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="N18" s="60">
-        <f>M18/M19</f>
+      <c r="O18" s="70">
+        <f>N18/N19</f>
         <v>50.247619047619047</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>216</v>
       </c>
       <c r="B19">
-        <f>AVERAGE(D2:D16)</f>
+        <f>AVERAGE(E2:E16)</f>
         <v>98.933333333333337</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="31">
+      <c r="I19" s="70"/>
+      <c r="J19" s="31">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-      <c r="J19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19">
-        <f>I19-1</f>
+      <c r="K19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19">
+        <f>J19-1</f>
         <v>14</v>
       </c>
-      <c r="N19" s="60"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O19" s="70"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>221</v>
       </c>
@@ -36984,12 +40432,16 @@
         <f>_xlfn.STDEV.P(B2:B16)</f>
         <v>4.6312945154555747</v>
       </c>
-      <c r="H21">
-        <f>_xlfn.COVARIANCE.P(B2:B16,D2:D16)</f>
+      <c r="D21">
+        <f>SQRT(D17/15)</f>
+        <v>4.6312945154555747</v>
+      </c>
+      <c r="I21">
+        <f>_xlfn.COVARIANCE.P(B2:B16,E2:E16)</f>
         <v>46.897777777777783</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -36997,75 +40449,79 @@
         <f>_xlfn.STDEV.S(B2:B16)</f>
         <v>4.7938452604305413</v>
       </c>
-      <c r="H22">
-        <f>_xlfn.COVARIANCE.S(B2:B16,D2:D16)</f>
+      <c r="D22">
+        <f>SQRT(D17/14)</f>
+        <v>4.793845260430543</v>
+      </c>
+      <c r="I22">
+        <f>_xlfn.COVARIANCE.S(B2:B16,E2:E16)</f>
         <v>50.247619047619047</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>225</v>
       </c>
       <c r="B24">
-        <f>_xlfn.STDEV.P(D2:D16)</f>
+        <f>_xlfn.STDEV.P(E2:E16)</f>
         <v>11.404482549516318</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>226</v>
       </c>
       <c r="B25">
-        <f>_xlfn.STDEV.S(D2:D16)</f>
+        <f>_xlfn.STDEV.S(E2:E16)</f>
         <v>11.804760944313102</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="H26" s="60" t="s">
+    <row r="26" spans="1:15">
+      <c r="I26" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>46.897777777777783</v>
       </c>
-      <c r="J26" s="60">
-        <f>I26/I27</f>
+      <c r="K26" s="70">
+        <f>J26/J27</f>
         <v>0.88792090224061171</v>
       </c>
-      <c r="L26" s="60" t="s">
+      <c r="M26" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>50.247619047619047</v>
       </c>
-      <c r="N26" s="60">
-        <f>M26/M27</f>
+      <c r="O26" s="70">
+        <f>N26/N27</f>
         <v>0.88792090224061504</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="H27" s="60"/>
-      <c r="I27">
+    <row r="27" spans="1:15">
+      <c r="I27" s="70"/>
+      <c r="J27">
         <f>B21*B24</f>
         <v>52.817517483183735</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27">
+      <c r="K27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27">
         <f>B22*B25</f>
         <v>56.590197303410925</v>
       </c>
-      <c r="N27" s="60"/>
+      <c r="O27" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="O26:O27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37078,7 +40534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
@@ -37130,6 +40586,682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:M68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="15.125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:11" ht="36.75" customHeight="1">
+      <c r="B10" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="69">
+        <v>2</v>
+      </c>
+      <c r="C11" s="69">
+        <f>$D$20*B11+$D$21</f>
+        <v>83.6</v>
+      </c>
+      <c r="D11" s="69">
+        <v>81</v>
+      </c>
+      <c r="E11" s="69">
+        <f>D11-C11</f>
+        <v>-2.5999999999999943</v>
+      </c>
+      <c r="F11" s="86">
+        <f>ABS(E11)</f>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="G11" s="86">
+        <f>E11^2</f>
+        <v>6.7599999999999705</v>
+      </c>
+      <c r="H11" s="69">
+        <f>B11-$D$17</f>
+        <v>-3</v>
+      </c>
+      <c r="I11" s="69">
+        <f>H11^2</f>
+        <v>9</v>
+      </c>
+      <c r="J11" s="69">
+        <f>D11-$D$18</f>
+        <v>-9.5</v>
+      </c>
+      <c r="K11" s="69">
+        <f>H11*J11</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="69">
+        <v>4</v>
+      </c>
+      <c r="C12" s="69">
+        <f t="shared" ref="C12:C14" si="0">$D$20*B12+$D$21</f>
+        <v>88.2</v>
+      </c>
+      <c r="D12" s="69">
+        <v>93</v>
+      </c>
+      <c r="E12" s="69">
+        <f t="shared" ref="E12:E14" si="1">D12-C12</f>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="F12" s="86">
+        <f t="shared" ref="F12:F14" si="2">ABS(E12)</f>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="G12" s="86">
+        <f t="shared" ref="G12:G14" si="3">E12^2</f>
+        <v>23.039999999999974</v>
+      </c>
+      <c r="H12" s="69">
+        <f t="shared" ref="H12:H14" si="4">B12-$D$17</f>
+        <v>-1</v>
+      </c>
+      <c r="I12" s="69">
+        <f>H12^2</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="69">
+        <f t="shared" ref="J12:J14" si="5">D12-$D$18</f>
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="69">
+        <f t="shared" ref="K12:K14" si="6">H12*J12</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="69">
+        <v>6</v>
+      </c>
+      <c r="C13" s="69">
+        <f t="shared" si="0"/>
+        <v>92.8</v>
+      </c>
+      <c r="D13" s="69">
+        <v>91</v>
+      </c>
+      <c r="E13" s="69">
+        <f t="shared" si="1"/>
+        <v>-1.7999999999999972</v>
+      </c>
+      <c r="F13" s="86">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="G13" s="86">
+        <f t="shared" si="3"/>
+        <v>3.2399999999999896</v>
+      </c>
+      <c r="H13" s="69">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="69">
+        <f>H13^2</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="69">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="69">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="69">
+        <v>8</v>
+      </c>
+      <c r="C14" s="69">
+        <f t="shared" si="0"/>
+        <v>97.4</v>
+      </c>
+      <c r="D14" s="69">
+        <v>97</v>
+      </c>
+      <c r="E14" s="69">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="F14" s="86">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="G14" s="86">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000456</v>
+      </c>
+      <c r="H14" s="69">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="69">
+        <f>H14^2</f>
+        <v>9</v>
+      </c>
+      <c r="J14" s="69">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+      <c r="K14" s="69">
+        <f t="shared" si="6"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69">
+        <f>SUM(I11:I14)</f>
+        <v>20</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69">
+        <f>SUM(K11:K14)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(B11:B14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(D11:D14)</f>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="26.25">
+      <c r="J19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" s="80" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20">
+        <f>K15/I15</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <f>D18-(D17*D20)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="36.75" customHeight="1">
+      <c r="D23" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="68">
+        <f>AVERAGE(F11:F14)</f>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="D24" s="68"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="D25" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="68">
+        <f>AVERAGE(G11:G14)</f>
+        <v>8.2999999999999847</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="33">
+      <c r="D26" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="88">
+        <f>SQRT(E25)</f>
+        <v>2.8809720581775839</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="D35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s">
+        <v>307</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="27">
+      <c r="B42" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" s="84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="69">
+        <v>2</v>
+      </c>
+      <c r="C43" s="69">
+        <f>$M$37*B43+$M$38</f>
+        <v>82</v>
+      </c>
+      <c r="D43" s="69">
+        <v>81</v>
+      </c>
+      <c r="E43" s="69">
+        <f>D43-C43</f>
+        <v>-1</v>
+      </c>
+      <c r="F43" s="86">
+        <f>ABS(E43)</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="86">
+        <f>E43^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="69">
+        <v>4</v>
+      </c>
+      <c r="C44" s="69">
+        <f t="shared" ref="C44:C46" si="7">$M$37*B44+$M$38</f>
+        <v>88</v>
+      </c>
+      <c r="D44" s="69">
+        <v>93</v>
+      </c>
+      <c r="E44" s="69">
+        <f t="shared" ref="E44:E46" si="8">D44-C44</f>
+        <v>5</v>
+      </c>
+      <c r="F44" s="86">
+        <f t="shared" ref="F44:F46" si="9">ABS(E44)</f>
+        <v>5</v>
+      </c>
+      <c r="G44" s="86">
+        <f t="shared" ref="G44:G46" si="10">E44^2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="69">
+        <v>6</v>
+      </c>
+      <c r="C45" s="69">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="D45" s="69">
+        <v>91</v>
+      </c>
+      <c r="E45" s="69">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="F45" s="86">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G45" s="86">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="69">
+        <v>8</v>
+      </c>
+      <c r="C46" s="69">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="D46" s="69">
+        <v>97</v>
+      </c>
+      <c r="E46" s="69">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="F46" s="86">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G46" s="86">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="33">
+      <c r="D49" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="68">
+        <f>AVERAGE(F43:F46)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="D50" s="68"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="D51" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" s="68">
+        <f>AVERAGE(G43:G46)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="33">
+      <c r="D52" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" s="88">
+        <f>SQRT(E51)</f>
+        <v>3.3166247903553998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="27">
+      <c r="B55" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="F55" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="I55" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55" s="68">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="69">
+        <v>2</v>
+      </c>
+      <c r="C56" s="69">
+        <f>$J$55*B56+$J$56</f>
+        <v>82</v>
+      </c>
+      <c r="D56" s="69">
+        <v>81</v>
+      </c>
+      <c r="E56" s="69">
+        <f>D56-C56</f>
+        <v>-1</v>
+      </c>
+      <c r="F56" s="86">
+        <f>ABS(E56)</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="86">
+        <f>E56^2</f>
+        <v>1</v>
+      </c>
+      <c r="I56" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="J56" s="68">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="69">
+        <v>4</v>
+      </c>
+      <c r="C57" s="69">
+        <f t="shared" ref="C57:C59" si="11">$J$55*B57+$J$56</f>
+        <v>87</v>
+      </c>
+      <c r="D57" s="69">
+        <v>93</v>
+      </c>
+      <c r="E57" s="69">
+        <f t="shared" ref="E57:E59" si="12">D57-C57</f>
+        <v>6</v>
+      </c>
+      <c r="F57" s="86">
+        <f t="shared" ref="F57:F59" si="13">ABS(E57)</f>
+        <v>6</v>
+      </c>
+      <c r="G57" s="86">
+        <f t="shared" ref="G57:G59" si="14">E57^2</f>
+        <v>36</v>
+      </c>
+      <c r="I57" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="J57" s="68"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="69">
+        <v>6</v>
+      </c>
+      <c r="C58" s="69">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="D58" s="69">
+        <v>91</v>
+      </c>
+      <c r="E58" s="69">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F58" s="86">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="86">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="69">
+        <v>8</v>
+      </c>
+      <c r="C59" s="69">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="D59" s="69">
+        <v>97</v>
+      </c>
+      <c r="E59" s="69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="86">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="33">
+      <c r="D62" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" s="68">
+        <f>AVERAGE(F56:F59)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="D63" s="68"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="D64" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" s="68">
+        <f>AVERAGE(G56:G59)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" ht="33">
+      <c r="D65" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="88">
+        <f>SQRT(E64)</f>
+        <v>3.082207001484488</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" s="1" customFormat="1">
+      <c r="D68" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37917,13 +42049,13 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="70" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="70">
         <v>8</v>
       </c>
     </row>
@@ -37932,11 +42064,11 @@
         <f>SUM(D5:D9)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
@@ -38272,14 +42404,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -38919,13 +43051,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -39313,13 +43445,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -41060,13 +45192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41074,14 +45206,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -41485,12 +45617,17 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
+    <row r="48" spans="1:2" s="1" customFormat="1">
+      <c r="B48" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -41502,14 +45639,358 @@
     <row r="62" spans="1:6">
       <c r="B62" s="14"/>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="B95" s="14"/>
+    <row r="72" spans="2:22" s="1" customFormat="1">
+      <c r="B72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="J73" s="69"/>
+      <c r="P73" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q73">
+        <f>EXP(1)</f>
+        <v>2.7182818284590451</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22">
+      <c r="J74" s="69"/>
+    </row>
+    <row r="75" spans="2:22">
+      <c r="J75" s="69"/>
+    </row>
+    <row r="76" spans="2:22">
+      <c r="J76" s="69"/>
+    </row>
+    <row r="77" spans="2:22">
+      <c r="J77" s="69"/>
+      <c r="O77" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P77" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q77" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="R77" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22">
+      <c r="J78" s="69"/>
+    </row>
+    <row r="79" spans="2:22">
+      <c r="J79" s="69"/>
+    </row>
+    <row r="80" spans="2:22">
+      <c r="J80" s="69"/>
+    </row>
+    <row r="81" spans="10:18">
+      <c r="J81" s="69"/>
+    </row>
+    <row r="82" spans="10:18">
+      <c r="J82" s="69"/>
+    </row>
+    <row r="83" spans="10:18">
+      <c r="J83" s="69"/>
+      <c r="O83">
+        <v>-0.2</v>
+      </c>
+      <c r="P83">
+        <f t="shared" ref="P83:P98" si="1">1-O83</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" ref="Q83:Q94" si="2">-LOG(P83)</f>
+        <v>-7.9181246047624818E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="10:18">
+      <c r="J84" s="69"/>
+      <c r="O84">
+        <v>-0.1</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>-4.1392685158225077E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="10:18">
+      <c r="J85" s="69"/>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="10:18">
+      <c r="J86" s="69"/>
+      <c r="O86">
+        <v>0.1</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>4.5757490560675115E-2</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ref="R86:R98" si="3">-LOG(O86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="10:18">
+      <c r="J87" s="69"/>
+      <c r="O87">
+        <v>0.2</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>9.6910013008056392E-2</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="88" spans="10:18">
+      <c r="J88" s="69"/>
+      <c r="O88">
+        <v>0.3</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>0.15490195998574319</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>0.52287874528033762</v>
+      </c>
+    </row>
+    <row r="89" spans="10:18">
+      <c r="J89" s="69"/>
+      <c r="O89">
+        <v>0.4</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>0.22184874961635639</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>0.3979400086720376</v>
+      </c>
+    </row>
+    <row r="90" spans="10:18">
+      <c r="J90" s="69"/>
+      <c r="O90">
+        <v>0.5</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="91" spans="10:18">
+      <c r="J91" s="69"/>
+      <c r="O91">
+        <v>0.6</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>0.22184874961635639</v>
+      </c>
+    </row>
+    <row r="92" spans="10:18">
+      <c r="J92" s="69"/>
+      <c r="O92">
+        <v>0.7</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>0.52287874528033751</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>0.15490195998574319</v>
+      </c>
+    </row>
+    <row r="93" spans="10:18">
+      <c r="J93" s="69"/>
+      <c r="O93">
+        <v>0.8</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>9.6910013008056392E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="10:18">
+      <c r="J94" s="69"/>
+      <c r="O94">
+        <v>0.9</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>4.5757490560675115E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="10:18">
+      <c r="J95" s="69"/>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="10:18">
+      <c r="J96" s="69"/>
+      <c r="O96">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="1"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>-4.1392685158225077E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:18">
+      <c r="J97" s="69"/>
+      <c r="O97">
+        <v>1.2</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="1"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>-7.9181246047624818E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:18">
+      <c r="J98" s="69"/>
+      <c r="O98">
+        <v>1.3</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="1"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>-0.11394335230683679</v>
+      </c>
+    </row>
+    <row r="99" spans="4:18">
+      <c r="J99" s="69"/>
+    </row>
+    <row r="100" spans="4:18" ht="20.25">
+      <c r="D100" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="J100" s="69"/>
+    </row>
+    <row r="101" spans="4:18" ht="20.25">
+      <c r="D101" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="J101" s="69"/>
+    </row>
+    <row r="102" spans="4:18">
+      <c r="J102" s="69"/>
+    </row>
+    <row r="103" spans="4:18">
+      <c r="J103" s="69"/>
+    </row>
+    <row r="104" spans="4:18" ht="20.25">
+      <c r="D104" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="J104" s="69"/>
+    </row>
+    <row r="105" spans="4:18" ht="20.25">
+      <c r="D105" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="J105" s="69"/>
     </row>
     <row r="124" spans="24:35">
       <c r="X124">
@@ -41825,8 +46306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Y83"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="X63" sqref="X63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -42009,40 +46490,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="75">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">

--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="9" activeTab="19"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,24 @@
     <sheet name="다층퍼셉트론" sheetId="20" r:id="rId18"/>
     <sheet name="활성화함수" sheetId="21" r:id="rId19"/>
     <sheet name="경사하강법" sheetId="22" r:id="rId20"/>
+    <sheet name="모델설계" sheetId="23" r:id="rId21"/>
+    <sheet name="모델설계2" sheetId="24" r:id="rId22"/>
+    <sheet name="모델설계3" sheetId="27" r:id="rId23"/>
+    <sheet name="희소행렬" sheetId="25" r:id="rId24"/>
+    <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.1" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.0" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.1" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId23"/>
-    <pivotCache cacheId="1" r:id="rId24"/>
+    <pivotCache cacheId="0" r:id="rId28"/>
+    <pivotCache cacheId="1" r:id="rId29"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="479">
   <si>
     <t>항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2080,12 +2085,525 @@
     <t>소프트플러스 함수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>model = Sequential()</t>
+  </si>
+  <si>
+    <t>model.add(Dense(30, input_dim=16, activation='relu'))</t>
+  </si>
+  <si>
+    <t>model.add(Dense(1, activation='sigmoid'))</t>
+  </si>
+  <si>
+    <t>model.fit(X, y, epochs=5, batch_size=32)</t>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명3…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플2</t>
+  </si>
+  <si>
+    <t>샘플3</t>
+  </si>
+  <si>
+    <t>샘플470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.compile(loss='binary_crossentropy', optimizer='adam', metrics=['accuracy'])</t>
+  </si>
+  <si>
+    <t>15는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470 / 32 '=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이므로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_bias=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 * 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 * 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias 1개</t>
+  </si>
+  <si>
+    <t>bias 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐암수술 후 생존자 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피마인디언당뇨병예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.fit(X, y, epochs=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(12, input_dim=8, activation='relu'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>768 / 32 '=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 * 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 * 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵티마이저 파라미터 계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 파라미터 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희소행렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성긴 행렬(sparse matrix) 또는 희소행렬은 행렬의 값이 대부분 0인 경우를 가리키는 표현이다. 그와 반대되는 표현으로는 밀집행렬(dense matrix), 조밀행렬이 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(12, input_dim=4, activation='relu'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.compile(loss='categorical_crossentropy', optimizer='adam', metrics=['accuracy'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(8, activation='relu'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(8, activation='relu'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세토사일 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버지칼라일 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버지니카일 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(3, activation='softmax'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트 맥스 함수 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세토사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버지컬러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버지니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds에 log씌운값을 로짓(logit)이라함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로짓 벡터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로짓 벡터에 다시 시그모이드 함수를 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 확률로 변환이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로짓 벡터는 모델이 각 클래스(카테고리)에 대해 계산한 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트 맥스 함수 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로짓 벡터에 대해 지수함수 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 값들의 합 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 클래스에 대해 소프트맥스 확률 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스틱회귀랑 연결이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화함수 sheet의 소프트 맥스 함수 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 * 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 * 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 파라미터 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵티마이저 파라미터 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련데이터     7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 데이터 셋  3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y(정답)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 데이터셋으로 모델을 테스트했을 때의 정확도가 좋아야 좋은 모델이 됨(일반화가 잘 됨).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold-out 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2307,8 +2825,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2387,8 +2921,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2536,12 +3082,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2755,20 +3325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2791,6 +3347,73 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9809,7 +10432,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.0</cx:f>
+        <cx:f>_xlchart.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9865,7 +10488,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.1</cx:f>
+        <cx:f>_xlchart.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -38436,6 +39059,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>111531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134099" y="18373724"/>
+          <a:ext cx="3267075" cy="2273707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>167381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657474" y="21040725"/>
+          <a:ext cx="6124575" cy="3015356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -38515,6 +39214,4542 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1914525"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="2333625"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="2867025"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="5086350"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="3657600"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="4024993"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="4400551"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="3304442"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>196780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="3625780"/>
+          <a:ext cx="85725" cy="85934"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="4001756"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="3457575"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="직선 연결선 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="485775" y="2028825"/>
+          <a:ext cx="1104900" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="직선 연결선 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="2219326"/>
+          <a:ext cx="1085850" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 연결선 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="2228851"/>
+          <a:ext cx="1095375" cy="790574"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 연결선 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="2228850"/>
+          <a:ext cx="1085850" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52528</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 연결선 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="2028825"/>
+          <a:ext cx="2348053" cy="1462228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 연결선 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="2466975"/>
+          <a:ext cx="2314575" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="직선 연결선 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="3019425"/>
+          <a:ext cx="2314575" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52528</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="직선 연결선 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1819275" y="3652697"/>
+          <a:ext cx="2348053" cy="1605103"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="직선 화살표 연결선 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2124075" y="2085975"/>
+          <a:ext cx="2152650" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67829</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>105414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="5010150"/>
+          <a:ext cx="8268854" cy="4582164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="타원 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="4418135"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="타원 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="4735076"/>
+          <a:ext cx="85725" cy="83003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="타원 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="5111052"/>
+          <a:ext cx="85725" cy="83005"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67822</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="1285875"/>
+          <a:ext cx="8221222" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="그룹 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1209675"/>
+          <a:ext cx="533400" cy="457200"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="533400" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="타원 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="TextBox 47"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="504825" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52528</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 연결선 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="5"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7695920" y="1771370"/>
+          <a:ext cx="1386308" cy="1719683"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 연결선 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="5"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5809970" y="1599920"/>
+          <a:ext cx="695605" cy="867055"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252553</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="직선 연결선 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="5"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5809970" y="1599920"/>
+          <a:ext cx="729083" cy="1338683"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="직선 연결선 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="4"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="1666875"/>
+          <a:ext cx="857250" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="그룹 60"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7305675" y="1381125"/>
+          <a:ext cx="552450" cy="457200"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="552450" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="타원 61"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="TextBox 62"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="523875" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114426" y="6591301"/>
+          <a:ext cx="4448174" cy="2629774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162921</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>143110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="9620250"/>
+          <a:ext cx="7135221" cy="1686160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="1914525"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2352675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2905125"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="5143500"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3695700"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4014107"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4384222"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>173648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3269273"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>196780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3587680"/>
+          <a:ext cx="85725" cy="83003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3957794"/>
+          <a:ext cx="85725" cy="83005"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216877</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>445477</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9280281" y="3334483"/>
+          <a:ext cx="228600" cy="231531"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="4368312"/>
+          <a:ext cx="85725" cy="82794"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="4683788"/>
+          <a:ext cx="85725" cy="83003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="5056833"/>
+          <a:ext cx="85725" cy="80074"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67822</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="1285875"/>
+          <a:ext cx="8221222" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="그룹 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1419225"/>
+          <a:ext cx="533400" cy="457200"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="533400" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="타원 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="TextBox 30"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="504825" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="그룹 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7305675" y="1590675"/>
+          <a:ext cx="695325" cy="590550"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="552450" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="타원 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="TextBox 37"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="523875" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="타원 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="1914525"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="타원 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2352675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="타원 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2905125"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="타원 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3695700"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="타원 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4014107"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="타원 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7990742" y="4578280"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="타원 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7920404" y="4850423"/>
+          <a:ext cx="228600" cy="231531"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="5610226"/>
+          <a:ext cx="5543550" cy="3586566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="1914525"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2352675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2905125"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="5143500"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3695700"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4014107"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4384222"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3423139"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67822</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="1285875"/>
+          <a:ext cx="8221222" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="그룹 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1419225"/>
+          <a:ext cx="533400" cy="457200"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="533400" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="타원 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="504825" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="그룹 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7305675" y="1590675"/>
+          <a:ext cx="695325" cy="590550"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="552450" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="타원 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="TextBox 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="523875" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2124075"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2562225"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="3114675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="타원 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="3905250"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="타원 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4223657"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="타원 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4525526"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="타원 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892562" y="4799135"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="타원 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3699364"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="타원 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3985114"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -42628,6 +47863,162 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590958</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="1019175"/>
+          <a:ext cx="2924583" cy="2372056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="오른쪽 화살표 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="742950"/>
+          <a:ext cx="933450" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="정육면체 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="657225"/>
+          <a:ext cx="523875" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -44864,6 +50255,75 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I11:N15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -44924,75 +50384,6 @@
     <dataField name="평균 : C" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : D" fld="4" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : E" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -45723,8 +51114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -45797,7 +51188,7 @@
     <row r="3" spans="1:32">
       <c r="A3" s="23"/>
       <c r="B3" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -47061,12 +52452,12 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
     </row>
     <row r="41" spans="2:12" ht="18.75" thickBot="1">
       <c r="B41" s="34" t="s">
@@ -47410,7 +52801,7 @@
       <c r="C77" s="59">
         <v>55</v>
       </c>
-      <c r="F77" s="83" t="s">
+      <c r="F77" s="93" t="s">
         <v>256</v>
       </c>
       <c r="G77" s="61" t="s">
@@ -47424,7 +52815,7 @@
       <c r="C78" s="59">
         <v>40</v>
       </c>
-      <c r="F78" s="83"/>
+      <c r="F78" s="93"/>
       <c r="G78" s="59" t="s">
         <v>255</v>
       </c>
@@ -47436,10 +52827,10 @@
       <c r="C79" s="59">
         <v>80</v>
       </c>
-      <c r="F79" s="83" t="s">
+      <c r="F79" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="I79" s="83" t="s">
+      <c r="I79" s="93" t="s">
         <v>257</v>
       </c>
     </row>
@@ -47450,8 +52841,8 @@
       <c r="C80" s="59">
         <v>93</v>
       </c>
-      <c r="F80" s="83"/>
-      <c r="I80" s="83"/>
+      <c r="F80" s="93"/>
+      <c r="I80" s="93"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="59">
@@ -49669,23 +55060,23 @@
         <f>AVERAGE(B2:B16)</f>
         <v>16.466666666666665</v>
       </c>
-      <c r="I18" s="83" t="s">
+      <c r="I18" s="93" t="s">
         <v>220</v>
       </c>
       <c r="J18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="93">
         <f>J18/J19</f>
         <v>46.897777777777783</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="M18" s="93" t="s">
         <v>222</v>
       </c>
       <c r="N18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="O18" s="83">
+      <c r="O18" s="93">
         <f>N18/N19</f>
         <v>50.247619047619047</v>
       </c>
@@ -49698,18 +55089,18 @@
         <f>AVERAGE(E2:E16)</f>
         <v>98.933333333333337</v>
       </c>
-      <c r="I19" s="83"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="31">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-      <c r="K19" s="83"/>
-      <c r="M19" s="83"/>
+      <c r="K19" s="93"/>
+      <c r="M19" s="93"/>
       <c r="N19">
         <f>J19-1</f>
         <v>14</v>
       </c>
-      <c r="O19" s="83"/>
+      <c r="O19" s="93"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
@@ -49764,40 +55155,40 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="93" t="s">
         <v>228</v>
       </c>
       <c r="J26">
         <v>46.897777777777783</v>
       </c>
-      <c r="K26" s="83">
+      <c r="K26" s="93">
         <f>J26/J27</f>
         <v>0.88792090224061171</v>
       </c>
-      <c r="M26" s="83" t="s">
+      <c r="M26" s="93" t="s">
         <v>229</v>
       </c>
       <c r="N26">
         <v>50.247619047619047</v>
       </c>
-      <c r="O26" s="83">
+      <c r="O26" s="93">
         <f>N26/N27</f>
         <v>0.88792090224061504</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="I27" s="83"/>
+      <c r="I27" s="93"/>
       <c r="J27">
         <f>B21*B24</f>
         <v>52.817517483183735</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="K27" s="93"/>
+      <c r="M27" s="93"/>
       <c r="N27">
         <f>B22*B25</f>
         <v>56.590197303410925</v>
       </c>
-      <c r="O27" s="83"/>
+      <c r="O27" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -49880,8 +55271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P83" sqref="P83"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -50581,10 +55972,10 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="H2" s="92">
+      <c r="H2" s="86">
         <v>-0.5</v>
       </c>
       <c r="I2" s="64">
@@ -50607,10 +55998,10 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="86">
         <v>1</v>
       </c>
       <c r="I3" s="64">
@@ -50636,10 +56027,10 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="86">
         <v>1</v>
       </c>
       <c r="I4" s="64">
@@ -50783,13 +56174,13 @@
       <c r="A11" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="85">
         <v>1</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="85">
         <v>0</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="85">
         <v>0</v>
       </c>
       <c r="F11" s="71" t="s">
@@ -51012,7 +56403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="87" t="s">
         <v>356</v>
       </c>
       <c r="I1" s="27"/>
@@ -51022,13 +56413,13 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="H2" s="95">
+      <c r="H2" s="89">
         <v>-2</v>
       </c>
-      <c r="I2" s="94"/>
+      <c r="I2" s="88"/>
       <c r="P2" s="71" t="s">
         <v>328</v>
       </c>
@@ -51041,10 +56432,10 @@
       <c r="S2" s="71" t="s">
         <v>343</v>
       </c>
-      <c r="T2" s="98" t="s">
+      <c r="T2" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="U2" s="98" t="s">
+      <c r="U2" s="92" t="s">
         <v>326</v>
       </c>
       <c r="V2" s="45" t="s">
@@ -51052,17 +56443,17 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="96">
+      <c r="H3" s="90">
         <v>2</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="92" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="K3" s="97">
+      <c r="K3" s="91">
         <v>1</v>
       </c>
       <c r="P3" s="71">
@@ -51077,10 +56468,10 @@
       <c r="S3" s="71">
         <v>0</v>
       </c>
-      <c r="T3" s="98">
+      <c r="T3" s="92">
         <v>1</v>
       </c>
-      <c r="U3" s="98">
+      <c r="U3" s="92">
         <v>0</v>
       </c>
       <c r="V3" s="45">
@@ -51088,17 +56479,17 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="89">
         <v>-2</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="92" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="91">
         <v>1</v>
       </c>
       <c r="P4" s="71">
@@ -51113,10 +56504,10 @@
       <c r="S4" s="71">
         <v>0</v>
       </c>
-      <c r="T4" s="98">
+      <c r="T4" s="92">
         <v>1</v>
       </c>
-      <c r="U4" s="98">
+      <c r="U4" s="92">
         <v>1</v>
       </c>
       <c r="V4" s="45">
@@ -51124,13 +56515,13 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="90">
         <v>2</v>
       </c>
-      <c r="I5" s="94"/>
+      <c r="I5" s="88"/>
       <c r="P5" s="71">
         <v>0</v>
       </c>
@@ -51143,10 +56534,10 @@
       <c r="S5" s="71">
         <v>0</v>
       </c>
-      <c r="T5" s="98">
+      <c r="T5" s="92">
         <v>1</v>
       </c>
-      <c r="U5" s="98">
+      <c r="U5" s="92">
         <v>1</v>
       </c>
       <c r="V5" s="45">
@@ -51166,10 +56557,10 @@
       <c r="S6" s="71">
         <v>1</v>
       </c>
-      <c r="T6" s="98">
+      <c r="T6" s="92">
         <v>0</v>
       </c>
-      <c r="U6" s="98">
+      <c r="U6" s="92">
         <v>1</v>
       </c>
       <c r="V6" s="45">
@@ -51225,10 +56616,10 @@
         <v>320</v>
       </c>
       <c r="B11" s="80"/>
-      <c r="C11" s="91">
+      <c r="C11" s="85">
         <v>0</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="85">
         <v>0</v>
       </c>
       <c r="F11" s="71" t="s">
@@ -51363,7 +56754,7 @@
       <c r="T15" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="V15" s="92" t="s">
+      <c r="V15" s="86" t="s">
         <v>362</v>
       </c>
     </row>
@@ -51376,7 +56767,7 @@
         <f>$K$8+R12*$K$3+R19*$K$4</f>
         <v>0</v>
       </c>
-      <c r="V16" s="92">
+      <c r="V16" s="86">
         <v>0</v>
       </c>
     </row>
@@ -51389,7 +56780,7 @@
         <f t="shared" ref="T17:T19" si="3">$K$8+R13*$K$3+R20*$K$4</f>
         <v>1</v>
       </c>
-      <c r="V17" s="92">
+      <c r="V17" s="86">
         <v>1</v>
       </c>
     </row>
@@ -51412,7 +56803,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V18" s="92">
+      <c r="V18" s="86">
         <v>1</v>
       </c>
     </row>
@@ -51437,7 +56828,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="92">
+      <c r="V19" s="86">
         <v>0</v>
       </c>
     </row>
@@ -51505,10 +56896,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L67"/>
+  <dimension ref="B2:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -52128,7 +57519,195 @@
         <v>10.000045398899218</v>
       </c>
     </row>
+    <row r="71" spans="2:12" s="1" customFormat="1">
+      <c r="B71" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="F74" t="s">
+        <v>448</v>
+      </c>
+      <c r="G74" t="s">
+        <v>449</v>
+      </c>
+      <c r="H74" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="F75">
+        <v>0.7</v>
+      </c>
+      <c r="G75">
+        <v>0.2</v>
+      </c>
+      <c r="H75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="93" t="s">
+        <v>444</v>
+      </c>
+      <c r="C77" s="109" t="s">
+        <v>451</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="F77" s="109">
+        <v>0.7</v>
+      </c>
+      <c r="G77" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="H77" s="109">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="93"/>
+      <c r="C78" t="s">
+        <v>445</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>447</v>
+      </c>
+      <c r="F78">
+        <f>1-F77</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:H78" si="4">1-G77</f>
+        <v>0.8</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" t="s">
+        <v>452</v>
+      </c>
+      <c r="F80" s="93">
+        <f>LOG(F77/F78)</f>
+        <v>0.36797678529459432</v>
+      </c>
+      <c r="G80" s="93">
+        <f t="shared" ref="G80:H80" si="5">LOG(G77/G78)</f>
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="H80" s="93">
+        <f t="shared" si="5"/>
+        <v>-0.95424250943932487</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="E83" t="s">
+        <v>453</v>
+      </c>
+      <c r="F83">
+        <v>0.36797678529459432</v>
+      </c>
+      <c r="G83">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="H83">
+        <v>-0.95424250943932487</v>
+      </c>
+      <c r="J83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" t="s">
+        <v>454</v>
+      </c>
+      <c r="F86">
+        <f>1/(1+EXP(-F83))</f>
+        <v>0.59097000811815192</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:H86" si="6">1/(1+EXP(-G83))</f>
+        <v>0.35387254175900806</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>0.27803241996025485</v>
+      </c>
+      <c r="J86" t="s">
+        <v>455</v>
+      </c>
+      <c r="N86" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" t="s">
+        <v>457</v>
+      </c>
+      <c r="E91" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="F92">
+        <f>EXP(F83)</f>
+        <v>1.4448084977809126</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92:H92" si="7">EXP(G83)</f>
+        <v>0.54768225254253322</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>0.38510374654904711</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="E94" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="F95">
+        <f>SUM(F92:H92)</f>
+        <v>2.3775944968724927</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
+      <c r="E97" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
+      <c r="F99">
+        <f>F92/$F$95</f>
+        <v>0.60767658222687915</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99:H99" si="8">G92/$F$95</f>
+        <v>0.23035141327209452</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="8"/>
+        <v>0.16197200450102645</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52797,12 +58376,1046 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="84"/>
+    <col min="8" max="8" width="10.5" style="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="B1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="I2" t="s">
+        <v>369</v>
+      </c>
+      <c r="O2" s="103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="I3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="I4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="I5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="I6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="J9" s="84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="I10" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="18">
+      <c r="H11" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" ht="18">
+      <c r="H13" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="M13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="84" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84" t="s">
+        <v>395</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="P16" s="102"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="B17" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="N19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="J21" s="1"/>
+      <c r="N21" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="O21" t="s">
+        <v>385</v>
+      </c>
+      <c r="P21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18">
+      <c r="H22" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="N22" s="93"/>
+      <c r="O22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="H27" s="84" t="s">
+        <v>379</v>
+      </c>
+      <c r="J27" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="K27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="H30" s="84" t="s">
+        <v>404</v>
+      </c>
+      <c r="I30">
+        <v>480</v>
+      </c>
+      <c r="K30" t="s">
+        <v>405</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="H31" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="K31" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="I32">
+        <v>510</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32" s="101">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10">
+      <c r="G45" t="s">
+        <v>400</v>
+      </c>
+      <c r="H45" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="I45" s="2">
+        <f>470/32</f>
+        <v>14.6875</v>
+      </c>
+      <c r="J45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N21:N22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="84"/>
+    <col min="8" max="8" width="10.5" style="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="B1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="I2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="I3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="I4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="I5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="I6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="I7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="J10" s="84" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="I11" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="84" t="s">
+        <v>419</v>
+      </c>
+      <c r="M11" s="84"/>
+    </row>
+    <row r="12" spans="2:16" ht="18">
+      <c r="H12" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" ht="18">
+      <c r="H14" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="84" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84" t="s">
+        <v>412</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="Q17" s="102"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="O20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="O22" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="P22" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18">
+      <c r="H23" s="84" t="s">
+        <v>413</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="O23" s="93"/>
+      <c r="P23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1"/>
+      <c r="L26" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="M26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="H28" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="J28" s="84" t="s">
+        <v>417</v>
+      </c>
+      <c r="K28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="H31" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="I31">
+        <f xml:space="preserve"> 8 * 12</f>
+        <v>96</v>
+      </c>
+      <c r="J31" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="K31">
+        <f xml:space="preserve"> 8 * 12</f>
+        <v>96</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="H32" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="K32" s="104">
+        <v>8</v>
+      </c>
+      <c r="L32" s="84"/>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14">
+      <c r="I33">
+        <f>SUM(I31:I32)</f>
+        <v>108</v>
+      </c>
+      <c r="K33">
+        <f>SUM(K31:K32)</f>
+        <v>104</v>
+      </c>
+      <c r="M33">
+        <f>SUM(M31:M32)</f>
+        <v>9</v>
+      </c>
+      <c r="N33" s="101">
+        <f>SUM(I33,K33,M33)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14">
+      <c r="I36">
+        <v>442</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14">
+      <c r="H38" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="J38">
+        <f>SUM(I36:J36)</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="7:14">
+      <c r="H40" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="J40" s="106">
+        <f>SUM(N33,J38)</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="46" spans="7:14">
+      <c r="G46" t="s">
+        <v>423</v>
+      </c>
+      <c r="H46" s="84" t="s">
+        <v>422</v>
+      </c>
+      <c r="I46" s="2">
+        <f>768/32</f>
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O22:O23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="84"/>
+    <col min="8" max="8" width="10.5" style="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="B1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="I2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="I3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="I4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="I5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="I6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="I7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="J10" s="84" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="I11" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="84" t="s">
+        <v>419</v>
+      </c>
+      <c r="M11" s="84"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="J12" s="1"/>
+      <c r="K12" s="84" t="s">
+        <v>437</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="84" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="18">
+      <c r="H14" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" ht="18">
+      <c r="H16" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="18">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="H18" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="108"/>
+    </row>
+    <row r="20" spans="2:17" ht="18">
+      <c r="H20" s="84" t="s">
+        <v>432</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="O21" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="O22" s="93"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="O23" s="93"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="O24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="J26" s="1"/>
+      <c r="L26" s="84"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="J28" s="84"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="I30" t="s">
+        <v>463</v>
+      </c>
+      <c r="J30">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
+        <v>464</v>
+      </c>
+      <c r="L30">
+        <f xml:space="preserve"> 12*8</f>
+        <v>96</v>
+      </c>
+      <c r="M30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N30">
+        <f>8*3</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="I31" t="s">
+        <v>465</v>
+      </c>
+      <c r="J31" s="83">
+        <f xml:space="preserve"> 12 * 1</f>
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>465</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31" t="s">
+        <v>465</v>
+      </c>
+      <c r="N31">
+        <f>3*1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="J32" s="84">
+        <f>J30+J31</f>
+        <v>60</v>
+      </c>
+      <c r="K32" s="104"/>
+      <c r="L32" s="84">
+        <f>L30+L31</f>
+        <v>104</v>
+      </c>
+      <c r="N32">
+        <f>N30+N31</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="N33" s="101"/>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="N34">
+        <f>SUM(J32,L32,N32)</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14">
+      <c r="F36" t="s">
+        <v>468</v>
+      </c>
+      <c r="I36">
+        <v>191</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <f>I36*2+J36</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14">
+      <c r="F38" t="s">
+        <v>467</v>
+      </c>
+      <c r="J38" s="105">
+        <f>N34+K36</f>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14">
+      <c r="J40" s="106"/>
+    </row>
+    <row r="46" spans="6:14">
+      <c r="I46" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:2" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="84" customWidth="1"/>
+    <col min="3" max="3" width="9" style="84"/>
+    <col min="6" max="6" width="9" style="84"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="F1" s="85"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="F2" s="84" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="110"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="114"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="110"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="114"/>
+      <c r="I4" s="84" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="110"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="114"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="119" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="110"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="114"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="110"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="114"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="110"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="114"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1">
+      <c r="A10" s="113"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="117"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="116"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="86" t="s">
+        <v>478</v>
+      </c>
+      <c r="I12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="111"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="86"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52935,13 +59548,13 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="93" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="93">
         <v>8</v>
       </c>
     </row>
@@ -52950,11 +59563,11 @@
         <f>SUM(D5:D9)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
@@ -53290,14 +59903,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -53937,13 +60550,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -54331,13 +60944,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -56092,14 +62705,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -56509,11 +63122,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -57376,40 +63989,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="98">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="88"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">

--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,24 @@
     <sheet name="모델설계" sheetId="23" r:id="rId21"/>
     <sheet name="모델설계2" sheetId="24" r:id="rId22"/>
     <sheet name="모델설계3" sheetId="27" r:id="rId23"/>
-    <sheet name="희소행렬" sheetId="25" r:id="rId24"/>
-    <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId25"/>
+    <sheet name="모델설계4" sheetId="30" r:id="rId24"/>
+    <sheet name="모델설계5" sheetId="31" r:id="rId25"/>
+    <sheet name="모델최적화" sheetId="29" r:id="rId26"/>
+    <sheet name="희소행렬" sheetId="25" r:id="rId27"/>
+    <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId28"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.1" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.0" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.1" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId28"/>
-    <pivotCache cacheId="1" r:id="rId29"/>
+    <pivotCache cacheId="0" r:id="rId31"/>
+    <pivotCache cacheId="1" r:id="rId32"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,34 +58,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="544">
   <si>
     <t>항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>항은 숫자 또는 문자의 곱으로  구성된 식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>숫자와 문자를 곱한 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문자와 문자를 곱한 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a는 1과 a를 곱한 것이므로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -100,7 +103,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -118,35 +121,35 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상수항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>항 중에서 숫자만 있는 항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2x+y+1이라는 식에서 1이 상수항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>coefficient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상수와 변수로 구성된 단항식에서 변수와 곱해진 상수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-3은 상수항이자 계수이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -175,35 +178,35 @@
       </rPr>
       <t xml:space="preserve"> (x의 0제곱)과 -3의 곱으로 볼 수 있으므로 상수항인 -3도 계수에 포함됨</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단항식과 다항식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단항식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>: 항이 하나로 된 식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다항식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>: 항이 두 개 이상인 항의 합으로 된 식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>차수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>차수는 문자를 곱한 횟수를 의미함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -232,7 +235,7 @@
       </rPr>
       <t>은 x를 두 번 곱했기 때문에 차수가 2이고</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -261,7 +264,7 @@
       </rPr>
       <t>은 y를 한 번 곱했기 때문에 차수가 1이됨</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -302,31 +305,31 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x를 기준으로 차수를 구하면 x에 대한 이차식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y를 기준으로 차수를 구하면 y에 대한 일차식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수식이란 변수와 상수를 연산자를 이용하여 표현한 식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://colab.research.google.com/drive/1bftNkhYWUaZJa0p-T1hfhgb8yycWZe5O#scrollTo=_Dt-Fv8CDnRs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>팩토리얼(factorial)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>피보나치</t>
@@ -339,55 +342,55 @@
   </si>
   <si>
     <t>수열(sequence)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y = ax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-1x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-2x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-3x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일차함수 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키</t>
@@ -397,11 +400,11 @@
   </si>
   <si>
     <t>키 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>몸무게 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(x-x평균)(y-y평균)의 합</t>
@@ -411,74 +414,74 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키 편차
 deviation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>몸무게 편차
 deviation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>편차는 평균과의 차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키 편차 x 몸무게 편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키 편차의
 제곱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">mean(y) - (mean(x)*a)  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y=ax+b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기울기(a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y절편(b)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y=0.98x-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>만약에 키가 163이면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이차함수와 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -496,7 +499,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -514,7 +517,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -532,15 +535,15 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -558,7 +561,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -594,7 +597,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,115 +633,115 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>vector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컴퓨터공학과에서의 벡터는 여러 개의 데이터를 하나의 정보로 표현한다는 관점에서 리스트, 배열과 비슷함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수학에서 어떤 정보를 표현할 때 크기와 방향을 모두 가지는 것을 벡터라고 하고, 크기만 가지는 것을 스칼라라고 부름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>행렬(matrix)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>원래 격자를 뜻하는 말로, 수학에서는 사각형으로 된 수의 배열을 지칭함. 1개 이상의 벡터 모임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자연상수 또는 오일러 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기호 e로 표기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>import numpy as np</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>np.exp(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>== math.e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지수함수의 평행이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지수함수의 대칭이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y축에 대해 대칭이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x축에 대해 대칭이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>원점에 대해 대칭이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로지스틱 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>통계 기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -766,107 +769,107 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>편차(deviation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>편차 제곱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>편차제곱의 합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분산=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>편차제곱의 합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>엑셀에서 분산 구하는 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n 샘플의 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자유도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>degree of freedom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dof</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모분산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표본분산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표본표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단위벡터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>길이가 1인 벡터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>벡터의 길이(크기) 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>피타고라스정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(4, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단위 벡터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(4/5, 3/5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>위치 벡터 성분 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영 벡터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
@@ -900,39 +903,39 @@
   </si>
   <si>
     <t>데이터 병합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표 만드는 일반적인 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hang2</t>
@@ -948,55 +951,55 @@
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홍일동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홍이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홍삼동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홍사동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홍오동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>데이터프레임1.join(데이터프레임2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pandas.concat([데이터프레임1, 데이터프레임2])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>칼럼명(헤더)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>'Harry Potter',</t>
@@ -1024,67 +1027,67 @@
   </si>
   <si>
     <t>John Smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alex Du Bois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Joanne Rowling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Jane Connor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Intern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Team Lead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>학생</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>행 레이블</t>
@@ -1118,7 +1121,7 @@
   </si>
   <si>
     <t>과목</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>수</t>
@@ -1155,79 +1158,79 @@
   </si>
   <si>
     <t>광고비 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출액 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광고비 편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출액 편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광고비 편차 X 매출액 편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공분산 =</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광고비 모표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공분산=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출액 모표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출액 표본표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광고비 표본표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상관 =</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상관=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정규화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1) 최소 최대 정규화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min-Max Normalization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>각 특성의 값을 0과 1사이의 범위로 변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1547,543 +1550,543 @@
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최대값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최솟값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>해당값-최솟값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최댓값-최솟값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x'1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x'2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2) 표준화(Z-score normalization)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>평균 0 표준편차 1로 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특징 간 척도 차이가 커서 정규화가 필요한 경우 유용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이상치에 민감할 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>몸무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키에 대한 z값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>z값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>몸무게에 대한 z값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>몸무게 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">상자수염(boxplot) - 이상치(outlier)를 보고자할 때 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>번호</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>키</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>최대값</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3사분위수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>평균</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>중위수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1사분위수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>최소값</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1) 이상치가 없을 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>최대값</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3사분위수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>평균</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2) 이상치가 있을 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>import  itertools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>elements = ['A', 'B', 'C']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A B C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A C B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B A C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B C A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C A B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C B A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3개 중에 3개뽑기(순서를 고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로그함수 변형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>교차(cross) 엔트로피(entropy)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>위 그래프를 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a&gt;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>파란색 선은 실제값이 1일때 사용할 수 있는 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예측값이 1일때 오차가 0이고, 반대로 예측값이 0에 가까울수록 오차는 커짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>빨간색 선은 실제값이 0일때 사용할 수 있는 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예측값이 0일때 오차가 0이고, 반대로 예측값이 1에 가까울수록 오차는 커짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기울기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x편차 * y편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x편차^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y절편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y = 2.3x + 79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사람이 공식에 의해 구한 단순 선형 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>머신러닝은 임의의 선을 긋고 그 기울기를 조정해가면서 오차가 가장 적은 기울기를 찾아나가야한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광고비 편차^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오차 = 실제값 - 예측값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>임의로 머신이 예측한 선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기울기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y = 3x + 76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예측모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예측값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y(실제성적, 
 실제값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mean absolute error
 (mae)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오차 = 
 실제값 - 예측값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>|오차|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오차제곱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mean squared error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>root mean 
 squared error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y = 2.5x + 76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경사하강법(gradient descent)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>샘플1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>샘플2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>샘플3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>샘플4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입력(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>출력(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OR 연산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>출력값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OR 문제를 해결하는 최적의 weight(가중치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계단함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계단함수 적용 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계단함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AND 연산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OR 분류기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AND 문제를 해결하는 최적의 weight(가중치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AND 분류기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>출력(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시그모이드 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시그모이드 함수 적용 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>출력값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>XOR 문제를 해결하는 최적의 weight(가중치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>XOR 분류기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>원하는 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AND 연산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>relu 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하이퍼볼릭 탄젠트 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소프트플러스 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model = Sequential()</t>
@@ -2099,7 +2102,7 @@
   </si>
   <si>
     <t>Dense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2117,7 +2120,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2135,7 +2138,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2153,83 +2156,83 @@
       </rPr>
       <t>16</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>W1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>W2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>30개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>relu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sigmoid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오차 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>숫자 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rmse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>샘플1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>칼럼명1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>칼럼명2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>칼럼명3…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>칼럼명16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>샘플2</t>
@@ -2239,61 +2242,61 @@
   </si>
   <si>
     <t>샘플470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model.compile(loss='binary_crossentropy', optimizer='adam', metrics=['accuracy'])</t>
   </si>
   <si>
     <t>15는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>470 / 32 '=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이므로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>use_bias=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16 * 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>30 * 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bias 1개</t>
   </si>
   <si>
     <t>bias 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>폐암수술 후 생존자 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>피마인디언당뇨병예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>샘플768</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>칼럼명8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2310,75 +2313,75 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model.fit(X, y, epochs=5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model.add(Dense(12, input_dim=8, activation='relu'))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dense2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dense1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dense3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>768 / 32 '=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>24는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8 * 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8 * 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>옵티마이저 파라미터 계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최종 파라미터 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>희소행렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성긴 행렬(sparse matrix) 또는 희소행렬은 행렬의 값이 대부분 0인 경우를 가리키는 표현이다. 그와 반대되는 표현으로는 밀집행렬(dense matrix), 조밀행렬이 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model.add(Dense(12, input_dim=4, activation='relu'))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2395,7 +2398,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2412,203 +2415,577 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model.compile(loss='categorical_crossentropy', optimizer='adam', metrics=['accuracy'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model.add(Dense(8, activation='relu'))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model.add(Dense(8, activation='relu'))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>softmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>W2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>W3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>세토사일 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버지칼라일 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버지니카일 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model.add(Dense(3, activation='softmax'))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소프트 맥스 함수 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>odds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실패확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>세토사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버지컬러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버지니카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성공확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>odds에 log씌운값을 로짓(logit)이라함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로짓 벡터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로짓 벡터에 다시 시그모이드 함수를 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최종 확률로 변환이 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로짓 벡터는 모델이 각 클래스(카테고리)에 대해 계산한 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소프트 맥스 함수 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로짓 벡터에 대해 지수함수 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지수 값들의 합 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>각 클래스에 대해 소프트맥스 확률 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로지스틱회귀랑 연결이 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>활성화함수 sheet의 소프트 맥스 함수 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4 * 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12 * 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bias 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8 * 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>총 파라미터 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>옵티마이저 파라미터 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>훈련데이터     7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테스트 데이터 셋  3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y(정답)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테스트 데이터셋으로 모델을 테스트했을 때의 정확도가 좋아야 좋은 모델이 됨(일반화가 잘 됨).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Hold-out 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X_train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y_train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은닉층 개수</t>
+  </si>
+  <si>
+    <t>: 하나로 시작해도 뉴런 개수가 충분하면 아주 복잡한 함수도 모델링 할 수 있습니다. 복잡한 문제에서는 심층 신경망이 얕은 신경망보다 파라미터 효율성이 훨씬 좋습니다.</t>
+  </si>
+  <si>
+    <t>하나 또는 두개의 은닉층 만으로도 많은 문제를 해결합니다. 비슷한 작업에서 가장 뛰어난 성능을 낸 미리 훈련된 네트워크 일부를 재사용하는 것이 일반적</t>
+  </si>
+  <si>
+    <t>은닉층 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은닉층 뉴런 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 하이퍼파라미터 튜닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNIST</t>
+  </si>
+  <si>
+    <t>첫번째 300개 두번째 200개, 세번째는 100개의 뉴런으로 구성된 은닉층을 가집니다.</t>
+  </si>
+  <si>
+    <t>요즘에는 대부분 모든 은닉층에 같은 크기를 사용해도 동일하거나 더 나은 성능을 냅니다. 
+데이터셋에 따라 다르지만 다른 은닉층보다 첫 번째 은닉층을 크게 하는 것이 도움이 됩니다.</t>
+  </si>
+  <si>
+    <t>model.add(Dense(36, input_dim=4, activation='relu'))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(18, activation='relu'))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광석인지여부 판별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(1, activation='sigmoid'))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.fit(X, y, epochs=200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교차 검증 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDF5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDF5의 특징</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDF5를 이해하는 가장 중요한 개념은 그룹(Group), 데이터셋(Dataset), 속성(attribute)이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">디렉토리 구조와 비슷한데, 그룹=디렉토리, 데이터셋=파일로 이해하면 쉽다. 속성은 일종의 메타데이터로 그룹이나 데이터셋을 부연 설명하는 것을 의미한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HDF5 파일을 생성하면 먼저 /라는 루트 그룹이 생성되고 그 하위에 트리 구조로 다른 그룹을 생성할 수 있다. 그룹하위에 다른 그룹이 있을 수도 있고, 데이터셋이 존재할 수도 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">즉 완전히 운영체계의 디렉토리-파일 구조와 일치한다. 또 다른 특징은 속성인데 속성은 데이터셋이나 그룹을 설명하는데 사용하는데 이를 사용자가 정의하게 된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리하면 HDF5는 Hierarchical Data Format이며 self-describing이 되는 고성능 데이터포맷 또는 DB 정도로 이해할 수 있다. 운영체계와 무관하게 사용할 수 있으며, 대용량 데이터를 빠르게 읽고 쓸 수 있다.</t>
+  </si>
+  <si>
+    <t>k = 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증(테스트) 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트데이터로 평가한 모델 정확도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증용 데이터로 검증한 최종 모델 정확도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와인종류(레드, 화이트) 판별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(12, activation='relu'))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(8, activation='relu'))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.compile(loss='binary_crossentropy', optimizer='adam', metrics=['accuracy'])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이리스 품종 판별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>model.compile(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loss='categorical_crossentropy'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, optimizer='adam', metrics=['accuracy'])</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">model.add(Dense(3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activation='softmax'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드와인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트와인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.compile(loss='binary_crossentropy', optimizer='adam', metrics=['accuracy'])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">model.fit(X, y, epochs=50, batch_size=500, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validation_split=0.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6497 X 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5197 X 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 테스트용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 검증용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500번 반복하면서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation_loss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련셋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.add(Dense(36, input_dim=12, activation='relu'))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation_accuracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐서플로우 2.x에서는 .keras로 변경되었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y값이 두가지 부류일 경우(예: 도미와 빙어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 가지 부류(클래스)의 비율이 일정하지 않다면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋을 구분할 경우(train_test_split)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델이 일부 심플을 올바르게 학습할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stratify 매개변수에 타겟 데이터(y)를 전달하면 클래스 비율에 맞게 데이터를 나눔, 특정 클래스의 샘플이 적을 때 유용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이킷런 vs 텐서플로우</t>
+  </si>
+  <si>
+    <t>텐서플로우(TensorFlow)와 사이킷런(scikit-learn)은 서로 다른 목적과 용도로 설계된 라이브러리입니다. 딥러닝 모델을 구축할 때 텐서플로우를 사용하는 것이 일반적이지만, 사이킷런은 여전히 여러 상황에서 중요한 역할을 할 수 있습니다. 따라서 두 라이브러리를 적절히 비교하고 사용 목적에 따라 선택하는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 모델의 복잡성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 텐서플로우는 복잡하고 깊은 신경망 모델을 설계하고 훈련시키는 데 뛰어납니다. 만약 딥러닝 모델이 높은 성능을 보인다면 사이킷런의 전통적인 머신러닝 알고리즘(예: 랜덤 포레스트, SVM)을 사용하지 않을 이유가 있어 보일 수 있습니다. 그러나 사이킷런의 모델은 딥러닝보다 훨씬 가볍고 해석이 용이한 경우가 많습니다. 단순한 모델이나 작은 데이터셋에서는 사이킷런 모델이 더 적합할 수 있습니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. 훈련 시간 및 자원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 텐서플로우 기반의 딥러닝 모델은 훈련하는 데 많은 시간이 걸리고, GPU 등의 강력한 하드웨어 자원이 필요할 수 있습니다. 반면, 사이킷런 모델은 상대적으로 가벼워 더 빠르게 훈련할 수 있으며, CPU만으로도 충분히 실행 가능합니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. 해석 가능성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 사이킷런의 모델은 일반적으로 해석하기가 더 쉽습니다. 예를 들어, 로지스틱 회귀나 결정 트리와 같은 모델은 결과를 해석하고 변수의 중요도를 파악하는 데 유리합니다. 텐서플로우의 딥러닝 모델은 대개 "블랙박스" 모델로 간주되며, 그 내부 구조를 이해하기가 어렵습니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. 적용 범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 사이킷런은 회귀, 분류, 군집화, 차원 축소 등 다양한 머신러닝 기법을 포괄적으로 지원하며, 데이터 전처리나 모델 평가 등의 다양한 기능을 제공합니다. 반면, 텐서플로우는 딥러닝 모델을 구축하는 데 중점을 둡니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>따라서 딥러닝 모델이 사이킷런 모델보다 성능이 좋다고 해서 항상 텐서플로우만 사용하는 것이 좋은 선택은 아닙니다. 프로젝트의 목적, 데이터의 크기와 복잡성, 모델 해석의 필요성 등을 고려하여 어떤 라이브러리를 사용할지 결정하는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>비례 층화 표본추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2841,8 +3218,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2933,8 +3317,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3106,30 +3496,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3145,22 +3558,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3172,7 +3585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3185,32 +3598,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3231,16 +3644,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -3254,7 +3667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3290,33 +3703,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3331,19 +3744,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3355,30 +3768,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3404,7 +3803,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3416,9 +3815,96 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10432,7 +10918,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.1</cx:f>
+        <cx:f>_xlchart.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10488,7 +10974,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.0</cx:f>
+        <cx:f>_xlchart.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -47865,6 +48351,2641 @@
 
 <file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2124075"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2543175"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="3095625"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="5372100"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3924300"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4242707"/>
+          <a:ext cx="85725" cy="102054"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4631872"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3423139"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67822</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="1495425"/>
+          <a:ext cx="8221222" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="그룹 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1419225"/>
+          <a:ext cx="533400" cy="457200"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="533400" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="타원 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="504825" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="그룹 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7305675" y="1590675"/>
+          <a:ext cx="695325" cy="590550"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="552450" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="타원 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="TextBox 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="523875" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="타원 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2333625"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="타원 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2752725"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="타원 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="3305175"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="타원 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4133850"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="타원 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4471307"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="타원 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4773176"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892562" y="5027735"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3699364"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3985114"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2124075"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2543175"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="3095625"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="5372100"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3924300"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4242707"/>
+          <a:ext cx="85725" cy="102054"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4631872"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3423139"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>67822</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>162031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="1495425"/>
+          <a:ext cx="8221222" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="타원 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2333625"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="타원 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2752725"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="타원 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="3305175"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="타원 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4133850"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="타원 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4471307"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>86876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="타원 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4773176"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892562" y="5027735"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3699364"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3985114"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="타원 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2543175"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="타원 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2962275"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="타원 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="3514725"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372665</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>192882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="타원 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9299971" y="4762501"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372665</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="타원 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286423" y="4507395"/>
+          <a:ext cx="85725" cy="81813"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372665</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="타원 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286423" y="4644506"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>235693</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464293</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="타원 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9235176" y="4845529"/>
+          <a:ext cx="228600" cy="229256"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>389975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12699627" y="3801596"/>
+          <a:ext cx="4073348" cy="3817249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -47906,7 +51027,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -50255,75 +53376,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I11:N15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -50384,6 +53436,75 @@
     <dataField name="평균 : C" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : D" fld="4" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : E" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -51100,7 +54221,7 @@
       <c r="Z122" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B68" r:id="rId1" location="scrollTo=_Dt-Fv8CDnRs"/>
   </hyperlinks>
@@ -51973,7 +55094,7 @@
       <c r="AB28" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -51982,7 +55103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T158"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
@@ -52452,12 +55573,12 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
     </row>
     <row r="41" spans="2:12" ht="18.75" thickBot="1">
       <c r="B41" s="34" t="s">
@@ -52801,7 +55922,7 @@
       <c r="C77" s="59">
         <v>55</v>
       </c>
-      <c r="F77" s="93" t="s">
+      <c r="F77" s="116" t="s">
         <v>256</v>
       </c>
       <c r="G77" s="61" t="s">
@@ -52815,7 +55936,7 @@
       <c r="C78" s="59">
         <v>40</v>
       </c>
-      <c r="F78" s="93"/>
+      <c r="F78" s="116"/>
       <c r="G78" s="59" t="s">
         <v>255</v>
       </c>
@@ -52827,10 +55948,10 @@
       <c r="C79" s="59">
         <v>80</v>
       </c>
-      <c r="F79" s="93" t="s">
+      <c r="F79" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="I79" s="93" t="s">
+      <c r="I79" s="116" t="s">
         <v>257</v>
       </c>
     </row>
@@ -52841,8 +55962,8 @@
       <c r="C80" s="59">
         <v>93</v>
       </c>
-      <c r="F80" s="93"/>
-      <c r="I80" s="93"/>
+      <c r="F80" s="116"/>
+      <c r="I80" s="116"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="59">
@@ -54214,7 +57335,7 @@
     <mergeCell ref="F77:F78"/>
     <mergeCell ref="I79:I80"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -54585,7 +57706,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -54595,7 +57716,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -55060,23 +58181,23 @@
         <f>AVERAGE(B2:B16)</f>
         <v>16.466666666666665</v>
       </c>
-      <c r="I18" s="93" t="s">
+      <c r="I18" s="116" t="s">
         <v>220</v>
       </c>
       <c r="J18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K18" s="116">
         <f>J18/J19</f>
         <v>46.897777777777783</v>
       </c>
-      <c r="M18" s="93" t="s">
+      <c r="M18" s="116" t="s">
         <v>222</v>
       </c>
       <c r="N18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="O18" s="93">
+      <c r="O18" s="116">
         <f>N18/N19</f>
         <v>50.247619047619047</v>
       </c>
@@ -55089,18 +58210,18 @@
         <f>AVERAGE(E2:E16)</f>
         <v>98.933333333333337</v>
       </c>
-      <c r="I19" s="93"/>
+      <c r="I19" s="116"/>
       <c r="J19" s="31">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-      <c r="K19" s="93"/>
-      <c r="M19" s="93"/>
+      <c r="K19" s="116"/>
+      <c r="M19" s="116"/>
       <c r="N19">
         <f>J19-1</f>
         <v>14</v>
       </c>
-      <c r="O19" s="93"/>
+      <c r="O19" s="116"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
@@ -55155,40 +58276,40 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="I26" s="93" t="s">
+      <c r="I26" s="116" t="s">
         <v>228</v>
       </c>
       <c r="J26">
         <v>46.897777777777783</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="116">
         <f>J26/J27</f>
         <v>0.88792090224061171</v>
       </c>
-      <c r="M26" s="93" t="s">
+      <c r="M26" s="116" t="s">
         <v>229</v>
       </c>
       <c r="N26">
         <v>50.247619047619047</v>
       </c>
-      <c r="O26" s="93">
+      <c r="O26" s="116">
         <f>N26/N27</f>
         <v>0.88792090224061504</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="I27" s="93"/>
+      <c r="I27" s="116"/>
       <c r="J27">
         <f>B21*B24</f>
         <v>52.817517483183735</v>
       </c>
-      <c r="K27" s="93"/>
-      <c r="M27" s="93"/>
+      <c r="K27" s="116"/>
+      <c r="M27" s="116"/>
       <c r="N27">
         <f>B22*B25</f>
         <v>56.590197303410925</v>
       </c>
-      <c r="O27" s="93"/>
+      <c r="O27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -55201,7 +58322,7 @@
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="O26:O27"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -55260,7 +58381,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -55271,8 +58392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -55921,7 +59042,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -55937,7 +59058,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -55948,7 +59069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
@@ -56378,7 +59499,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -56888,7 +60009,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -56898,7 +60019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
@@ -57521,18 +60642,18 @@
     </row>
     <row r="71" spans="2:12" s="1" customFormat="1">
       <c r="B71" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="2:12">
       <c r="F74" t="s">
+        <v>446</v>
+      </c>
+      <c r="G74" t="s">
+        <v>447</v>
+      </c>
+      <c r="H74" t="s">
         <v>448</v>
-      </c>
-      <c r="G74" t="s">
-        <v>449</v>
-      </c>
-      <c r="H74" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="75" spans="2:12">
@@ -57547,32 +60668,32 @@
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="93" t="s">
+      <c r="B77" s="116" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="D77" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="C77" s="109" t="s">
-        <v>451</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="F77" s="109">
+      <c r="F77" s="103">
         <v>0.7</v>
       </c>
-      <c r="G77" s="109">
+      <c r="G77" s="103">
         <v>0.2</v>
       </c>
-      <c r="H77" s="109">
+      <c r="H77" s="103">
         <v>0.1</v>
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="93"/>
+      <c r="B78" s="116"/>
       <c r="C78" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" s="83" t="s">
         <v>445</v>
-      </c>
-      <c r="D78" s="83" t="s">
-        <v>447</v>
       </c>
       <c r="F78">
         <f>1-F77</f>
@@ -57589,29 +60710,29 @@
     </row>
     <row r="80" spans="2:12">
       <c r="B80" t="s">
-        <v>452</v>
-      </c>
-      <c r="F80" s="93">
+        <v>450</v>
+      </c>
+      <c r="F80" s="116">
         <f>LOG(F77/F78)</f>
         <v>0.36797678529459432</v>
       </c>
-      <c r="G80" s="93">
+      <c r="G80" s="116">
         <f t="shared" ref="G80:H80" si="5">LOG(G77/G78)</f>
         <v>-0.6020599913279624</v>
       </c>
-      <c r="H80" s="93">
+      <c r="H80" s="116">
         <f t="shared" si="5"/>
         <v>-0.95424250943932487</v>
       </c>
     </row>
     <row r="81" spans="2:14">
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="116"/>
+      <c r="H81" s="116"/>
     </row>
     <row r="83" spans="2:14">
       <c r="E83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F83">
         <v>0.36797678529459432</v>
@@ -57623,12 +60744,12 @@
         <v>-0.95424250943932487</v>
       </c>
       <c r="J83" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="2:14">
       <c r="B86" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F86">
         <f>1/(1+EXP(-F83))</f>
@@ -57643,18 +60764,18 @@
         <v>0.27803241996025485</v>
       </c>
       <c r="J86" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N86" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="2:14">
       <c r="B91" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E91" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="2:14">
@@ -57673,7 +60794,7 @@
     </row>
     <row r="94" spans="2:14">
       <c r="E94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" spans="2:14">
@@ -57684,7 +60805,7 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="5:8">
@@ -57708,7 +60829,7 @@
     <mergeCell ref="G80:G81"/>
     <mergeCell ref="H80:H81"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -58365,7 +61486,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -58376,13 +61497,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -58393,7 +61514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -58412,7 +61533,7 @@
       <c r="I2" t="s">
         <v>369</v>
       </c>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="97" t="s">
         <v>403</v>
       </c>
     </row>
@@ -58486,7 +61607,7 @@
         <v>395</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="P16" s="102"/>
+      <c r="P16" s="96"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" s="84" t="s">
@@ -58526,7 +61647,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="J21" s="1"/>
-      <c r="N21" s="93" t="s">
+      <c r="N21" s="116" t="s">
         <v>383</v>
       </c>
       <c r="O21" t="s">
@@ -58541,7 +61662,7 @@
         <v>376</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="N22" s="93"/>
+      <c r="N22" s="116"/>
       <c r="O22" t="s">
         <v>386</v>
       </c>
@@ -58607,7 +61728,7 @@
       <c r="L32">
         <v>31</v>
       </c>
-      <c r="M32" s="101">
+      <c r="M32" s="95">
         <v>541</v>
       </c>
     </row>
@@ -58630,7 +61751,7 @@
   <mergeCells count="1">
     <mergeCell ref="N21:N22"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -58659,7 +61780,7 @@
       <c r="I2" t="s">
         <v>369</v>
       </c>
-      <c r="P2" s="103" t="s">
+      <c r="P2" s="97" t="s">
         <v>403</v>
       </c>
     </row>
@@ -58670,7 +61791,7 @@
     </row>
     <row r="4" spans="2:16">
       <c r="I4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -58746,7 +61867,7 @@
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="Q17" s="102"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17">
       <c r="B18" s="84" t="s">
@@ -58792,7 +61913,7 @@
     <row r="22" spans="1:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="93" t="s">
+      <c r="O22" s="116" t="s">
         <v>383</v>
       </c>
       <c r="P22" t="s">
@@ -58808,7 +61929,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="93"/>
+      <c r="O23" s="116"/>
       <c r="P23" t="s">
         <v>386</v>
       </c>
@@ -58876,7 +61997,7 @@
       <c r="J32" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="K32" s="104">
+      <c r="K32" s="98">
         <v>8</v>
       </c>
       <c r="L32" s="84"/>
@@ -58897,7 +62018,7 @@
         <f>SUM(M31:M32)</f>
         <v>9</v>
       </c>
-      <c r="N33" s="101">
+      <c r="N33" s="95">
         <f>SUM(I33,K33,M33)</f>
         <v>221</v>
       </c>
@@ -58923,7 +62044,7 @@
       <c r="H40" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="J40" s="106">
+      <c r="J40" s="100">
         <f>SUM(N33,J38)</f>
         <v>665</v>
       </c>
@@ -58947,7 +62068,7 @@
   <mergeCells count="1">
     <mergeCell ref="O22:O23"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -58957,8 +62078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -58969,14 +62090,14 @@
   <sheetData>
     <row r="1" spans="2:16">
       <c r="B1" t="s">
-        <v>409</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="2:16">
       <c r="I2" t="s">
         <v>369</v>
       </c>
-      <c r="P2" s="103" t="s">
+      <c r="P2" s="97" t="s">
         <v>403</v>
       </c>
     </row>
@@ -58987,17 +62108,17 @@
     </row>
     <row r="4" spans="2:16">
       <c r="I4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="I5" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="I6" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -59023,7 +62144,7 @@
     <row r="12" spans="2:16">
       <c r="J12" s="1"/>
       <c r="K12" s="84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -59031,7 +62152,7 @@
       <c r="J13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="18">
@@ -59064,7 +62185,7 @@
       <c r="L17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="33">
         <v>0.7</v>
@@ -59081,11 +62202,11 @@
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108">
+      <c r="O18" s="124" t="s">
+        <v>439</v>
+      </c>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="125">
         <v>0.2</v>
       </c>
     </row>
@@ -59093,9 +62214,9 @@
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
     </row>
     <row r="20" spans="2:17" ht="18">
       <c r="H20" s="84" t="s">
@@ -59105,7 +62226,7 @@
       <c r="L20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q20">
         <v>0.1</v>
@@ -59115,7 +62236,7 @@
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
       <c r="O21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -59124,18 +62245,18 @@
     <row r="22" spans="2:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="93"/>
+      <c r="O22" s="116"/>
     </row>
     <row r="23" spans="2:17">
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="93"/>
+      <c r="O23" s="116"/>
     </row>
     <row r="24" spans="2:17">
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
       <c r="O24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -59154,21 +62275,21 @@
     </row>
     <row r="30" spans="2:17">
       <c r="I30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J30">
         <f>12*4</f>
         <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L30">
         <f xml:space="preserve"> 12*8</f>
         <v>96</v>
       </c>
       <c r="M30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N30">
         <f>8*3</f>
@@ -59177,20 +62298,20 @@
     </row>
     <row r="31" spans="2:17">
       <c r="I31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J31" s="83">
         <f xml:space="preserve"> 12 * 1</f>
         <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L31">
         <v>8</v>
       </c>
       <c r="M31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N31">
         <f>3*1</f>
@@ -59202,7 +62323,7 @@
         <f>J30+J31</f>
         <v>60</v>
       </c>
-      <c r="K32" s="104"/>
+      <c r="K32" s="98"/>
       <c r="L32" s="84">
         <f>L30+L31</f>
         <v>104</v>
@@ -59213,7 +62334,7 @@
       </c>
     </row>
     <row r="33" spans="6:14">
-      <c r="N33" s="101"/>
+      <c r="N33" s="95"/>
     </row>
     <row r="34" spans="6:14">
       <c r="N34">
@@ -59223,7 +62344,7 @@
     </row>
     <row r="36" spans="6:14">
       <c r="F36" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I36">
         <v>191</v>
@@ -59238,15 +62359,15 @@
     </row>
     <row r="38" spans="6:14">
       <c r="F38" t="s">
-        <v>467</v>
-      </c>
-      <c r="J38" s="105">
+        <v>465</v>
+      </c>
+      <c r="J38" s="99">
         <f>N34+K36</f>
         <v>575</v>
       </c>
     </row>
     <row r="40" spans="6:14">
-      <c r="J40" s="106"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="46" spans="6:14">
       <c r="I46" s="2"/>
@@ -59257,13 +62378,726 @@
     <mergeCell ref="O18:P19"/>
     <mergeCell ref="Q18:Q19"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="94"/>
+    <col min="8" max="8" width="10.5" style="94" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="B1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="I2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="97" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="I3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="I4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="I5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="I6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="I7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="J10" s="94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="I11" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="M11" s="94"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="J12" s="1"/>
+      <c r="K12" s="94" t="s">
+        <v>378</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="94" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="18">
+      <c r="H14" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" ht="18">
+      <c r="H16" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="2:17" ht="18">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="H18" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="101" t="s">
+        <v>492</v>
+      </c>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="102"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102"/>
+    </row>
+    <row r="20" spans="2:17" ht="18">
+      <c r="H20" s="94" t="s">
+        <v>432</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="O22" s="116"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="O23" s="116"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="J26" s="1"/>
+      <c r="L26" s="94"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="J28" s="94"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="J31" s="93"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="J32" s="94"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="94"/>
+    </row>
+    <row r="33" spans="9:14">
+      <c r="N33" s="95"/>
+    </row>
+    <row r="38" spans="9:14">
+      <c r="J38" s="99"/>
+    </row>
+    <row r="40" spans="9:14">
+      <c r="J40" s="100"/>
+    </row>
+    <row r="46" spans="9:14">
+      <c r="I46" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O22:O23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="94" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="94" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="B1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="I2" t="s">
+        <v>369</v>
+      </c>
+      <c r="R2" s="97" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="I3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="I4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="I5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="I6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="I7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="I8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="J11" s="94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="I12" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="J13" s="1"/>
+      <c r="K13" s="94" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="94" t="s">
+        <v>437</v>
+      </c>
+      <c r="N14" s="94" t="s">
+        <v>511</v>
+      </c>
+      <c r="O14" s="94"/>
+    </row>
+    <row r="15" spans="2:18" ht="18">
+      <c r="H15" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:20" ht="18">
+      <c r="H17" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="94" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" t="s">
+        <v>515</v>
+      </c>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="2:20" ht="18">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="H19" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="R19" s="101"/>
+      <c r="S19" s="102"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="102"/>
+    </row>
+    <row r="21" spans="2:20" ht="18">
+      <c r="H21" s="94" t="s">
+        <v>432</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="Q23" s="116"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="Q24" s="116"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="J27" s="1"/>
+      <c r="L27" s="94"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="J29">
+        <v>36</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="N29" s="24">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="C30" t="s">
+        <v>520</v>
+      </c>
+      <c r="D30" t="s">
+        <v>519</v>
+      </c>
+      <c r="H30"/>
+      <c r="T30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="C32" s="104"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="113"/>
+      <c r="H32"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="113"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="C33" s="104"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="113"/>
+      <c r="H33"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="113"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="C34" s="104"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="113"/>
+      <c r="H34"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="113"/>
+      <c r="P34" s="95"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="C35" s="104"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="113"/>
+      <c r="H35"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="113"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" s="94">
+        <v>8</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="113"/>
+      <c r="H36"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="113"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="94"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="113"/>
+      <c r="H37"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="113"/>
+      <c r="P37" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="94"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="113"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>523</v>
+      </c>
+      <c r="J38" s="144"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="145"/>
+      <c r="P38" t="s">
+        <v>529</v>
+      </c>
+      <c r="R38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="94"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="138"/>
+      <c r="H39"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="147"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="B40" s="94"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="142"/>
+      <c r="H40"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="140"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="B41" s="94">
+        <v>2</v>
+      </c>
+      <c r="C41" s="111"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="114"/>
+      <c r="H41"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="C42" s="105"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="115"/>
+      <c r="H42"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="I47" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q23:Q24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="B1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="1" customFormat="1">
+      <c r="C3" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="30">
+      <c r="C4" s="126" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" s="126"/>
+      <c r="D5" s="128" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+    </row>
+    <row r="8" spans="2:12" s="1" customFormat="1">
+      <c r="C8" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="D10" s="126" t="s">
+        <v>483</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="D11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="E12" s="127" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -59284,18 +63118,18 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -59305,120 +63139,730 @@
     <col min="6" max="6" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="118" t="s">
-        <v>474</v>
+    <row r="1" spans="1:22" s="1" customFormat="1">
+      <c r="A1" s="112" t="s">
+        <v>472</v>
       </c>
       <c r="C1" s="85"/>
       <c r="F1" s="85"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="148" t="s">
+        <v>543</v>
+      </c>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="F2" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3" s="104"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="108"/>
+      <c r="L3" s="97" t="s">
+        <v>533</v>
+      </c>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="B4" s="104"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="108"/>
+      <c r="I4" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="L4" s="97" t="s">
+        <v>531</v>
+      </c>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="B5" s="104"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="108"/>
+      <c r="L5" s="97" t="s">
+        <v>532</v>
+      </c>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
+        <v>475</v>
+      </c>
+      <c r="L6" s="97" t="s">
+        <v>534</v>
+      </c>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="B7" s="104"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="108"/>
+      <c r="L7" s="97" t="s">
+        <v>535</v>
+      </c>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="104"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="108"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="104"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="108"/>
+    </row>
+    <row r="10" spans="1:22" s="10" customFormat="1">
+      <c r="A10" s="107"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="109"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="111"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="110"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="105"/>
+      <c r="C12" s="115" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="86" t="s">
+        <v>476</v>
+      </c>
+      <c r="I12" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="110"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="114"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="110"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="114"/>
-      <c r="I4" s="84" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="110"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="114"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="84" t="s">
-        <v>469</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="119" t="s">
-        <v>475</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="110"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="114"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="110"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="114"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="110"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="114"/>
-    </row>
-    <row r="10" spans="1:9" s="10" customFormat="1">
-      <c r="A10" s="113"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="115"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="117"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="116"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="84" t="s">
-        <v>470</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="121" t="s">
-        <v>476</v>
-      </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="86" t="s">
-        <v>478</v>
-      </c>
-      <c r="I12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="111"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
+    <row r="13" spans="1:22">
+      <c r="B13" s="105"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="86"/>
     </row>
+    <row r="16" spans="1:22" s="1" customFormat="1">
+      <c r="A16" s="112" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="H16" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="113"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="113"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="113"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="113"/>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="94"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="113"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="113"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="113"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="113"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="94"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="113"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="113"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="113"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="113"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="94"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="113"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="132"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="113"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="113"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="113"/>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="94"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="113"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="113"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="113"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="113"/>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="94"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="113"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="113"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="113"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="113"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="94"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="113"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="113"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="113"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="132"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="113"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="94"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="130"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="130"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="133"/>
+      <c r="W25" s="133"/>
+      <c r="X25" s="134"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="130"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="B26" s="104"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="113"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="113"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="113"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="113"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="132"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="B27" s="104"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="113"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="113"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="113"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="113"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="131"/>
+      <c r="AD27" s="132"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="94"/>
+      <c r="B29" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" s="94"/>
+      <c r="D29">
+        <f>208 * 0.8</f>
+        <v>166.4</v>
+      </c>
+      <c r="F29" s="135">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="94"/>
+      <c r="B30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="94"/>
+      <c r="D30">
+        <f>208 * 0.2</f>
+        <v>41.6</v>
+      </c>
+      <c r="F30" s="135">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="F31" s="94"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="F32" s="94"/>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="94"/>
+      <c r="B33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" s="94"/>
+      <c r="F33" s="135">
+        <v>0.85</v>
+      </c>
+      <c r="L33" s="136">
+        <v>0.76</v>
+      </c>
+      <c r="R33" s="136">
+        <v>0.78</v>
+      </c>
+      <c r="X33" s="136">
+        <v>0.85</v>
+      </c>
+      <c r="AD33" s="136">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="F34" s="94"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="F35" s="94"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="94"/>
+      <c r="B36" t="s">
+        <v>505</v>
+      </c>
+      <c r="C36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="H36">
+        <f>AVERAGE(85,76,78,85,90)</f>
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="F37" s="94"/>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="F38" s="94"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="F39" s="94"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="F40" s="94"/>
+    </row>
+    <row r="46" spans="1:30" s="1" customFormat="1">
+      <c r="A46" s="85" t="s">
+        <v>494</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C46" s="85"/>
+      <c r="F46" s="85"/>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="84" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="56" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="56"/>
+    </row>
+    <row r="58" spans="1:6" s="150" customFormat="1">
+      <c r="A58" s="150" t="s">
+        <v>536</v>
+      </c>
+      <c r="F58" s="151"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="149" t="s">
+        <v>537</v>
+      </c>
+      <c r="B61" s="149"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="152"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="153" t="s">
+        <v>538</v>
+      </c>
+      <c r="B63" s="149"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="149"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="152"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="153" t="s">
+        <v>539</v>
+      </c>
+      <c r="B65" s="149"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="152"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="149"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="153" t="s">
+        <v>540</v>
+      </c>
+      <c r="B67" s="149"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="152"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="153" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="149" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -59548,13 +63992,13 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="116" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="116">
         <v>8</v>
       </c>
     </row>
@@ -59563,11 +64007,11 @@
         <f>SUM(D5:D9)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="116"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
@@ -59621,7 +64065,7 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:H13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -59878,7 +64322,7 @@
       <c r="H48" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -59903,14 +64347,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -60550,13 +64994,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -60944,13 +65388,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -62665,7 +67109,7 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A60:E60"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -62681,7 +67125,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -62705,14 +67149,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -63122,11 +67566,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -63753,7 +68197,7 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A59:E59"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -63796,7 +68240,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -63989,40 +68433,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="121">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="95"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="98"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">
@@ -64983,7 +69427,7 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="H23:H24"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,24 @@
     <sheet name="상관_회귀" sheetId="15" r:id="rId13"/>
     <sheet name="확률" sheetId="16" r:id="rId14"/>
     <sheet name="예측모델" sheetId="17" r:id="rId15"/>
-    <sheet name="미분공식" sheetId="18" r:id="rId16"/>
-    <sheet name="퍼셉트론" sheetId="19" r:id="rId17"/>
-    <sheet name="다층퍼셉트론" sheetId="20" r:id="rId18"/>
-    <sheet name="활성화함수" sheetId="21" r:id="rId19"/>
-    <sheet name="경사하강법" sheetId="22" r:id="rId20"/>
-    <sheet name="모델설계" sheetId="23" r:id="rId21"/>
-    <sheet name="모델설계2" sheetId="24" r:id="rId22"/>
-    <sheet name="모델설계3" sheetId="27" r:id="rId23"/>
-    <sheet name="모델설계4" sheetId="30" r:id="rId24"/>
-    <sheet name="모델설계5" sheetId="31" r:id="rId25"/>
-    <sheet name="모델최적화" sheetId="29" r:id="rId26"/>
-    <sheet name="희소행렬" sheetId="25" r:id="rId27"/>
-    <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId28"/>
+    <sheet name="다항회귀_다중회귀" sheetId="32" r:id="rId16"/>
+    <sheet name="미분공식" sheetId="18" r:id="rId17"/>
+    <sheet name="퍼셉트론" sheetId="19" r:id="rId18"/>
+    <sheet name="다층퍼셉트론" sheetId="20" r:id="rId19"/>
+    <sheet name="활성화함수" sheetId="21" r:id="rId20"/>
+    <sheet name="경사하강법" sheetId="22" r:id="rId21"/>
+    <sheet name="모델설계" sheetId="23" r:id="rId22"/>
+    <sheet name="모델설계2" sheetId="24" r:id="rId23"/>
+    <sheet name="모델설계3" sheetId="27" r:id="rId24"/>
+    <sheet name="모델설계4" sheetId="30" r:id="rId25"/>
+    <sheet name="모델설계5" sheetId="31" r:id="rId26"/>
+    <sheet name="모델최적화" sheetId="29" r:id="rId27"/>
+    <sheet name="희소행렬" sheetId="25" r:id="rId28"/>
+    <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
@@ -46,8 +47,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId31"/>
-    <pivotCache cacheId="1" r:id="rId32"/>
+    <pivotCache cacheId="0" r:id="rId32"/>
+    <pivotCache cacheId="1" r:id="rId33"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="569">
   <si>
     <t>항</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2967,6 +2968,106 @@
     <t>비례 층화 표본추출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>다항 회귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중회귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수가 1개일 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순선형(직선)-모델이 과소적합일 경우 다항회귀(곡선)를 검토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수의 개수가 늘어남, 변수간의 상호(교호) 작용 포함됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutiple regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 개의 독립 변수를 사용하여 종속 변수를 예측하는 회귀 분석 방법 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수가 3개일 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수^2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수끼리 곱한항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1 * x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2 * x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3 * x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 9개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이어스(y절편)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에 따라 1개가 추가될 수도 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3524,7 +3625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3815,32 +3916,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3900,6 +3975,35 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4791,6 +4895,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11681,7 +11786,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15158,6 +15262,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15596,6 +15701,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16407,6 +16513,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -36715,6 +36822,125 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="842097"/>
+          <a:ext cx="6638925" cy="3968983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125861</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>677026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7669661" y="790575"/>
+          <a:ext cx="5351765" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="4881833"/>
+          <a:ext cx="7962900" cy="3986911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -36829,7 +37055,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37767,7 +37993,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -39335,7 +39561,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -39624,7 +39850,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -39705,7 +39931,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -41507,7 +41733,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -43005,1237 +43231,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="타원 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="1914525"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="타원 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="2352675"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="타원 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="2905125"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="타원 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="5143500"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="타원 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="3695700"/>
-          <a:ext cx="85725" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>77561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="타원 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="4014107"/>
-          <a:ext cx="85725" cy="83004"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>155122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="타원 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="4384222"/>
-          <a:ext cx="85725" cy="83004"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>264502</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>32239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>493102</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>51289</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="타원 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9294202" y="3423139"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>67822</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>162031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9105900" y="1285875"/>
-          <a:ext cx="8221222" cy="762106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="그룹 16"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5419725" y="1419225"/>
-          <a:ext cx="533400" cy="457200"/>
-          <a:chOff x="5400675" y="1400175"/>
-          <a:chExt cx="533400" cy="457200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="타원 17"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5400675" y="1400175"/>
-            <a:ext cx="457200" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="TextBox 18"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="1495425"/>
-            <a:ext cx="504825" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>bias1</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="그룹 19"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7305675" y="1590675"/>
-          <a:ext cx="695325" cy="590550"/>
-          <a:chOff x="5400675" y="1400175"/>
-          <a:chExt cx="552450" cy="457200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="타원 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5400675" y="1400175"/>
-            <a:ext cx="457200" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="TextBox 21"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="1495425"/>
-            <a:ext cx="523875" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>bias2</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="타원 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="2124075"/>
-          <a:ext cx="228600" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="타원 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="2562225"/>
-          <a:ext cx="228600" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="타원 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="3114675"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="타원 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962900" y="3905250"/>
-          <a:ext cx="85725" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>77561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="타원 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962900" y="4223657"/>
-          <a:ext cx="85725" cy="83004"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>172811</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="타원 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962900" y="4525526"/>
-          <a:ext cx="85725" cy="85935"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>234462</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>463062</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>150935</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="타원 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7892562" y="4799135"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>264502</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>98914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>493102</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98914</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="타원 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9294202" y="3699364"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>264502</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>493102</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175114</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="타원 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9294202" y="3985114"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -48371,6 +47366,1237 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="6505575" y="1914525"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2352675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2905125"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="5143500"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3695700"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4014107"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4384222"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3423139"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67822</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="1285875"/>
+          <a:ext cx="8221222" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="그룹 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1419225"/>
+          <a:ext cx="533400" cy="457200"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="533400" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="타원 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="504825" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="그룹 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7305675" y="1590675"/>
+          <a:ext cx="695325" cy="590550"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="552450" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="타원 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="TextBox 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="523875" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2124075"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2562225"/>
+          <a:ext cx="228600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="3114675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="타원 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="3905250"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="타원 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4223657"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="타원 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="4525526"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="타원 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892562" y="4799135"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="타원 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3699364"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264502</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493102</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="타원 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294202" y="3985114"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="6505575" y="2124075"/>
           <a:ext cx="228600" cy="228600"/>
         </a:xfrm>
@@ -49580,7 +49806,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -50984,7 +51210,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -51027,7 +51253,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -53780,7 +54006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z122"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
@@ -55103,8 +55329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -55573,12 +55799,12 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B40" s="122"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
     </row>
     <row r="41" spans="2:12" ht="18.75" thickBot="1">
       <c r="B41" s="34" t="s">
@@ -55922,7 +56148,7 @@
       <c r="C77" s="59">
         <v>55</v>
       </c>
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="145" t="s">
         <v>256</v>
       </c>
       <c r="G77" s="61" t="s">
@@ -55936,7 +56162,7 @@
       <c r="C78" s="59">
         <v>40</v>
       </c>
-      <c r="F78" s="116"/>
+      <c r="F78" s="145"/>
       <c r="G78" s="59" t="s">
         <v>255</v>
       </c>
@@ -55948,10 +56174,10 @@
       <c r="C79" s="59">
         <v>80</v>
       </c>
-      <c r="F79" s="116" t="s">
+      <c r="F79" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="I79" s="116" t="s">
+      <c r="I79" s="145" t="s">
         <v>257</v>
       </c>
     </row>
@@ -55962,8 +56188,8 @@
       <c r="C80" s="59">
         <v>93</v>
       </c>
-      <c r="F80" s="116"/>
-      <c r="I80" s="116"/>
+      <c r="F80" s="145"/>
+      <c r="I80" s="145"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="59">
@@ -55975,6 +56201,10 @@
       <c r="F81" s="59">
         <f>(B77-$G$75) / $G$76</f>
         <v>-1.2649110640673518</v>
+      </c>
+      <c r="G81">
+        <f>F81^2</f>
+        <v>1.6</v>
       </c>
       <c r="I81">
         <f>(C77-$J$75) / $J$76</f>
@@ -55988,8 +56218,12 @@
         <f t="shared" ref="F82:F85" si="1">(B78-$G$75) / $G$76</f>
         <v>-0.63245553203367588</v>
       </c>
+      <c r="G82" s="139">
+        <f t="shared" ref="G82:G85" si="2">F82^2</f>
+        <v>0.4</v>
+      </c>
       <c r="I82">
-        <f t="shared" ref="I82:I85" si="2">(C78-$J$75) / $J$76</f>
+        <f t="shared" ref="I82:I85" si="3">(C78-$J$75) / $J$76</f>
         <v>-1.3678332288460768</v>
       </c>
     </row>
@@ -55998,8 +56232,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G83" s="139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51883329370023601</v>
       </c>
     </row>
@@ -56008,8 +56246,12 @@
         <f t="shared" si="1"/>
         <v>0.63245553203367588</v>
       </c>
+      <c r="G84" s="139">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1319999135277878</v>
       </c>
     </row>
@@ -56018,9 +56260,19 @@
         <f t="shared" si="1"/>
         <v>1.2649110640673518</v>
       </c>
+      <c r="G85" s="139">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37733330450926261</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="G86">
+        <f>SUM(G81:G85)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="2:14" s="1" customFormat="1">
@@ -58181,23 +58433,23 @@
         <f>AVERAGE(B2:B16)</f>
         <v>16.466666666666665</v>
       </c>
-      <c r="I18" s="116" t="s">
+      <c r="I18" s="145" t="s">
         <v>220</v>
       </c>
       <c r="J18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="145">
         <f>J18/J19</f>
         <v>46.897777777777783</v>
       </c>
-      <c r="M18" s="116" t="s">
+      <c r="M18" s="145" t="s">
         <v>222</v>
       </c>
       <c r="N18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="O18" s="116">
+      <c r="O18" s="145">
         <f>N18/N19</f>
         <v>50.247619047619047</v>
       </c>
@@ -58210,18 +58462,18 @@
         <f>AVERAGE(E2:E16)</f>
         <v>98.933333333333337</v>
       </c>
-      <c r="I19" s="116"/>
+      <c r="I19" s="145"/>
       <c r="J19" s="31">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-      <c r="K19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="K19" s="145"/>
+      <c r="M19" s="145"/>
       <c r="N19">
         <f>J19-1</f>
         <v>14</v>
       </c>
-      <c r="O19" s="116"/>
+      <c r="O19" s="145"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
@@ -58276,40 +58528,40 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="I26" s="116" t="s">
+      <c r="I26" s="145" t="s">
         <v>228</v>
       </c>
       <c r="J26">
         <v>46.897777777777783</v>
       </c>
-      <c r="K26" s="116">
+      <c r="K26" s="145">
         <f>J26/J27</f>
         <v>0.88792090224061171</v>
       </c>
-      <c r="M26" s="116" t="s">
+      <c r="M26" s="145" t="s">
         <v>229</v>
       </c>
       <c r="N26">
         <v>50.247619047619047</v>
       </c>
-      <c r="O26" s="116">
+      <c r="O26" s="145">
         <f>N26/N27</f>
         <v>0.88792090224061504</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="I27" s="116"/>
+      <c r="I27" s="145"/>
       <c r="J27">
         <f>B21*B24</f>
         <v>52.817517483183735</v>
       </c>
-      <c r="K27" s="116"/>
-      <c r="M27" s="116"/>
+      <c r="K27" s="145"/>
+      <c r="M27" s="145"/>
       <c r="N27">
         <f>B22*B25</f>
         <v>56.590197303410925</v>
       </c>
-      <c r="O27" s="116"/>
+      <c r="O27" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -58392,7 +58644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -59049,6 +59301,140 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="D1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" s="140" customFormat="1">
+      <c r="B2" s="140" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="140" customFormat="1">
+      <c r="B44" s="140" t="s">
+        <v>545</v>
+      </c>
+      <c r="D44" s="140" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="E46" s="95" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="144" t="s">
+        <v>550</v>
+      </c>
+      <c r="C48" s="144" t="s">
+        <v>551</v>
+      </c>
+      <c r="D48" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="E48" s="146" t="s">
+        <v>557</v>
+      </c>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="144" t="s">
+        <v>554</v>
+      </c>
+      <c r="C49" s="144" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" s="144" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="F50" t="s">
+        <v>559</v>
+      </c>
+      <c r="G50" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="F51" t="s">
+        <v>558</v>
+      </c>
+      <c r="G51" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="F52" t="s">
+        <v>561</v>
+      </c>
+      <c r="G52" t="s">
+        <v>560</v>
+      </c>
+      <c r="H52" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="H53" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="H54" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="F55" t="s">
+        <v>565</v>
+      </c>
+      <c r="G55" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="F57" t="s">
+        <v>566</v>
+      </c>
+      <c r="G57" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E48:G48"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -59065,7 +59451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
@@ -59505,7 +59891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
@@ -60015,831 +60401,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N99"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="2" spans="2:3" s="1" customFormat="1">
-      <c r="B2" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
-        <f>IF(B5&gt;0,B5,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6">
-        <v>-2.5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C17" si="0">IF(B6&gt;0,B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8">
-        <v>-1.5</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10">
-        <v>-0.5</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14">
-        <v>1.5</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16">
-        <v>2.5</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="1" customFormat="1">
-      <c r="B20" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30">
-        <v>-3</v>
-      </c>
-      <c r="C30">
-        <f>(EXP(B30) - EXP(-B30)) / (EXP(B30) + EXP(-B30))</f>
-        <v>-0.99505475368673058</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31">
-        <v>-2.5</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C42" si="1">(EXP(B31) - EXP(-B31)) / (EXP(B31) + EXP(-B31))</f>
-        <v>-0.98661429815143042</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32">
-        <v>-2</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>-0.96402758007581701</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33">
-        <v>-1.5</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>-0.9051482536448664</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34">
-        <v>-1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>-0.76159415595576485</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35">
-        <v>-0.5</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>-0.46211715726000979</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37">
-        <v>0.5</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>0.46211715726000979</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>0.76159415595576485</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39">
-        <v>1.5</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>0.9051482536448664</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>0.96402758007581701</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41">
-        <v>2.5</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>0.98661429815143042</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>0.99505475368673058</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" s="1" customFormat="1">
-      <c r="B44" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="C46" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="K46" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="L46" s="71" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47">
-        <v>-1</v>
-      </c>
-      <c r="C47">
-        <f>LN(1+EXP(B47))</f>
-        <v>0.31326168751822286</v>
-      </c>
-      <c r="K47">
-        <v>-10</v>
-      </c>
-      <c r="L47">
-        <f>LN(1+EXP(K47))</f>
-        <v>4.5398899216870535E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48">
-        <v>-0.9</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:C67" si="2">LN(1+EXP(B48))</f>
-        <v>0.34115387473208791</v>
-      </c>
-      <c r="K48">
-        <v>-9</v>
-      </c>
-      <c r="L48">
-        <f t="shared" ref="L48:L67" si="3">LN(1+EXP(K48))</f>
-        <v>1.2340218972333965E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49">
-        <v>-0.8</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="2"/>
-        <v>0.37110066594777769</v>
-      </c>
-      <c r="K49">
-        <v>-8</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="3"/>
-        <v>3.3540637289566238E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50">
-        <v>-0.7</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="2"/>
-        <v>0.40318604888545784</v>
-      </c>
-      <c r="K50">
-        <v>-7</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="3"/>
-        <v>9.1146645377420147E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51">
-        <v>-0.6</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="2"/>
-        <v>0.43748795048588568</v>
-      </c>
-      <c r="K51">
-        <v>-6</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="3"/>
-        <v>2.4756851377303571E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52">
-        <v>-0.5</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="2"/>
-        <v>0.47407698418010669</v>
-      </c>
-      <c r="K52">
-        <v>-5</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>6.7153484891179669E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53">
-        <v>-0.4</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="2"/>
-        <v>0.5130152523999526</v>
-      </c>
-      <c r="K53">
-        <v>-4</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="3"/>
-        <v>1.8149927917809779E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54">
-        <v>-0.3</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="2"/>
-        <v>0.55435524446852702</v>
-      </c>
-      <c r="K54">
-        <v>-3</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="3"/>
-        <v>4.8587351573741958E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55">
-        <v>-0.2</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="2"/>
-        <v>0.59813886938159178</v>
-      </c>
-      <c r="K55">
-        <v>-2</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
-        <v>0.1269280110429726</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56">
-        <v>-0.1</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="2"/>
-        <v>0.64439666007357088</v>
-      </c>
-      <c r="K56">
-        <v>-1</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="3"/>
-        <v>0.31326168751822286</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="2"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="3"/>
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58">
-        <v>0.1</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="2"/>
-        <v>0.74439666007357097</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="3"/>
-        <v>1.3132616875182228</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59">
-        <v>0.2</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="2"/>
-        <v>0.79813886938159173</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="3"/>
-        <v>2.1269280110429727</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60">
-        <v>0.3</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="2"/>
-        <v>0.85435524446852718</v>
-      </c>
-      <c r="K60">
-        <v>3</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="3"/>
-        <v>3.0485873515737421</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61">
-        <v>0.4</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="2"/>
-        <v>0.91301525239995263</v>
-      </c>
-      <c r="K61">
-        <v>4</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="3"/>
-        <v>4.0181499279178094</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="B62">
-        <v>0.5</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="2"/>
-        <v>0.97407698418010669</v>
-      </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="3"/>
-        <v>5.0067153484891183</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63">
-        <v>0.6</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="2"/>
-        <v>1.0374879504858856</v>
-      </c>
-      <c r="K63">
-        <v>6</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="3"/>
-        <v>6.0024756851377301</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="B64">
-        <v>0.7</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="2"/>
-        <v>1.1031860488854579</v>
-      </c>
-      <c r="K64">
-        <v>7</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="3"/>
-        <v>7.0009114664537737</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="B65">
-        <v>0.8</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="2"/>
-        <v>1.1711006659477778</v>
-      </c>
-      <c r="K65">
-        <v>8</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="3"/>
-        <v>8.000335406372896</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="B66">
-        <v>0.9</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="2"/>
-        <v>1.2411538747320878</v>
-      </c>
-      <c r="K66">
-        <v>9</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="3"/>
-        <v>9.0001234021897236</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="2"/>
-        <v>1.3132616875182228</v>
-      </c>
-      <c r="K67">
-        <v>10</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="3"/>
-        <v>10.000045398899218</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" s="1" customFormat="1">
-      <c r="B71" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="F74" t="s">
-        <v>446</v>
-      </c>
-      <c r="G74" t="s">
-        <v>447</v>
-      </c>
-      <c r="H74" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="F75">
-        <v>0.7</v>
-      </c>
-      <c r="G75">
-        <v>0.2</v>
-      </c>
-      <c r="H75">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="B77" s="116" t="s">
-        <v>442</v>
-      </c>
-      <c r="C77" s="103" t="s">
-        <v>449</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="F77" s="103">
-        <v>0.7</v>
-      </c>
-      <c r="G77" s="103">
-        <v>0.2</v>
-      </c>
-      <c r="H77" s="103">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="B78" s="116"/>
-      <c r="C78" t="s">
-        <v>443</v>
-      </c>
-      <c r="D78" s="83" t="s">
-        <v>445</v>
-      </c>
-      <c r="F78">
-        <f>1-F77</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G78">
-        <f t="shared" ref="G78:H78" si="4">1-G77</f>
-        <v>0.8</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="B80" t="s">
-        <v>450</v>
-      </c>
-      <c r="F80" s="116">
-        <f>LOG(F77/F78)</f>
-        <v>0.36797678529459432</v>
-      </c>
-      <c r="G80" s="116">
-        <f t="shared" ref="G80:H80" si="5">LOG(G77/G78)</f>
-        <v>-0.6020599913279624</v>
-      </c>
-      <c r="H80" s="116">
-        <f t="shared" si="5"/>
-        <v>-0.95424250943932487</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14">
-      <c r="F81" s="116"/>
-      <c r="G81" s="116"/>
-      <c r="H81" s="116"/>
-    </row>
-    <row r="83" spans="2:14">
-      <c r="E83" t="s">
-        <v>451</v>
-      </c>
-      <c r="F83">
-        <v>0.36797678529459432</v>
-      </c>
-      <c r="G83">
-        <v>-0.6020599913279624</v>
-      </c>
-      <c r="H83">
-        <v>-0.95424250943932487</v>
-      </c>
-      <c r="J83" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14">
-      <c r="B86" t="s">
-        <v>452</v>
-      </c>
-      <c r="F86">
-        <f>1/(1+EXP(-F83))</f>
-        <v>0.59097000811815192</v>
-      </c>
-      <c r="G86">
-        <f t="shared" ref="G86:H86" si="6">1/(1+EXP(-G83))</f>
-        <v>0.35387254175900806</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="6"/>
-        <v>0.27803241996025485</v>
-      </c>
-      <c r="J86" t="s">
-        <v>453</v>
-      </c>
-      <c r="N86" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14">
-      <c r="B91" t="s">
-        <v>455</v>
-      </c>
-      <c r="E91" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14">
-      <c r="F92">
-        <f>EXP(F83)</f>
-        <v>1.4448084977809126</v>
-      </c>
-      <c r="G92">
-        <f t="shared" ref="G92:H92" si="7">EXP(G83)</f>
-        <v>0.54768225254253322</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="7"/>
-        <v>0.38510374654904711</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14">
-      <c r="E94" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14">
-      <c r="F95">
-        <f>SUM(F92:H92)</f>
-        <v>2.3775944968724927</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8">
-      <c r="E97" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
-      <c r="F99">
-        <f>F92/$F$95</f>
-        <v>0.60767658222687915</v>
-      </c>
-      <c r="G99">
-        <f t="shared" ref="G99:H99" si="8">G92/$F$95</f>
-        <v>0.23035141327209452</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="8"/>
-        <v>0.16197200450102645</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T180"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
@@ -61494,6 +61060,826 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:3" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <f>IF(B5&gt;0,B5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>-2.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C17" si="0">IF(B6&gt;0,B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>-1.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>-0.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="1" customFormat="1">
+      <c r="B20" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>-3</v>
+      </c>
+      <c r="C30">
+        <f>(EXP(B30) - EXP(-B30)) / (EXP(B30) + EXP(-B30))</f>
+        <v>-0.99505475368673058</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>-2.5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C42" si="1">(EXP(B31) - EXP(-B31)) / (EXP(B31) + EXP(-B31))</f>
+        <v>-0.98661429815143042</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>-0.96402758007581701</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33">
+        <v>-1.5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>-0.9051482536448664</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>-0.76159415595576485</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35">
+        <v>-0.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>-0.46211715726000979</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.46211715726000979</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.76159415595576485</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39">
+        <v>1.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.9051482536448664</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.96402758007581701</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41">
+        <v>2.5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.98661429815143042</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.99505475368673058</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="1" customFormat="1">
+      <c r="B44" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" s="71" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <f>LN(1+EXP(B47))</f>
+        <v>0.31326168751822286</v>
+      </c>
+      <c r="K47">
+        <v>-10</v>
+      </c>
+      <c r="L47">
+        <f>LN(1+EXP(K47))</f>
+        <v>4.5398899216870535E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48">
+        <v>-0.9</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:C67" si="2">LN(1+EXP(B48))</f>
+        <v>0.34115387473208791</v>
+      </c>
+      <c r="K48">
+        <v>-9</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48:L67" si="3">LN(1+EXP(K48))</f>
+        <v>1.2340218972333965E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49">
+        <v>-0.8</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>0.37110066594777769</v>
+      </c>
+      <c r="K49">
+        <v>-8</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>3.3540637289566238E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50">
+        <v>-0.7</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0.40318604888545784</v>
+      </c>
+      <c r="K50">
+        <v>-7</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>9.1146645377420147E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51">
+        <v>-0.6</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>0.43748795048588568</v>
+      </c>
+      <c r="K51">
+        <v>-6</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>2.4756851377303571E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52">
+        <v>-0.5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>0.47407698418010669</v>
+      </c>
+      <c r="K52">
+        <v>-5</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>6.7153484891179669E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53">
+        <v>-0.4</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>0.5130152523999526</v>
+      </c>
+      <c r="K53">
+        <v>-4</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>1.8149927917809779E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54">
+        <v>-0.3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>0.55435524446852702</v>
+      </c>
+      <c r="K54">
+        <v>-3</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>4.8587351573741958E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55">
+        <v>-0.2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>0.59813886938159178</v>
+      </c>
+      <c r="K55">
+        <v>-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>0.1269280110429726</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56">
+        <v>-0.1</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>0.64439666007357088</v>
+      </c>
+      <c r="K56">
+        <v>-1</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>0.31326168751822286</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>0.74439666007357097</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>1.3132616875182228</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59">
+        <v>0.2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>0.79813886938159173</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>2.1269280110429727</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60">
+        <v>0.3</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>0.85435524446852718</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>3.0485873515737421</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61">
+        <v>0.4</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>0.91301525239995263</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>4.0181499279178094</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>0.97407698418010669</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>5.0067153484891183</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63">
+        <v>0.6</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>1.0374879504858856</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>6.0024756851377301</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64">
+        <v>0.7</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>1.1031860488854579</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="3"/>
+        <v>7.0009114664537737</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65">
+        <v>0.8</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>1.1711006659477778</v>
+      </c>
+      <c r="K65">
+        <v>8</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>8.000335406372896</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66">
+        <v>0.9</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>1.2411538747320878</v>
+      </c>
+      <c r="K66">
+        <v>9</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="3"/>
+        <v>9.0001234021897236</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>1.3132616875182228</v>
+      </c>
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="3"/>
+        <v>10.000045398899218</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" s="1" customFormat="1">
+      <c r="B71" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="F74" t="s">
+        <v>446</v>
+      </c>
+      <c r="G74" t="s">
+        <v>447</v>
+      </c>
+      <c r="H74" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="F75">
+        <v>0.7</v>
+      </c>
+      <c r="G75">
+        <v>0.2</v>
+      </c>
+      <c r="H75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="145" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="F77" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="G77" s="103">
+        <v>0.2</v>
+      </c>
+      <c r="H77" s="103">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="145"/>
+      <c r="C78" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>445</v>
+      </c>
+      <c r="F78">
+        <f>1-F77</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:H78" si="4">1-G77</f>
+        <v>0.8</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" t="s">
+        <v>450</v>
+      </c>
+      <c r="F80" s="145">
+        <f>LOG(F77/F78)</f>
+        <v>0.36797678529459432</v>
+      </c>
+      <c r="G80" s="145">
+        <f t="shared" ref="G80:H80" si="5">LOG(G77/G78)</f>
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="H80" s="145">
+        <f t="shared" si="5"/>
+        <v>-0.95424250943932487</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="F81" s="145"/>
+      <c r="G81" s="145"/>
+      <c r="H81" s="145"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="E83" t="s">
+        <v>451</v>
+      </c>
+      <c r="F83">
+        <v>0.36797678529459432</v>
+      </c>
+      <c r="G83">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="H83">
+        <v>-0.95424250943932487</v>
+      </c>
+      <c r="J83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" t="s">
+        <v>452</v>
+      </c>
+      <c r="F86">
+        <f>1/(1+EXP(-F83))</f>
+        <v>0.59097000811815192</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:H86" si="6">1/(1+EXP(-G83))</f>
+        <v>0.35387254175900806</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>0.27803241996025485</v>
+      </c>
+      <c r="J86" t="s">
+        <v>453</v>
+      </c>
+      <c r="N86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" t="s">
+        <v>455</v>
+      </c>
+      <c r="E91" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="F92">
+        <f>EXP(F83)</f>
+        <v>1.4448084977809126</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92:H92" si="7">EXP(G83)</f>
+        <v>0.54768225254253322</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>0.38510374654904711</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="E94" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="F95">
+        <f>SUM(F92:H92)</f>
+        <v>2.3775944968724927</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
+      <c r="E97" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
+      <c r="F99">
+        <f>F92/$F$95</f>
+        <v>0.60767658222687915</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99:H99" si="8">G92/$F$95</f>
+        <v>0.23035141327209452</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="8"/>
+        <v>0.16197200450102645</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -61510,7 +61896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
@@ -61647,7 +62033,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="J21" s="1"/>
-      <c r="N21" s="116" t="s">
+      <c r="N21" s="145" t="s">
         <v>383</v>
       </c>
       <c r="O21" t="s">
@@ -61662,7 +62048,7 @@
         <v>376</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="N22" s="116"/>
+      <c r="N22" s="145"/>
       <c r="O22" t="s">
         <v>386</v>
       </c>
@@ -61757,7 +62143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -61913,7 +62299,7 @@
     <row r="22" spans="1:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="116" t="s">
+      <c r="O22" s="145" t="s">
         <v>383</v>
       </c>
       <c r="P22" t="s">
@@ -61929,7 +62315,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="116"/>
+      <c r="O23" s="145"/>
       <c r="P23" t="s">
         <v>386</v>
       </c>
@@ -62074,7 +62460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -62202,11 +62588,11 @@
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="124" t="s">
+      <c r="O18" s="153" t="s">
         <v>439</v>
       </c>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="125">
+      <c r="P18" s="153"/>
+      <c r="Q18" s="154">
         <v>0.2</v>
       </c>
     </row>
@@ -62214,9 +62600,9 @@
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="154"/>
     </row>
     <row r="20" spans="2:17" ht="18">
       <c r="H20" s="84" t="s">
@@ -62245,12 +62631,12 @@
     <row r="22" spans="2:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="116"/>
+      <c r="O22" s="145"/>
     </row>
     <row r="23" spans="2:17">
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="116"/>
+      <c r="O23" s="145"/>
     </row>
     <row r="24" spans="2:17">
       <c r="J24" s="1"/>
@@ -62384,7 +62770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -62539,12 +62925,12 @@
     <row r="22" spans="2:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="116"/>
+      <c r="O22" s="145"/>
     </row>
     <row r="23" spans="2:17">
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="116"/>
+      <c r="O23" s="145"/>
     </row>
     <row r="24" spans="2:17">
       <c r="J24" s="1"/>
@@ -62594,7 +62980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
@@ -62770,13 +63156,13 @@
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="Q23" s="116"/>
+      <c r="Q23" s="145"/>
     </row>
     <row r="24" spans="2:20">
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="Q24" s="116"/>
+      <c r="Q24" s="145"/>
     </row>
     <row r="25" spans="2:20">
       <c r="J25" s="1"/>
@@ -62924,11 +63310,11 @@
       <c r="I38" t="s">
         <v>523</v>
       </c>
-      <c r="J38" s="144"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="145"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="135"/>
       <c r="P38" t="s">
         <v>529</v>
       </c>
@@ -62938,31 +63324,31 @@
     </row>
     <row r="39" spans="1:18">
       <c r="B39" s="94"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="138"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="128"/>
       <c r="H39"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="147"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="137"/>
     </row>
     <row r="40" spans="1:18">
       <c r="B40" s="94"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="142"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="132"/>
       <c r="H40"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="140"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
@@ -62977,7 +63363,7 @@
       <c r="F41" s="111"/>
       <c r="G41" s="114"/>
       <c r="H41"/>
-      <c r="J41" s="143"/>
+      <c r="J41" s="133"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10" t="s">
         <v>521</v>
@@ -63007,7 +63393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
@@ -63030,35 +63416,35 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="30">
-      <c r="C4" s="126" t="s">
+    <row r="4" spans="2:12">
+      <c r="C4" s="116" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="117" t="s">
         <v>478</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="C5" s="126"/>
-      <c r="D5" s="128" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="118" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1">
       <c r="C8" s="1" t="s">
@@ -63066,28 +63452,28 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="116" t="s">
         <v>483</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="117" t="s">
         <v>484</v>
       </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="D11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
+      <c r="D11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="117" t="s">
         <v>485</v>
       </c>
     </row>
@@ -63097,7 +63483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -63124,11 +63510,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -63145,19 +63531,19 @@
       </c>
       <c r="C1" s="85"/>
       <c r="F1" s="85"/>
-      <c r="L1" s="148" t="s">
+      <c r="L1" s="138" t="s">
         <v>543</v>
       </c>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
     </row>
     <row r="2" spans="1:22">
       <c r="F2" s="84" t="s">
@@ -63349,11 +63735,11 @@
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
       <c r="H18" s="104"/>
       <c r="I18" s="113"/>
       <c r="J18" s="104"/>
@@ -63377,11 +63763,11 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="94"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
       <c r="H19" s="104"/>
       <c r="I19" s="113"/>
       <c r="J19" s="104"/>
@@ -63410,11 +63796,11 @@
       <c r="D20" s="104"/>
       <c r="E20" s="104"/>
       <c r="F20" s="113"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
       <c r="N20" s="104"/>
       <c r="O20" s="113"/>
       <c r="P20" s="104"/>
@@ -63438,11 +63824,11 @@
       <c r="D21" s="104"/>
       <c r="E21" s="104"/>
       <c r="F21" s="113"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="132"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="122"/>
       <c r="N21" s="104"/>
       <c r="O21" s="113"/>
       <c r="P21" s="104"/>
@@ -63471,11 +63857,11 @@
       <c r="J22" s="104"/>
       <c r="K22" s="104"/>
       <c r="L22" s="113"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="122"/>
       <c r="T22" s="104"/>
       <c r="U22" s="113"/>
       <c r="V22" s="104"/>
@@ -63499,11 +63885,11 @@
       <c r="J23" s="104"/>
       <c r="K23" s="104"/>
       <c r="L23" s="113"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="132"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="122"/>
       <c r="T23" s="104"/>
       <c r="U23" s="113"/>
       <c r="V23" s="104"/>
@@ -63532,11 +63918,11 @@
       <c r="P24" s="104"/>
       <c r="Q24" s="104"/>
       <c r="R24" s="113"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="132"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="122"/>
       <c r="Z24" s="104"/>
       <c r="AA24" s="113"/>
       <c r="AB24" s="104"/>
@@ -63545,31 +63931,31 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="94"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="130"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="130"/>
-      <c r="T25" s="133"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="134"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="130"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="120"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="124"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="120"/>
     </row>
     <row r="26" spans="1:30">
       <c r="B26" s="104"/>
@@ -63592,11 +63978,11 @@
       <c r="V26" s="104"/>
       <c r="W26" s="104"/>
       <c r="X26" s="113"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="132"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="121"/>
+      <c r="AD26" s="122"/>
     </row>
     <row r="27" spans="1:30">
       <c r="B27" s="104"/>
@@ -63619,11 +64005,11 @@
       <c r="V27" s="104"/>
       <c r="W27" s="104"/>
       <c r="X27" s="113"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="132"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="122"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="94"/>
@@ -63635,7 +64021,7 @@
         <f>208 * 0.8</f>
         <v>166.4</v>
       </c>
-      <c r="F29" s="135">
+      <c r="F29" s="125">
         <v>0.8</v>
       </c>
     </row>
@@ -63649,7 +64035,7 @@
         <f>208 * 0.2</f>
         <v>41.6</v>
       </c>
-      <c r="F30" s="135">
+      <c r="F30" s="125">
         <v>0.2</v>
       </c>
     </row>
@@ -63669,19 +64055,19 @@
         <v>504</v>
       </c>
       <c r="C33" s="94"/>
-      <c r="F33" s="135">
+      <c r="F33" s="125">
         <v>0.85</v>
       </c>
-      <c r="L33" s="136">
+      <c r="L33" s="126">
         <v>0.76</v>
       </c>
-      <c r="R33" s="136">
+      <c r="R33" s="126">
         <v>0.78</v>
       </c>
-      <c r="X33" s="136">
+      <c r="X33" s="126">
         <v>0.85</v>
       </c>
-      <c r="AD33" s="136">
+      <c r="AD33" s="126">
         <v>0.9</v>
       </c>
     </row>
@@ -63770,91 +64156,91 @@
     <row r="55" spans="1:6">
       <c r="A55" s="56"/>
     </row>
-    <row r="58" spans="1:6" s="150" customFormat="1">
-      <c r="A58" s="150" t="s">
+    <row r="58" spans="1:6" s="140" customFormat="1">
+      <c r="A58" s="140" t="s">
         <v>536</v>
       </c>
-      <c r="F58" s="151"/>
+      <c r="F58" s="141"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="149" t="s">
+      <c r="A61" s="139" t="s">
         <v>537</v>
       </c>
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="152"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="149"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="153" t="s">
+      <c r="A63" s="143" t="s">
         <v>538</v>
       </c>
-      <c r="B63" s="149"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="149"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="139"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="152"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
-      <c r="F64" s="149"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="153" t="s">
+      <c r="A65" s="143" t="s">
         <v>539</v>
       </c>
-      <c r="B65" s="149"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="149"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="152"/>
-      <c r="B66" s="149"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="149"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="139"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="153" t="s">
+      <c r="A67" s="143" t="s">
         <v>540</v>
       </c>
-      <c r="B67" s="149"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="139"/>
+      <c r="F67" s="139"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="152"/>
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
-      <c r="F68" s="149"/>
+      <c r="A68" s="142"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="139"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="153" t="s">
+      <c r="A69" s="143" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="149" t="s">
+      <c r="A71" s="139" t="s">
         <v>542</v>
       </c>
     </row>
@@ -63992,13 +64378,13 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="145" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="116">
+      <c r="H12" s="145">
         <v>8</v>
       </c>
     </row>
@@ -64007,11 +64393,11 @@
         <f>SUM(D5:D9)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="116"/>
+      <c r="F13" s="145"/>
       <c r="G13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="116"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
@@ -64333,7 +64719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI170"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y128" sqref="Y128"/>
     </sheetView>
   </sheetViews>
@@ -64347,14 +64733,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -64994,13 +65380,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -65388,13 +65774,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -67149,14 +67535,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -67566,11 +67952,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
+      <c r="A59" s="146"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -68433,40 +68819,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="121">
+      <c r="H23" s="150">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="120" t="s">
+      <c r="A24" s="147"/>
+      <c r="B24" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="121"/>
+      <c r="H24" s="150"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">

--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="21" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -22,33 +22,35 @@
     <sheet name="상관_회귀" sheetId="15" r:id="rId13"/>
     <sheet name="확률" sheetId="16" r:id="rId14"/>
     <sheet name="예측모델" sheetId="17" r:id="rId15"/>
-    <sheet name="다항회귀_다중회귀" sheetId="32" r:id="rId16"/>
+    <sheet name="분류모델" sheetId="33" r:id="rId16"/>
     <sheet name="미분공식" sheetId="18" r:id="rId17"/>
-    <sheet name="퍼셉트론" sheetId="19" r:id="rId18"/>
-    <sheet name="다층퍼셉트론" sheetId="20" r:id="rId19"/>
-    <sheet name="활성화함수" sheetId="21" r:id="rId20"/>
-    <sheet name="경사하강법" sheetId="22" r:id="rId21"/>
-    <sheet name="모델설계" sheetId="23" r:id="rId22"/>
-    <sheet name="모델설계2" sheetId="24" r:id="rId23"/>
-    <sheet name="모델설계3" sheetId="27" r:id="rId24"/>
-    <sheet name="모델설계4" sheetId="30" r:id="rId25"/>
-    <sheet name="모델설계5" sheetId="31" r:id="rId26"/>
-    <sheet name="모델최적화" sheetId="29" r:id="rId27"/>
-    <sheet name="희소행렬" sheetId="25" r:id="rId28"/>
-    <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId29"/>
+    <sheet name="다항회귀_다중회귀" sheetId="32" r:id="rId18"/>
+    <sheet name="퍼셉트론" sheetId="19" r:id="rId19"/>
+    <sheet name="다층퍼셉트론" sheetId="20" r:id="rId20"/>
+    <sheet name="활성화함수" sheetId="21" r:id="rId21"/>
+    <sheet name="경사하강법" sheetId="22" r:id="rId22"/>
+    <sheet name="모델설계" sheetId="23" r:id="rId23"/>
+    <sheet name="모델설계2" sheetId="24" r:id="rId24"/>
+    <sheet name="모델설계3" sheetId="27" r:id="rId25"/>
+    <sheet name="모델설계4" sheetId="30" r:id="rId26"/>
+    <sheet name="모델설계5" sheetId="31" r:id="rId27"/>
+    <sheet name="모델최적화" sheetId="29" r:id="rId28"/>
+    <sheet name="희소행렬" sheetId="25" r:id="rId29"/>
+    <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId30"/>
+    <sheet name="앙상블" sheetId="34" r:id="rId31"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId30"/>
-    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.1" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.0" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.1" hidden="1">[1]이상치가없는경우!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId32"/>
-    <pivotCache cacheId="1" r:id="rId33"/>
+    <pivotCache cacheId="0" r:id="rId34"/>
+    <pivotCache cacheId="1" r:id="rId35"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="639">
   <si>
     <t>항</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3068,12 +3070,383 @@
     <t>9개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>로지스틱회귀모델</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x값은 정규화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn.linear_model </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LogisticRegression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LogisticRegression()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>fit(train_bream_smelt, target_bream_smelt)</t>
+    </r>
+  </si>
+  <si>
+    <t>train_bream_smelt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_bream_smelt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y값을 찾고 부류는 두가지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이킷런에서는 편리하게 문자열로된 타겟값을 그대로 사용할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inverse of regularization strength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree 모델</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사결정나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케일링(정규화)의 영향을 덜 받음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지니 지수 구하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔트로피 지수 구하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가젤 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코뿔소 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타조 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑수가 2인 로그로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에 - 곱하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔트로피는 약 1.81 비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼룩말 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하마 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔트로피는 약 0.59 비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윷놀이 엔트로피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔트로피는 약 2.03 비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 엔트로피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔트로피는 약 2.58 비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 이득 information Gain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 : 6명(충성 고객 5명, 이탈 고객 1명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 : 4명(충성 고객 0명, 이탈 고객 4명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지니 지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별로 분류 전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별로 분류 후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지니 지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 고객이 10명(충성 고객 5명, 이탈 고객 5명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 고객이 10명(충성 고객 5명, 이탈 고객 5명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치 부여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류된 후의 전체 지니지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남녀로 분류하는 것은 이 데이터를 설명하는데 유의함(significant)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 정보이득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 전 지니지수 - 분류 후 지니지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from sklearn.model_selection import cross_validate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross_validate(estimator, X, y=None, *, groups=None, scoring=None, cv=None, n_jobs=None, verbose=0, fit_params=None, params=None, pre_dispatch='2*n_jobs', return_train_score=False, return_estimator=False, return_indices=False, error_score=nan)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Determines the cross-validation splitting strategy. Possible inputs for cv are:</t>
+  </si>
+  <si>
+    <t>cv : int, cross-validation generator or an iterable, default=None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>splitter = StratifiedKFold(n_splits=10, shuffle=True, random_state=42)</t>
+  </si>
+  <si>
+    <t>scores = cross_validate(dt, train_input, train_target, cv=splitter)</t>
+  </si>
+  <si>
+    <t>print(np.mean(scores['test_score']))</t>
+  </si>
+  <si>
+    <t>비례 층화 표본 추출 반영하고 k를 10으로 10개의 모델을 만들어 평균낸 것으로 최종 모델 평가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">None, to use the default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-fold cross validation,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gridsearch CV and Randomizedsearch CV를 통한 하이퍼파라미터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap aggregating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복원샘플표본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bagging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3326,8 +3699,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3421,6 +3807,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3625,7 +4017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3980,6 +4372,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4004,6 +4399,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4895,7 +5317,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11023,7 +11444,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.0</cx:f>
+        <cx:f>_xlchart.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11079,7 +11500,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.1</cx:f>
+        <cx:f>_xlchart.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -15262,7 +15683,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15701,7 +16121,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16513,7 +16932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -36821,16 +37239,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3897</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>200980</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -36847,8 +37265,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="842097"/>
-          <a:ext cx="6638925" cy="3968983"/>
+          <a:off x="685800" y="4400550"/>
+          <a:ext cx="7515225" cy="4838373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -36859,16 +37277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>125861</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>677026</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>382056</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -36885,8 +37303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7669661" y="790575"/>
-          <a:ext cx="5351765" cy="3971925"/>
+          <a:off x="714375" y="12839700"/>
+          <a:ext cx="7563906" cy="2057687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -36897,16 +37315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>62183</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>67644</xdr:rowOff>
+      <xdr:colOff>305841</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -36923,14 +37341,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="4881833"/>
-          <a:ext cx="7962900" cy="3986911"/>
+          <a:off x="742950" y="10306050"/>
+          <a:ext cx="7459116" cy="2324424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 연결선 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1714500" y="15925800"/>
+          <a:ext cx="676275" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2447925" y="15935325"/>
+          <a:ext cx="638175" cy="409576"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -37056,6 +37562,125 @@
 </file>
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="842097"/>
+          <a:ext cx="6638925" cy="3968983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125861</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>677026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7669661" y="790575"/>
+          <a:ext cx="5351765" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="4881833"/>
+          <a:ext cx="7962900" cy="3986911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37993,7 +38618,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -39561,7 +40186,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -39850,7 +40475,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -39931,7 +40556,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -41722,1509 +42347,6 @@
         <a:xfrm>
           <a:off x="4114800" y="9620250"/>
           <a:ext cx="7135221" cy="1686160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="타원 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="1914525"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="타원 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="2352675"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="타원 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="2905125"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="타원 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="5143500"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="타원 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="3695700"/>
-          <a:ext cx="85725" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>77561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="타원 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="4014107"/>
-          <a:ext cx="85725" cy="83004"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>155122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="타원 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="4384222"/>
-          <a:ext cx="85725" cy="83004"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>173648</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="타원 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105400" y="3269273"/>
-          <a:ext cx="85725" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>196780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>70233</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="타원 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105400" y="3587680"/>
-          <a:ext cx="85725" cy="83003"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147794</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>21249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="타원 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105400" y="3957794"/>
-          <a:ext cx="85725" cy="83005"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>216877</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>117964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>445477</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>137014</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="타원 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9280281" y="3334483"/>
-          <a:ext cx="228600" cy="231531"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12456</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="타원 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="4368312"/>
-          <a:ext cx="85725" cy="82794"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>16538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>99541</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="타원 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="4683788"/>
-          <a:ext cx="85725" cy="83003"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50557</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="타원 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="5056833"/>
-          <a:ext cx="85725" cy="80074"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>67822</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>162031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="그림 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8420100" y="1285875"/>
-          <a:ext cx="8221222" cy="762106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="그룹 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5419725" y="1419225"/>
-          <a:ext cx="533400" cy="457200"/>
-          <a:chOff x="5400675" y="1400175"/>
-          <a:chExt cx="533400" cy="457200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="타원 29"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5400675" y="1400175"/>
-            <a:ext cx="457200" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 30"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="1495425"/>
-            <a:ext cx="504825" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>bias1</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="그룹 35"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7305675" y="1590675"/>
-          <a:ext cx="695325" cy="590550"/>
-          <a:chOff x="5400675" y="1400175"/>
-          <a:chExt cx="552450" cy="457200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="타원 36"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5400675" y="1400175"/>
-            <a:ext cx="457200" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="TextBox 37"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="1495425"/>
-            <a:ext cx="523875" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>bias2</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="타원 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="1914525"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="타원 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="2352675"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="타원 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="2905125"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="타원 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="3695700"/>
-          <a:ext cx="85725" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>77561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="타원 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="4014107"/>
-          <a:ext cx="85725" cy="83004"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>172811</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="타원 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7990742" y="4578280"/>
-          <a:ext cx="85725" cy="85935"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>234462</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>463062</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>150935</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="타원 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7920404" y="4850423"/>
-          <a:ext cx="228600" cy="231531"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>128992</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="그림 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867900" y="5610226"/>
-          <a:ext cx="5543550" cy="3586566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -47735,6 +46857,1509 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>173648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3269273"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>196780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3587680"/>
+          <a:ext cx="85725" cy="83003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3957794"/>
+          <a:ext cx="85725" cy="83005"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216877</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>445477</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9280281" y="3334483"/>
+          <a:ext cx="228600" cy="231531"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="4368312"/>
+          <a:ext cx="85725" cy="82794"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="4683788"/>
+          <a:ext cx="85725" cy="83003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="5056833"/>
+          <a:ext cx="85725" cy="80074"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67822</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="1285875"/>
+          <a:ext cx="8221222" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="그룹 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1419225"/>
+          <a:ext cx="533400" cy="457200"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="533400" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="타원 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="TextBox 30"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="504825" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="그룹 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7305675" y="1590675"/>
+          <a:ext cx="695325" cy="590550"/>
+          <a:chOff x="5400675" y="1400175"/>
+          <a:chExt cx="552450" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="타원 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1400175"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="TextBox 37"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="1495425"/>
+            <a:ext cx="523875" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bias2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="타원 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="1914525"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="타원 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2352675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="타원 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2905125"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="타원 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3695700"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="타원 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4014107"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="타원 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7990742" y="4578280"/>
+          <a:ext cx="85725" cy="85935"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="타원 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7920404" y="4850423"/>
+          <a:ext cx="228600" cy="231531"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="5610226"/>
+          <a:ext cx="5543550" cy="3586566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="1914525"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2352675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2905125"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="5143500"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3695700"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4014107"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="4384222"/>
+          <a:ext cx="85725" cy="83004"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>264502</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -48575,7 +49200,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -49806,7 +50431,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -51210,7 +51835,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -51253,7 +51878,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -53602,6 +54227,75 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I11:N15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -53662,75 +54356,6 @@
     <dataField name="평균 : C" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : D" fld="4" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : E" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -55329,7 +55954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
@@ -55799,12 +56424,12 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B40" s="151"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
     </row>
     <row r="41" spans="2:12" ht="18.75" thickBot="1">
       <c r="B41" s="34" t="s">
@@ -56148,7 +56773,7 @@
       <c r="C77" s="59">
         <v>55</v>
       </c>
-      <c r="F77" s="145" t="s">
+      <c r="F77" s="146" t="s">
         <v>256</v>
       </c>
       <c r="G77" s="61" t="s">
@@ -56162,7 +56787,7 @@
       <c r="C78" s="59">
         <v>40</v>
       </c>
-      <c r="F78" s="145"/>
+      <c r="F78" s="146"/>
       <c r="G78" s="59" t="s">
         <v>255</v>
       </c>
@@ -56174,10 +56799,10 @@
       <c r="C79" s="59">
         <v>80</v>
       </c>
-      <c r="F79" s="145" t="s">
+      <c r="F79" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="I79" s="145" t="s">
+      <c r="I79" s="146" t="s">
         <v>257</v>
       </c>
     </row>
@@ -56188,8 +56813,8 @@
       <c r="C80" s="59">
         <v>93</v>
       </c>
-      <c r="F80" s="145"/>
-      <c r="I80" s="145"/>
+      <c r="F80" s="146"/>
+      <c r="I80" s="146"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="59">
@@ -57968,7 +58593,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -58433,23 +59058,23 @@
         <f>AVERAGE(B2:B16)</f>
         <v>16.466666666666665</v>
       </c>
-      <c r="I18" s="145" t="s">
+      <c r="I18" s="146" t="s">
         <v>220</v>
       </c>
       <c r="J18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="K18" s="145">
+      <c r="K18" s="146">
         <f>J18/J19</f>
         <v>46.897777777777783</v>
       </c>
-      <c r="M18" s="145" t="s">
+      <c r="M18" s="146" t="s">
         <v>222</v>
       </c>
       <c r="N18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="O18" s="145">
+      <c r="O18" s="146">
         <f>N18/N19</f>
         <v>50.247619047619047</v>
       </c>
@@ -58462,18 +59087,18 @@
         <f>AVERAGE(E2:E16)</f>
         <v>98.933333333333337</v>
       </c>
-      <c r="I19" s="145"/>
+      <c r="I19" s="146"/>
       <c r="J19" s="31">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-      <c r="K19" s="145"/>
-      <c r="M19" s="145"/>
+      <c r="K19" s="146"/>
+      <c r="M19" s="146"/>
       <c r="N19">
         <f>J19-1</f>
         <v>14</v>
       </c>
-      <c r="O19" s="145"/>
+      <c r="O19" s="146"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
@@ -58528,40 +59153,40 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="I26" s="145" t="s">
+      <c r="I26" s="146" t="s">
         <v>228</v>
       </c>
       <c r="J26">
         <v>46.897777777777783</v>
       </c>
-      <c r="K26" s="145">
+      <c r="K26" s="146">
         <f>J26/J27</f>
         <v>0.88792090224061171</v>
       </c>
-      <c r="M26" s="145" t="s">
+      <c r="M26" s="146" t="s">
         <v>229</v>
       </c>
       <c r="N26">
         <v>50.247619047619047</v>
       </c>
-      <c r="O26" s="145">
+      <c r="O26" s="146">
         <f>N26/N27</f>
         <v>0.88792090224061504</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="I27" s="145"/>
+      <c r="I27" s="146"/>
       <c r="J27">
         <f>B21*B24</f>
         <v>52.817517483183735</v>
       </c>
-      <c r="K27" s="145"/>
-      <c r="M27" s="145"/>
+      <c r="K27" s="146"/>
+      <c r="M27" s="146"/>
       <c r="N27">
         <f>B22*B25</f>
         <v>56.590197303410925</v>
       </c>
-      <c r="O27" s="145"/>
+      <c r="O27" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -58644,7 +59269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -59302,132 +59927,637 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H57"/>
+  <dimension ref="A2:U89"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="D1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" s="140" customFormat="1">
+    <row r="2" spans="1:13" s="140" customFormat="1">
       <c r="B2" s="140" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" s="140" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="140" customFormat="1">
-      <c r="B44" s="140" t="s">
-        <v>545</v>
-      </c>
-      <c r="D44" s="140" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="C45" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="E46" s="95" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="144" t="s">
-        <v>550</v>
-      </c>
-      <c r="C48" s="144" t="s">
-        <v>551</v>
-      </c>
-      <c r="D48" s="144" t="s">
-        <v>552</v>
-      </c>
-      <c r="E48" s="146" t="s">
-        <v>557</v>
-      </c>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="144" t="s">
-        <v>554</v>
-      </c>
-      <c r="C49" s="144" t="s">
-        <v>555</v>
-      </c>
-      <c r="D49" s="144" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="F50" t="s">
-        <v>559</v>
-      </c>
-      <c r="G50" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="F51" t="s">
-        <v>558</v>
-      </c>
-      <c r="G51" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="F52" t="s">
-        <v>561</v>
-      </c>
-      <c r="G52" t="s">
-        <v>560</v>
-      </c>
-      <c r="H52" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="H53" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="H54" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="F55" t="s">
-        <v>565</v>
-      </c>
-      <c r="G55" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="F57" t="s">
-        <v>566</v>
-      </c>
-      <c r="G57" t="s">
-        <v>567</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="D3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="F6" s="159"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="F7" s="159"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="F8" s="159"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="F9" s="159"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="F10" s="159"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="J11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="156" t="s">
+        <v>572</v>
+      </c>
+      <c r="I12" t="s">
+        <v>579</v>
+      </c>
+      <c r="J12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K12" t="s">
+        <v>581</v>
+      </c>
+      <c r="M12" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="63"/>
+      <c r="J13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="157" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="157" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" s="140" customFormat="1">
+      <c r="B18" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" s="140" t="s">
+        <v>586</v>
+      </c>
+      <c r="G18" s="140" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" t="s">
+        <v>588</v>
+      </c>
+      <c r="N20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="Q21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="O22" t="s">
+        <v>590</v>
+      </c>
+      <c r="P22">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q22">
+        <f>LOG(P22, 2)</f>
+        <v>-1.4150374992788437</v>
+      </c>
+      <c r="R22">
+        <f>P22*Q22</f>
+        <v>-0.53063906222956636</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="O23" t="s">
+        <v>591</v>
+      </c>
+      <c r="P23" s="139">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="Q23" s="139">
+        <f t="shared" ref="Q23:Q25" si="0">LOG(P23, 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="R23" s="139">
+        <f t="shared" ref="R23:R25" si="1">P23*Q23</f>
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="O24" t="s">
+        <v>592</v>
+      </c>
+      <c r="P24" s="139">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q24" s="139">
+        <f t="shared" si="0"/>
+        <v>-1.4150374992788437</v>
+      </c>
+      <c r="R24" s="139">
+        <f t="shared" si="1"/>
+        <v>-0.53063906222956636</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="O25" t="s">
+        <v>593</v>
+      </c>
+      <c r="P25" s="139">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="Q25" s="139">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="R25" s="139">
+        <f t="shared" si="1"/>
+        <v>-0.375</v>
+      </c>
+      <c r="S25" s="139"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="R26">
+        <f>SUM(R22:R25)</f>
+        <v>-1.8112781244591327</v>
+      </c>
+      <c r="S26" t="s">
+        <v>595</v>
+      </c>
+      <c r="U26">
+        <f>-(R26)</f>
+        <v>1.8112781244591327</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="P28" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="13:21">
+      <c r="M34">
+        <f>44/64</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="37" spans="13:21">
+      <c r="Q37" s="139" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="13:21">
+      <c r="O38" t="s">
+        <v>597</v>
+      </c>
+      <c r="P38">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q38">
+        <f>LOG(P38,2)</f>
+        <v>-0.22239242133644802</v>
+      </c>
+      <c r="R38">
+        <f>P38*Q38</f>
+        <v>-0.19062207543124116</v>
+      </c>
+    </row>
+    <row r="39" spans="13:21">
+      <c r="O39" s="139" t="s">
+        <v>598</v>
+      </c>
+      <c r="P39">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q39" s="139">
+        <f>LOG(P39,2)</f>
+        <v>-2.8073549220576046</v>
+      </c>
+      <c r="R39" s="139">
+        <f>P39*Q39</f>
+        <v>-0.40105070315108637</v>
+      </c>
+    </row>
+    <row r="40" spans="13:21">
+      <c r="R40">
+        <f>SUM(R38:R39)</f>
+        <v>-0.59167277858232747</v>
+      </c>
+      <c r="U40">
+        <f>-(R40)</f>
+        <v>0.59167277858232747</v>
+      </c>
+    </row>
+    <row r="41" spans="13:21">
+      <c r="P41" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="42" spans="13:21">
+      <c r="M42">
+        <f>12/49</f>
+        <v>0.24489795918367346</v>
+      </c>
+    </row>
+    <row r="43" spans="13:21">
+      <c r="O43" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="13:21">
+      <c r="O45" s="145" t="s">
+        <v>605</v>
+      </c>
+      <c r="P45">
+        <f>4/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q45">
+        <f>LOG(P45, 2)</f>
+        <v>-2</v>
+      </c>
+      <c r="R45">
+        <f>P45*Q45</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="13:21">
+      <c r="O46" s="145" t="s">
+        <v>601</v>
+      </c>
+      <c r="P46">
+        <f>6/16</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q46" s="139">
+        <f t="shared" ref="Q46:Q49" si="2">LOG(P46, 2)</f>
+        <v>-1.4150374992788437</v>
+      </c>
+      <c r="R46" s="139">
+        <f t="shared" ref="R46:R49" si="3">P46*Q46</f>
+        <v>-0.53063906222956636</v>
+      </c>
+    </row>
+    <row r="47" spans="13:21">
+      <c r="O47" s="145" t="s">
+        <v>602</v>
+      </c>
+      <c r="P47">
+        <f>4/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q47" s="139">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="R47" s="139">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="13:21">
+      <c r="O48" s="145" t="s">
+        <v>603</v>
+      </c>
+      <c r="P48">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q48" s="139">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="R48" s="139">
+        <f t="shared" si="3"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="15:21">
+      <c r="O49" s="145" t="s">
+        <v>604</v>
+      </c>
+      <c r="P49">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q49" s="139">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="R49" s="139">
+        <f t="shared" si="3"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="15:21">
+      <c r="R50">
+        <f>SUM(R45:R49)</f>
+        <v>-2.0306390622295662</v>
+      </c>
+      <c r="U50">
+        <f>-(R50)</f>
+        <v>2.0306390622295662</v>
+      </c>
+    </row>
+    <row r="51" spans="15:21">
+      <c r="P51" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="55" spans="15:21">
+      <c r="O55" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="15:21">
+      <c r="O57" s="145">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q57">
+        <f>LOG(P57, 2)</f>
+        <v>-2.5849625007211561</v>
+      </c>
+      <c r="R57">
+        <f>P57*Q57</f>
+        <v>-0.43082708345352599</v>
+      </c>
+    </row>
+    <row r="58" spans="15:21">
+      <c r="O58" s="145">
+        <v>2</v>
+      </c>
+      <c r="P58" s="139">
+        <f t="shared" ref="P58:P62" si="4">1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q58" s="139">
+        <f t="shared" ref="Q58:Q62" si="5">LOG(P58, 2)</f>
+        <v>-2.5849625007211561</v>
+      </c>
+      <c r="R58" s="139">
+        <f t="shared" ref="R58:R62" si="6">P58*Q58</f>
+        <v>-0.43082708345352599</v>
+      </c>
+    </row>
+    <row r="59" spans="15:21">
+      <c r="O59" s="145">
+        <v>3</v>
+      </c>
+      <c r="P59" s="139">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q59" s="139">
+        <f t="shared" si="5"/>
+        <v>-2.5849625007211561</v>
+      </c>
+      <c r="R59" s="139">
+        <f t="shared" si="6"/>
+        <v>-0.43082708345352599</v>
+      </c>
+    </row>
+    <row r="60" spans="15:21">
+      <c r="O60" s="145">
+        <v>4</v>
+      </c>
+      <c r="P60" s="139">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q60" s="139">
+        <f t="shared" si="5"/>
+        <v>-2.5849625007211561</v>
+      </c>
+      <c r="R60" s="139">
+        <f t="shared" si="6"/>
+        <v>-0.43082708345352599</v>
+      </c>
+    </row>
+    <row r="61" spans="15:21">
+      <c r="O61" s="145">
+        <v>5</v>
+      </c>
+      <c r="P61" s="139">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q61" s="139">
+        <f t="shared" si="5"/>
+        <v>-2.5849625007211561</v>
+      </c>
+      <c r="R61" s="139">
+        <f t="shared" si="6"/>
+        <v>-0.43082708345352599</v>
+      </c>
+    </row>
+    <row r="62" spans="15:21">
+      <c r="O62" s="145">
+        <v>6</v>
+      </c>
+      <c r="P62" s="139">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q62" s="139">
+        <f t="shared" si="5"/>
+        <v>-2.5849625007211561</v>
+      </c>
+      <c r="R62" s="139">
+        <f t="shared" si="6"/>
+        <v>-0.43082708345352599</v>
+      </c>
+    </row>
+    <row r="63" spans="15:21">
+      <c r="R63">
+        <f>SUM(R57:R62)</f>
+        <v>-2.5849625007211561</v>
+      </c>
+      <c r="U63">
+        <f>-(R63)</f>
+        <v>2.5849625007211561</v>
+      </c>
+    </row>
+    <row r="64" spans="15:21">
+      <c r="P64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="140" customFormat="1">
+      <c r="B74" s="140" t="s">
+        <v>609</v>
+      </c>
+      <c r="G74" s="140" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="D76" s="158"/>
+      <c r="E76" s="139" t="s">
+        <v>619</v>
+      </c>
+      <c r="K76" s="96" t="s">
+        <v>613</v>
+      </c>
+      <c r="L76" s="96" t="s">
+        <v>612</v>
+      </c>
+      <c r="M76" s="96"/>
+      <c r="N76" s="96">
+        <f>1-((5/10)^2 +(5/10)^2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="139" t="s">
+        <v>610</v>
+      </c>
+      <c r="C79" s="160"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="139" t="s">
+        <v>611</v>
+      </c>
+      <c r="K79" s="139" t="s">
+        <v>614</v>
+      </c>
+      <c r="L79" t="s">
+        <v>615</v>
+      </c>
+      <c r="N79" s="145" t="s">
+        <v>616</v>
+      </c>
+      <c r="P79" s="145" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="N80" s="98">
+        <f>1-((5/6)^2 + (1/6)^2)</f>
+        <v>0.27777777777777768</v>
+      </c>
+      <c r="O80" s="98"/>
+      <c r="P80" s="98">
+        <f>1-((0/4)^2 + (4/4)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="M81" t="s">
+        <v>620</v>
+      </c>
+      <c r="N81" s="98">
+        <f>N80*0.6</f>
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O81" s="98"/>
+      <c r="P81" s="98">
+        <f>P80*0.4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" t="s">
+        <v>618</v>
+      </c>
+      <c r="M83" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="N83" s="96"/>
+      <c r="O83" s="96"/>
+      <c r="P83" s="96">
+        <f>N81+P81</f>
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86" t="s">
+        <v>610</v>
+      </c>
+      <c r="K86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="139" t="s">
+        <v>611</v>
+      </c>
+      <c r="H87" s="139"/>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="K89" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="L89" s="96"/>
+      <c r="M89" s="96">
+        <f>N76-P83</f>
+        <v>0.33333333333333337</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E48:G48"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -59453,6 +60583,140 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="D1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" s="140" customFormat="1">
+      <c r="B2" s="140" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="140" customFormat="1">
+      <c r="B44" s="140" t="s">
+        <v>545</v>
+      </c>
+      <c r="D44" s="140" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="E46" s="95" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="144" t="s">
+        <v>550</v>
+      </c>
+      <c r="C48" s="144" t="s">
+        <v>551</v>
+      </c>
+      <c r="D48" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="E48" s="147" t="s">
+        <v>557</v>
+      </c>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="144" t="s">
+        <v>554</v>
+      </c>
+      <c r="C49" s="144" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" s="144" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="F50" t="s">
+        <v>559</v>
+      </c>
+      <c r="G50" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="F51" t="s">
+        <v>558</v>
+      </c>
+      <c r="G51" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="F52" t="s">
+        <v>561</v>
+      </c>
+      <c r="G52" t="s">
+        <v>560</v>
+      </c>
+      <c r="H52" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="H53" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="H54" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="F55" t="s">
+        <v>565</v>
+      </c>
+      <c r="G55" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="F57" t="s">
+        <v>566</v>
+      </c>
+      <c r="G57" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E48:G48"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
@@ -59882,516 +61146,6 @@
     <row r="39" spans="15:16">
       <c r="P39" s="71" t="s">
         <v>346</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="8" max="8" width="14.125" style="71" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="70" customWidth="1"/>
-    <col min="11" max="13" width="9" style="71"/>
-    <col min="16" max="16" width="17.125" style="71" customWidth="1"/>
-    <col min="17" max="17" width="9" style="71"/>
-    <col min="22" max="22" width="9" style="71"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22">
-      <c r="H1" s="87" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="P1"/>
-      <c r="R1" s="71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="G2" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="89">
-        <v>-2</v>
-      </c>
-      <c r="I2" s="88"/>
-      <c r="P2" s="71" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="T2" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="U2" s="92" t="s">
-        <v>326</v>
-      </c>
-      <c r="V2" s="45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="G3" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="H3" s="90">
-        <v>2</v>
-      </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="86" t="s">
-        <v>360</v>
-      </c>
-      <c r="K3" s="91">
-        <v>1</v>
-      </c>
-      <c r="P3" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="71">
-        <v>0</v>
-      </c>
-      <c r="R3" s="71">
-        <v>0</v>
-      </c>
-      <c r="S3" s="71">
-        <v>0</v>
-      </c>
-      <c r="T3" s="92">
-        <v>1</v>
-      </c>
-      <c r="U3" s="92">
-        <v>0</v>
-      </c>
-      <c r="V3" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="G4" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="H4" s="89">
-        <v>-2</v>
-      </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="86" t="s">
-        <v>361</v>
-      </c>
-      <c r="K4" s="91">
-        <v>1</v>
-      </c>
-      <c r="P4" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="71">
-        <v>0</v>
-      </c>
-      <c r="R4" s="71">
-        <v>1</v>
-      </c>
-      <c r="S4" s="71">
-        <v>0</v>
-      </c>
-      <c r="T4" s="92">
-        <v>1</v>
-      </c>
-      <c r="U4" s="92">
-        <v>1</v>
-      </c>
-      <c r="V4" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="G5" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="H5" s="90">
-        <v>2</v>
-      </c>
-      <c r="I5" s="88"/>
-      <c r="P5" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="71">
-        <v>1</v>
-      </c>
-      <c r="R5" s="71">
-        <v>1</v>
-      </c>
-      <c r="S5" s="71">
-        <v>0</v>
-      </c>
-      <c r="T5" s="92">
-        <v>1</v>
-      </c>
-      <c r="U5" s="92">
-        <v>1</v>
-      </c>
-      <c r="V5" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="P6" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="71">
-        <v>1</v>
-      </c>
-      <c r="R6" s="71">
-        <v>1</v>
-      </c>
-      <c r="S6" s="71">
-        <v>1</v>
-      </c>
-      <c r="T6" s="92">
-        <v>0</v>
-      </c>
-      <c r="U6" s="92">
-        <v>1</v>
-      </c>
-      <c r="V6" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="I7" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>359</v>
-      </c>
-      <c r="S7" s="71"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="I8" s="64">
-        <v>3</v>
-      </c>
-      <c r="K8" s="64">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="71"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="I9" s="64">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="B10" s="80"/>
-      <c r="C10" s="71" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" s="71"/>
-      <c r="M10"/>
-      <c r="Q10" t="s">
-        <v>354</v>
-      </c>
-      <c r="R10" s="71"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="85">
-        <v>0</v>
-      </c>
-      <c r="D11" s="85">
-        <v>0</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="71">
-        <v>0</v>
-      </c>
-      <c r="H11" s="70"/>
-      <c r="I11"/>
-      <c r="J11" s="71"/>
-      <c r="M11"/>
-      <c r="P11" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>353</v>
-      </c>
-      <c r="R11" s="71"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="71">
-        <v>1</v>
-      </c>
-      <c r="D12" s="71">
-        <v>0</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="G12" s="71">
-        <v>0</v>
-      </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="M12"/>
-      <c r="P12" s="71">
-        <f>$I$8+C11*$H$2+D11*$H$4</f>
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <f>1/(1+EXP(-(P12)))</f>
-        <v>0.95257412682243336</v>
-      </c>
-      <c r="R12" s="71">
-        <f>IF(Q12&gt;=0.5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="71">
-        <v>0</v>
-      </c>
-      <c r="D13" s="71">
-        <v>1</v>
-      </c>
-      <c r="H13" s="70"/>
-      <c r="I13"/>
-      <c r="J13" s="71"/>
-      <c r="M13"/>
-      <c r="P13" s="71">
-        <f t="shared" ref="P13:P15" si="0">$I$8+C12*$H$2+D12*$H$4</f>
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q13:Q15" si="1">1/(1+EXP(-(P13)))</f>
-        <v>0.7310585786300049</v>
-      </c>
-      <c r="R13" s="71">
-        <f t="shared" ref="R13:R15" si="2">IF(Q13&gt;=0.5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="71">
-        <v>1</v>
-      </c>
-      <c r="D14" s="71">
-        <v>1</v>
-      </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="71"/>
-      <c r="M14" t="s">
-        <v>348</v>
-      </c>
-      <c r="P14" s="71">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>0.7310585786300049</v>
-      </c>
-      <c r="R14" s="71">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="M15"/>
-      <c r="P15" s="71">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>0.2689414213699951</v>
-      </c>
-      <c r="R15" s="71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="V15" s="86" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="M16"/>
-      <c r="T16" s="70">
-        <f>$K$8+R12*$K$3+R19*$K$4</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:22">
-      <c r="H17" s="70"/>
-      <c r="I17"/>
-      <c r="J17" s="71"/>
-      <c r="M17"/>
-      <c r="T17" s="70">
-        <f t="shared" ref="T17:T19" si="3">$K$8+R13*$K$3+R20*$K$4</f>
-        <v>1</v>
-      </c>
-      <c r="V17" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="8:22">
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="M18" t="s">
-        <v>349</v>
-      </c>
-      <c r="P18" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>353</v>
-      </c>
-      <c r="T18" s="70">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V18" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="8:22">
-      <c r="H19" s="70"/>
-      <c r="I19"/>
-      <c r="J19" s="71"/>
-      <c r="M19"/>
-      <c r="P19" s="71">
-        <f>$K$8+C11*$H$3+D11*$H$5</f>
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="71">
-        <f>1/(1+EXP(-(P19)))</f>
-        <v>0.2689414213699951</v>
-      </c>
-      <c r="R19">
-        <f>IF(Q19&gt;=0.5,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:22">
-      <c r="H20" s="70"/>
-      <c r="I20"/>
-      <c r="J20" s="71"/>
-      <c r="M20"/>
-      <c r="P20" s="71">
-        <f>$K$8+C12*$H$3+D12*$H$5</f>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="71">
-        <f t="shared" ref="Q20:Q22" si="4">1/(1+EXP(-(P20)))</f>
-        <v>0.7310585786300049</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ref="R20:R22" si="5">IF(Q20&gt;=0.5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="8:22">
-      <c r="H21" s="70"/>
-      <c r="I21"/>
-      <c r="J21" s="71"/>
-      <c r="M21"/>
-      <c r="P21" s="71">
-        <f>$K$8+C13*$H$3+D13*$H$5</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="71">
-        <f t="shared" si="4"/>
-        <v>0.7310585786300049</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="8:22">
-      <c r="P22" s="71">
-        <f>$K$8+C14*$H$3+D14*$H$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q22" s="71">
-        <f t="shared" si="4"/>
-        <v>0.95257412682243336</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="8:22">
-      <c r="Q24" s="71" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -61061,10 +61815,520 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="8" max="8" width="14.125" style="71" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="70" customWidth="1"/>
+    <col min="11" max="13" width="9" style="71"/>
+    <col min="16" max="16" width="17.125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="9" style="71"/>
+    <col min="22" max="22" width="9" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="H1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="P1"/>
+      <c r="R1" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="G2" s="86" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="89">
+        <v>-2</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="P2" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="T2" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="U2" s="92" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="G3" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" s="90">
+        <v>2</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="91">
+        <v>1</v>
+      </c>
+      <c r="P3" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>0</v>
+      </c>
+      <c r="R3" s="71">
+        <v>0</v>
+      </c>
+      <c r="S3" s="71">
+        <v>0</v>
+      </c>
+      <c r="T3" s="92">
+        <v>1</v>
+      </c>
+      <c r="U3" s="92">
+        <v>0</v>
+      </c>
+      <c r="V3" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="G4" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="89">
+        <v>-2</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86" t="s">
+        <v>361</v>
+      </c>
+      <c r="K4" s="91">
+        <v>1</v>
+      </c>
+      <c r="P4" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>0</v>
+      </c>
+      <c r="R4" s="71">
+        <v>1</v>
+      </c>
+      <c r="S4" s="71">
+        <v>0</v>
+      </c>
+      <c r="T4" s="92">
+        <v>1</v>
+      </c>
+      <c r="U4" s="92">
+        <v>1</v>
+      </c>
+      <c r="V4" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="G5" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="90">
+        <v>2</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="P5" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>1</v>
+      </c>
+      <c r="R5" s="71">
+        <v>1</v>
+      </c>
+      <c r="S5" s="71">
+        <v>0</v>
+      </c>
+      <c r="T5" s="92">
+        <v>1</v>
+      </c>
+      <c r="U5" s="92">
+        <v>1</v>
+      </c>
+      <c r="V5" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="P6" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>1</v>
+      </c>
+      <c r="R6" s="71">
+        <v>1</v>
+      </c>
+      <c r="S6" s="71">
+        <v>1</v>
+      </c>
+      <c r="T6" s="92">
+        <v>0</v>
+      </c>
+      <c r="U6" s="92">
+        <v>1</v>
+      </c>
+      <c r="V6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="I7" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="S7" s="71"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="I8" s="64">
+        <v>3</v>
+      </c>
+      <c r="K8" s="64">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="71"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="I9" s="64">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="80"/>
+      <c r="C10" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="71"/>
+      <c r="M10"/>
+      <c r="Q10" t="s">
+        <v>354</v>
+      </c>
+      <c r="R10" s="71"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="85">
+        <v>0</v>
+      </c>
+      <c r="D11" s="85">
+        <v>0</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="71">
+        <v>0</v>
+      </c>
+      <c r="H11" s="70"/>
+      <c r="I11"/>
+      <c r="J11" s="71"/>
+      <c r="M11"/>
+      <c r="P11" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>353</v>
+      </c>
+      <c r="R11" s="71"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="71">
+        <v>1</v>
+      </c>
+      <c r="D12" s="71">
+        <v>0</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="71">
+        <v>0</v>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="M12"/>
+      <c r="P12" s="71">
+        <f>$I$8+C11*$H$2+D11*$H$4</f>
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <f>1/(1+EXP(-(P12)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="R12" s="71">
+        <f>IF(Q12&gt;=0.5,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="71">
+        <v>0</v>
+      </c>
+      <c r="D13" s="71">
+        <v>1</v>
+      </c>
+      <c r="H13" s="70"/>
+      <c r="I13"/>
+      <c r="J13" s="71"/>
+      <c r="M13"/>
+      <c r="P13" s="71">
+        <f t="shared" ref="P13:P15" si="0">$I$8+C12*$H$2+D12*$H$4</f>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q15" si="1">1/(1+EXP(-(P13)))</f>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="R13" s="71">
+        <f t="shared" ref="R13:R15" si="2">IF(Q13&gt;=0.5,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="71">
+        <v>1</v>
+      </c>
+      <c r="D14" s="71">
+        <v>1</v>
+      </c>
+      <c r="H14" s="70"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="71"/>
+      <c r="M14" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="R14" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="M15"/>
+      <c r="P15" s="71">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="R15" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="V15" s="86" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="M16"/>
+      <c r="T16" s="70">
+        <f>$K$8+R12*$K$3+R19*$K$4</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22">
+      <c r="H17" s="70"/>
+      <c r="I17"/>
+      <c r="J17" s="71"/>
+      <c r="M17"/>
+      <c r="T17" s="70">
+        <f t="shared" ref="T17:T19" si="3">$K$8+R13*$K$3+R20*$K$4</f>
+        <v>1</v>
+      </c>
+      <c r="V17" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22">
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="M18" t="s">
+        <v>349</v>
+      </c>
+      <c r="P18" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>353</v>
+      </c>
+      <c r="T18" s="70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22">
+      <c r="H19" s="70"/>
+      <c r="I19"/>
+      <c r="J19" s="71"/>
+      <c r="M19"/>
+      <c r="P19" s="71">
+        <f>$K$8+C11*$H$3+D11*$H$5</f>
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="71">
+        <f>1/(1+EXP(-(P19)))</f>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="R19">
+        <f>IF(Q19&gt;=0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:22">
+      <c r="H20" s="70"/>
+      <c r="I20"/>
+      <c r="J20" s="71"/>
+      <c r="M20"/>
+      <c r="P20" s="71">
+        <f>$K$8+C12*$H$3+D12*$H$5</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="71">
+        <f t="shared" ref="Q20:Q22" si="4">1/(1+EXP(-(P20)))</f>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20:R22" si="5">IF(Q20&gt;=0.5,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:22">
+      <c r="H21" s="70"/>
+      <c r="I21"/>
+      <c r="J21" s="71"/>
+      <c r="M21"/>
+      <c r="P21" s="71">
+        <f>$K$8+C13*$H$3+D13*$H$5</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="71">
+        <f t="shared" si="4"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22">
+      <c r="P22" s="71">
+        <f>$K$8+C14*$H$3+D14*$H$5</f>
+        <v>3</v>
+      </c>
+      <c r="Q22" s="71">
+        <f t="shared" si="4"/>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="8:22">
+      <c r="Q24" s="71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView showGridLines="0" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -61712,7 +62976,7 @@
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="145" t="s">
+      <c r="B77" s="146" t="s">
         <v>442</v>
       </c>
       <c r="C77" s="103" t="s">
@@ -61732,7 +62996,7 @@
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="145"/>
+      <c r="B78" s="146"/>
       <c r="C78" t="s">
         <v>443</v>
       </c>
@@ -61756,23 +63020,23 @@
       <c r="B80" t="s">
         <v>450</v>
       </c>
-      <c r="F80" s="145">
+      <c r="F80" s="146">
         <f>LOG(F77/F78)</f>
         <v>0.36797678529459432</v>
       </c>
-      <c r="G80" s="145">
+      <c r="G80" s="146">
         <f t="shared" ref="G80:H80" si="5">LOG(G77/G78)</f>
         <v>-0.6020599913279624</v>
       </c>
-      <c r="H80" s="145">
+      <c r="H80" s="146">
         <f t="shared" si="5"/>
         <v>-0.95424250943932487</v>
       </c>
     </row>
     <row r="81" spans="2:14">
-      <c r="F81" s="145"/>
-      <c r="G81" s="145"/>
-      <c r="H81" s="145"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="146"/>
+      <c r="H81" s="146"/>
     </row>
     <row r="83" spans="2:14">
       <c r="E83" t="s">
@@ -61879,7 +63143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -61896,7 +63160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
@@ -62033,7 +63297,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="J21" s="1"/>
-      <c r="N21" s="145" t="s">
+      <c r="N21" s="146" t="s">
         <v>383</v>
       </c>
       <c r="O21" t="s">
@@ -62048,7 +63312,7 @@
         <v>376</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="N22" s="145"/>
+      <c r="N22" s="146"/>
       <c r="O22" t="s">
         <v>386</v>
       </c>
@@ -62143,7 +63407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -62299,7 +63563,7 @@
     <row r="22" spans="1:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="145" t="s">
+      <c r="O22" s="146" t="s">
         <v>383</v>
       </c>
       <c r="P22" t="s">
@@ -62315,7 +63579,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="145"/>
+      <c r="O23" s="146"/>
       <c r="P23" t="s">
         <v>386</v>
       </c>
@@ -62460,7 +63724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -62588,11 +63852,11 @@
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="153" t="s">
+      <c r="O18" s="154" t="s">
         <v>439</v>
       </c>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="154">
+      <c r="P18" s="154"/>
+      <c r="Q18" s="155">
         <v>0.2</v>
       </c>
     </row>
@@ -62600,9 +63864,9 @@
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="155"/>
     </row>
     <row r="20" spans="2:17" ht="18">
       <c r="H20" s="84" t="s">
@@ -62631,12 +63895,12 @@
     <row r="22" spans="2:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="145"/>
+      <c r="O22" s="146"/>
     </row>
     <row r="23" spans="2:17">
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="145"/>
+      <c r="O23" s="146"/>
     </row>
     <row r="24" spans="2:17">
       <c r="J24" s="1"/>
@@ -62770,7 +64034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -62925,12 +64189,12 @@
     <row r="22" spans="2:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="145"/>
+      <c r="O22" s="146"/>
     </row>
     <row r="23" spans="2:17">
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="145"/>
+      <c r="O23" s="146"/>
     </row>
     <row r="24" spans="2:17">
       <c r="J24" s="1"/>
@@ -62980,7 +64244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
@@ -63156,13 +64420,13 @@
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="Q23" s="145"/>
+      <c r="Q23" s="146"/>
     </row>
     <row r="24" spans="2:20">
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="Q24" s="145"/>
+      <c r="Q24" s="146"/>
     </row>
     <row r="25" spans="2:20">
       <c r="J25" s="1"/>
@@ -63393,7 +64657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
@@ -63483,7 +64747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -63510,12 +64774,217 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD71"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18">
+      <c r="B4" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="26">
+        <v>166</v>
+      </c>
+      <c r="C5" s="26">
+        <f>B5-$B$12</f>
+        <v>-4</v>
+      </c>
+      <c r="D5" s="26">
+        <f>C5^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="26">
+        <v>168</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" ref="C6:C9" si="0">B6-$B$12</f>
+        <v>-2</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" ref="D6:D9" si="1">C6^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="26">
+        <v>170</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="26">
+        <v>172</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="26">
+        <v>174</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B5:B9)</f>
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="D13">
+        <f>SUM(D5:D9)</f>
+        <v>40</v>
+      </c>
+      <c r="F13" s="146"/>
+      <c r="G13" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="146"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16">
+        <f>_xlfn.VAR.P(B5:B9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17">
+        <f>_xlfn.VAR.S(B5:B9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19">
+        <f>SQRT(I16)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="K19">
+        <f>_xlfn.STDEV.P(B5:B9)</f>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20">
+        <f>SQRT(I17)</f>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="K20">
+        <f>_xlfn.STDEV.S(B5:B9)</f>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -64109,140 +65578,214 @@
       <c r="F39" s="94"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="94"/>
+      <c r="A40" s="164" t="s">
+        <v>625</v>
+      </c>
       <c r="C40" s="94"/>
       <c r="F40" s="94"/>
     </row>
-    <row r="46" spans="1:30" s="1" customFormat="1">
-      <c r="A46" s="85" t="s">
+    <row r="41" spans="1:30">
+      <c r="A41" s="56" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" s="139" customFormat="1">
+      <c r="A43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="F43" s="161" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="139" customFormat="1">
+      <c r="A44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="F44" s="162" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" s="139" customFormat="1">
+      <c r="A45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="F45" s="163"/>
+    </row>
+    <row r="46" spans="1:30" s="139" customFormat="1">
+      <c r="A46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="F46" s="165" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" s="139" customFormat="1">
+      <c r="A47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:30" s="139" customFormat="1">
+      <c r="A48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:7" s="139" customFormat="1">
+      <c r="A49" s="161" t="s">
+        <v>629</v>
+      </c>
+      <c r="C49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="139" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="139" customFormat="1">
+      <c r="A50" s="162" t="s">
+        <v>630</v>
+      </c>
+      <c r="C50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:7" s="139" customFormat="1">
+      <c r="A51" s="162" t="s">
+        <v>631</v>
+      </c>
+      <c r="C51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1">
+      <c r="A55" s="85" t="s">
         <v>494</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="F46" s="85"/>
-    </row>
-    <row r="48" spans="1:30">
-      <c r="A48" s="84" t="s">
+      <c r="C55" s="85"/>
+      <c r="F55" s="85"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="84" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="56" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" s="56" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="56" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="56" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="56" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" s="56" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="56" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="56" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="56" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="56" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="56"/>
-    </row>
-    <row r="58" spans="1:6" s="140" customFormat="1">
-      <c r="A58" s="140" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="56"/>
+    </row>
+    <row r="67" spans="1:6" s="140" customFormat="1">
+      <c r="A67" s="140" t="s">
         <v>536</v>
       </c>
-      <c r="F58" s="141"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="139" t="s">
+      <c r="F67" s="141"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="139" t="s">
         <v>537</v>
       </c>
-      <c r="B61" s="139"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="142"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="143" t="s">
+      <c r="B70" s="139"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="139"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="142"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="139"/>
+      <c r="D71" s="139"/>
+      <c r="E71" s="139"/>
+      <c r="F71" s="139"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="143" t="s">
         <v>538</v>
       </c>
-      <c r="B63" s="139"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="139"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="142"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="143" t="s">
+      <c r="B72" s="139"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="139"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="139"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="142"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="139"/>
+      <c r="D73" s="139"/>
+      <c r="E73" s="139"/>
+      <c r="F73" s="139"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="143" t="s">
         <v>539</v>
       </c>
-      <c r="B65" s="139"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="139"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="142"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="139"/>
-      <c r="E66" s="139"/>
-      <c r="F66" s="139"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="143" t="s">
+      <c r="B74" s="139"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="142"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="143" t="s">
         <v>540</v>
       </c>
-      <c r="B67" s="139"/>
-      <c r="C67" s="139"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="139"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="142"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="139"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="143" t="s">
+      <c r="B76" s="139"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="139"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="142"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="139"/>
+      <c r="F77" s="139"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="143" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="139" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="139" t="s">
         <v>542</v>
       </c>
+    </row>
+    <row r="82" spans="1:6" s="140" customFormat="1">
+      <c r="A82" s="166" t="s">
+        <v>634</v>
+      </c>
+      <c r="C82" s="141"/>
+      <c r="F82" s="141"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -64252,208 +65795,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M20"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="B2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18">
-      <c r="B4" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="26">
-        <v>166</v>
-      </c>
-      <c r="C5" s="26">
-        <f>B5-$B$12</f>
-        <v>-4</v>
-      </c>
-      <c r="D5" s="26">
-        <f>C5^2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="26">
-        <v>168</v>
-      </c>
-      <c r="C6" s="26">
-        <f t="shared" ref="C6:C9" si="0">B6-$B$12</f>
-        <v>-2</v>
-      </c>
-      <c r="D6" s="26">
-        <f t="shared" ref="D6:D9" si="1">C6^2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="26">
-        <v>170</v>
-      </c>
-      <c r="C7" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="26">
-        <v>172</v>
-      </c>
-      <c r="C8" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D8" s="26">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="26">
-        <v>174</v>
-      </c>
-      <c r="C9" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D9" s="26">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="I10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(B5:B9)</f>
-        <v>170</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="145">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="D13">
-        <f>SUM(D5:D9)</f>
-        <v>40</v>
-      </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="145"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16">
-        <f>_xlfn.VAR.P(B5:B9)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11">
-      <c r="H17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17">
-        <f>_xlfn.VAR.S(B5:B9)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19">
-        <f>SQRT(I16)</f>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="K19">
-        <f>_xlfn.STDEV.P(B5:B9)</f>
-        <v>2.8284271247461903</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20">
-        <f>SQRT(I17)</f>
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="K20">
-        <f>_xlfn.STDEV.S(B5:B9)</f>
-        <v>3.1622776601683795</v>
+    <row r="2" spans="2:4" s="140" customFormat="1">
+      <c r="B2" s="140" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="140" customFormat="1">
+      <c r="B8" s="140" t="s">
+        <v>638</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -64733,14 +66105,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -65380,13 +66752,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -65774,13 +67146,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="146" t="s">
+      <c r="A60" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="146"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -67521,7 +68893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
@@ -67535,14 +68907,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -67952,11 +69324,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="146"/>
-      <c r="B59" s="146"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="147"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -68819,40 +70191,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="150">
+      <c r="H23" s="151">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="147"/>
-      <c r="B24" s="149" t="s">
+      <c r="A24" s="148"/>
+      <c r="B24" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="150"/>
+      <c r="H24" s="151"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">

--- a/수학기초자료.xlsx
+++ b/수학기초자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="21" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="기초수학" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,11 @@
     <sheet name="희소행렬" sheetId="25" r:id="rId29"/>
     <sheet name="제대로된 모델 만드는 방법" sheetId="28" r:id="rId30"/>
     <sheet name="앙상블" sheetId="34" r:id="rId31"/>
+    <sheet name="도커" sheetId="35" r:id="rId32"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">[1]이상치가있는경우!$B$2:$B$31</definedName>
@@ -49,8 +50,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId34"/>
-    <pivotCache cacheId="1" r:id="rId35"/>
+    <pivotCache cacheId="0" r:id="rId35"/>
+    <pivotCache cacheId="1" r:id="rId36"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="674">
   <si>
     <t>항</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2557,38 +2558,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>훈련데이터     7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 데이터 셋  3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y(정답)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 데이터셋으로 모델을 테스트했을 때의 정확도가 좋아야 좋은 모델이 됨(일반화가 잘 됨).</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold-out 방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X_train</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X_test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>y_train</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2656,45 +2625,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>교차 검증 방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HDF5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDF5의 특징</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDF5를 이해하는 가장 중요한 개념은 그룹(Group), 데이터셋(Dataset), 속성(attribute)이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">디렉토리 구조와 비슷한데, 그룹=디렉토리, 데이터셋=파일로 이해하면 쉽다. 속성은 일종의 메타데이터로 그룹이나 데이터셋을 부연 설명하는 것을 의미한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HDF5 파일을 생성하면 먼저 /라는 루트 그룹이 생성되고 그 하위에 트리 구조로 다른 그룹을 생성할 수 있다. 그룹하위에 다른 그룹이 있을 수도 있고, 데이터셋이 존재할 수도 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">즉 완전히 운영체계의 디렉토리-파일 구조와 일치한다. 또 다른 특징은 속성인데 속성은 데이터셋이나 그룹을 설명하는데 사용하는데 이를 사용자가 정의하게 된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정리하면 HDF5는 Hierarchical Data Format이며 self-describing이 되는 고성능 데이터포맷 또는 DB 정도로 이해할 수 있다. 운영체계와 무관하게 사용할 수 있으며, 대용량 데이터를 빠르게 읽고 쓸 수 있다.</t>
-  </si>
-  <si>
-    <t>k = 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검증(테스트) 데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2874,31 +2805,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>텐서플로우 2.x에서는 .keras로 변경되었다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y값이 두가지 부류일 경우(예: 도미와 빙어)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>두 가지 부류(클래스)의 비율이 일정하지 않다면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>데이터셋을 구분할 경우(train_test_split)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델이 일부 심플을 올바르게 학습할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stratify 매개변수에 타겟 데이터(y)를 전달하면 클래스 비율에 맞게 데이터를 나눔, 특정 클래스의 샘플이 적을 때 유용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이킷런 vs 텐서플로우</t>
   </si>
   <si>
     <t>텐서플로우(TensorFlow)와 사이킷런(scikit-learn)은 서로 다른 목적과 용도로 설계된 라이브러리입니다. 딥러닝 모델을 구축할 때 텐서플로우를 사용하는 것이 일반적이지만, 사이킷런은 여전히 여러 상황에서 중요한 역할을 할 수 있습니다. 따라서 두 라이브러리를 적절히 비교하고 사용 목적에 따라 선택하는 것이 중요합니다.</t>
@@ -2965,10 +2877,6 @@
   </si>
   <si>
     <t>따라서 딥러닝 모델이 사이킷런 모델보다 성능이 좋다고 해서 항상 텐서플로우만 사용하는 것이 좋은 선택은 아닙니다. 프로젝트의 목적, 데이터의 크기와 복잡성, 모델 해석의 필요성 등을 고려하여 어떤 라이브러리를 사용할지 결정하는 것이 중요합니다.</t>
-  </si>
-  <si>
-    <t>비례 층화 표본추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다항 회귀</t>
@@ -3364,19 +3272,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>from sklearn.model_selection import cross_validate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cross_validate(estimator, X, y=None, *, groups=None, scoring=None, cv=None, n_jobs=None, verbose=0, fit_params=None, params=None, pre_dispatch='2*n_jobs', return_train_score=False, return_estimator=False, return_indices=False, error_score=nan)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Determines the cross-validation splitting strategy. Possible inputs for cv are:</t>
-  </si>
-  <si>
-    <t>cv : int, cross-validation generator or an iterable, default=None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>splitter = StratifiedKFold(n_splits=10, shuffle=True, random_state=42)</t>
@@ -3386,10 +3282,6 @@
   </si>
   <si>
     <t>print(np.mean(scores['test_score']))</t>
-  </si>
-  <si>
-    <t>비례 층화 표본 추출 반영하고 k를 10으로 10개의 모델을 만들어 평균낸 것으로 최종 모델 평가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3422,15 +3314,1143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Gridsearch CV and Randomizedsearch CV를 통한 하이퍼파라미터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Voting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bootstrap aggregating</t>
+    <t>설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker pull 이미지이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -it 이미지이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold-out 방법</t>
+  </si>
+  <si>
+    <t>비례 층화 표본추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y(정답)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y값이 두가지 부류일 경우(예, 도미와 빙어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델이 일부 샘플을 올바르게 학습할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 데이터 셋    7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stratify 매개변수에 타겟 데이터(y)를 전달하면 클래스 비율에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞게 데이터를 나눔, 특정 클래스의 샘플이 적을 때 유용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 데이터 셋 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 데이터셋으로 모델을 테스트했을 때의 정확도가 좋아야(일반화가 잘 됨) 좋은 모델이됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교차 검증 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 208개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증(테스트)데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn.model_selection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cross_validate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cross_validate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>estimator</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=None</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=None</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scoring</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=None</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cv</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=None</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_jobs</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=None</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit_params</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=None</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>params</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=None</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pre_dispatch</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='2*n_jobs'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return_train_score</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=False</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return_estimator</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=False</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return_indices</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=False</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>error_score</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=nan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int, cross-validation generator or an iterable, default=None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례 층화 표본 추출 반영하고 k를 10으로,  10개의 모델을 만들어 평균낸 것으로 최종 모델 평가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐서플로우 2.x에서는 .kears로 새로운 모젤 저장 포맷 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HDF5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14.3"/>
+        <color rgb="FF24292F"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14.3"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14.3"/>
+        <color rgb="FF24292F"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특징</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDF5를 이해하는 가장 중요한 개념은 그룹(Group), 데이터셋(Dataset), 속성(attribute)이다. 디렉토리 구조와 비슷한데, 그룹=디렉토리, 데이터셋=파일로 이해하면 쉽다. 속성은 일종의 메타데이터로 그룹이나 데이터셋을 부연 설명하는 것을 의미한다. HDF5 파일을 생성하면 먼저 /라는 루트 그룹이 생성되고 그 하위에 트리 구조로 다른 그룹을 생성할 수 있다. 그룹하위에 다른 그룹이 있을 수도 있고, 데이터셋이 존재할 수도 있다. 즉 완전히 운영체계의 디렉토리-파일 구조와 일치한다. 또 다른 특징은 속성인데 속성은 데이터셋이나 그룹을 설명하는데 사용하는데 이를 사용자가 정의하게 된다. 정리하면 HDF5는 Hierarchical Data Format이며 self-describing이 되는 고성능 데이터포맷 또는 DB 정도로 이해할 수 있다. 운영체계와 무관하게 사용할 수 있으며, 대용량 데이터를 빠르게 읽고 쓸 수 있다.</t>
+  </si>
+  <si>
+    <t>사이킷런 vs 텐서플로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridSearch CV and RandomSearch CV를 통한 하이퍼파라미터 튜닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. GridSearchCV</t>
+  </si>
+  <si>
+    <r>
+      <t>의미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GridSearchCV는 지정된 하이퍼파라미터의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든 가능한 조합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 탐색하는 방법입니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>각 하이퍼파라미터에 대해 사용자가 가능한 값들의 그리드를 정의하고, GridSearchCV는 이 그리드 내의 모든 조합을 시도해 모델의 성능을 측정합니다.</t>
+  </si>
+  <si>
+    <r>
+      <t>예시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>만약 두 가지 하이퍼파라미터가 각각 5가지와 4가지 값을 가질 수 있다면, GridSearch는 5 * 4 = 20개의 모델을 학습시켜 성능을 비교합니다.</t>
+  </si>
+  <si>
+    <r>
+      <t>장점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">모든 조합을 시도하므로, 전체 탐색 공간에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최적의 하이퍼파라미터를 찾을 수 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>단점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>시간과 계산 비용이 매우 높습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 하이퍼파라미터 값의 조합이 많을수록 탐색 시간이 기하급수적으로 증가합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. RandomizedSearchCV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RandomizedSearchCV는 지정된 하이퍼파라미터 범위 내에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임의의 조합을 일정한 횟수만큼 샘플링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하여 탐색하는 방법입니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>GridSearch와 달리, 모든 가능한 조합을 시도하지 않고, 하이퍼파라미터 공간에서 일부 조합을 무작위로 선택하여 평가합니다.</t>
+  </si>
+  <si>
+    <t>동일한 두 가지 하이퍼파라미터에 대해, RandomizedSearchCV는 사용자가 설정한 횟수(예: 10번)만큼의 조합을 랜덤으로 선택해 모델을 평가합니다.</t>
+  </si>
+  <si>
+    <r>
+      <t>시간과 계산 비용이 훨씬 적습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 무작위로 샘플링하므로 일부 조합만 평가하게 됩니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>큰 하이퍼파라미터 공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에서 효율적으로 탐색할 수 있습니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">모든 조합을 시도하지 않으므로, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전역 최적점을 놓칠 가능성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 있습니다. 하지만 적절히 샘플링을 많이 할수록 최적점을 찾을 확률은 증가합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>언제 어떤 방법을 사용할까?</t>
+  </si>
+  <si>
+    <r>
+      <t>1. GridSearchCV를 사용할 때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">하이퍼파라미터의 범위가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>작거나 제한적일 때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">계산 자원이 충분하고, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든 조합을 탐색할 수 있는 상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에서.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">모델의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하이퍼파라미터가 소수인 경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 예를 들어, 하나나 두 개 정도의 하이퍼파라미터가 있을 때.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. RandomizedSearchCV를 사용할 때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">하이퍼파라미터 공간이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>크거나 복잡할 때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">계산 자원이 제한적이고, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>빠르게 최적에 가까운 성능을 원할 때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">시간이나 계산 비용이 중요한 경우, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>탐색 공간의 일부를 효율적으로 샘플링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>할 필요가 있을 때.</t>
+    </r>
+  </si>
+  <si>
+    <t>요약</t>
+  </si>
+  <si>
+    <r>
+      <t>GridSearchCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 모든 하이퍼파라미터 조합을 시도해 최적의 하이퍼파라미터를 찾지만, 계산 비용이 높습니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RandomizedSearchCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 일부 하이퍼파라미터 조합만 시도해 시간을 절약하며, 큰 탐색 공간에서 효율적으로 작동하지만, 최적의 조합을 놓칠 가능성이 있습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>수학 백업 참조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bagging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggregating</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3438,7 +4458,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bagging</t>
+    <r>
+      <t xml:space="preserve">약 **37%**의 데이터는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OOB 샘플</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 사용되며, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>oob_score=True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 설정하면 이를 통해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모델 성능을 평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>할 수 있습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>Boosting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3446,7 +4534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3712,8 +4800,139 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFE46C0A"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF222832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF222832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.3"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.3"/>
+      <color rgb="FF24292F"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3800,12 +5019,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3813,6 +5026,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4017,7 +5242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4282,17 +5507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4317,16 +5532,8 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4356,7 +5563,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4373,6 +5579,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4400,32 +5624,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -54227,75 +55463,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I11:N15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -54356,6 +55523,75 @@
     <dataField name="평균 : C" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : D" fld="4" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="평균 : E" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="평균 : 국" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 영" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 수" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -56424,12 +57660,12 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B40" s="152"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
     </row>
     <row r="41" spans="2:12" ht="18.75" thickBot="1">
       <c r="B41" s="34" t="s">
@@ -56773,7 +58009,7 @@
       <c r="C77" s="59">
         <v>55</v>
       </c>
-      <c r="F77" s="146" t="s">
+      <c r="F77" s="145" t="s">
         <v>256</v>
       </c>
       <c r="G77" s="61" t="s">
@@ -56787,7 +58023,7 @@
       <c r="C78" s="59">
         <v>40</v>
       </c>
-      <c r="F78" s="146"/>
+      <c r="F78" s="145"/>
       <c r="G78" s="59" t="s">
         <v>255</v>
       </c>
@@ -56799,10 +58035,10 @@
       <c r="C79" s="59">
         <v>80</v>
       </c>
-      <c r="F79" s="146" t="s">
+      <c r="F79" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="I79" s="146" t="s">
+      <c r="I79" s="145" t="s">
         <v>257</v>
       </c>
     </row>
@@ -56813,8 +58049,8 @@
       <c r="C80" s="59">
         <v>93</v>
       </c>
-      <c r="F80" s="146"/>
-      <c r="I80" s="146"/>
+      <c r="F80" s="145"/>
+      <c r="I80" s="145"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="59">
@@ -56843,7 +58079,7 @@
         <f t="shared" ref="F82:F85" si="1">(B78-$G$75) / $G$76</f>
         <v>-0.63245553203367588</v>
       </c>
-      <c r="G82" s="139">
+      <c r="G82" s="130">
         <f t="shared" ref="G82:G85" si="2">F82^2</f>
         <v>0.4</v>
       </c>
@@ -56857,7 +58093,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="139">
+      <c r="G83" s="130">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -56871,7 +58107,7 @@
         <f t="shared" si="1"/>
         <v>0.63245553203367588</v>
       </c>
-      <c r="G84" s="139">
+      <c r="G84" s="130">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
@@ -56885,7 +58121,7 @@
         <f t="shared" si="1"/>
         <v>1.2649110640673518</v>
       </c>
-      <c r="G85" s="139">
+      <c r="G85" s="130">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
@@ -59058,23 +60294,23 @@
         <f>AVERAGE(B2:B16)</f>
         <v>16.466666666666665</v>
       </c>
-      <c r="I18" s="146" t="s">
+      <c r="I18" s="145" t="s">
         <v>220</v>
       </c>
       <c r="J18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="K18" s="146">
+      <c r="K18" s="145">
         <f>J18/J19</f>
         <v>46.897777777777783</v>
       </c>
-      <c r="M18" s="146" t="s">
+      <c r="M18" s="145" t="s">
         <v>222</v>
       </c>
       <c r="N18" s="31">
         <v>703.4666666666667</v>
       </c>
-      <c r="O18" s="146">
+      <c r="O18" s="145">
         <f>N18/N19</f>
         <v>50.247619047619047</v>
       </c>
@@ -59087,18 +60323,18 @@
         <f>AVERAGE(E2:E16)</f>
         <v>98.933333333333337</v>
       </c>
-      <c r="I19" s="146"/>
+      <c r="I19" s="145"/>
       <c r="J19" s="31">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-      <c r="K19" s="146"/>
-      <c r="M19" s="146"/>
+      <c r="K19" s="145"/>
+      <c r="M19" s="145"/>
       <c r="N19">
         <f>J19-1</f>
         <v>14</v>
       </c>
-      <c r="O19" s="146"/>
+      <c r="O19" s="145"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
@@ -59153,40 +60389,40 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="I26" s="146" t="s">
+      <c r="I26" s="145" t="s">
         <v>228</v>
       </c>
       <c r="J26">
         <v>46.897777777777783</v>
       </c>
-      <c r="K26" s="146">
+      <c r="K26" s="145">
         <f>J26/J27</f>
         <v>0.88792090224061171</v>
       </c>
-      <c r="M26" s="146" t="s">
+      <c r="M26" s="145" t="s">
         <v>229</v>
       </c>
       <c r="N26">
         <v>50.247619047619047</v>
       </c>
-      <c r="O26" s="146">
+      <c r="O26" s="145">
         <f>N26/N27</f>
         <v>0.88792090224061504</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="I27" s="146"/>
+      <c r="I27" s="145"/>
       <c r="J27">
         <f>B21*B24</f>
         <v>52.817517483183735</v>
       </c>
-      <c r="K27" s="146"/>
-      <c r="M27" s="146"/>
+      <c r="K27" s="145"/>
+      <c r="M27" s="145"/>
       <c r="N27">
         <f>B22*B25</f>
         <v>56.590197303410925</v>
       </c>
-      <c r="O27" s="146"/>
+      <c r="O27" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -59269,8 +60505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -59929,7 +61165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U89"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
@@ -59941,33 +61177,33 @@
     <col min="17" max="17" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="140" customFormat="1">
-      <c r="B2" s="140" t="s">
-        <v>569</v>
+    <row r="2" spans="1:13" s="131" customFormat="1">
+      <c r="B2" s="131" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="D3" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="D4" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
-        <v>575</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>576</v>
+        <v>551</v>
+      </c>
+      <c r="F5" s="130" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -59975,101 +61211,101 @@
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
       <c r="D6" s="105"/>
-      <c r="F6" s="159"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="105"/>
       <c r="B7" s="105"/>
       <c r="C7" s="105"/>
       <c r="D7" s="105"/>
-      <c r="F7" s="159"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="105"/>
       <c r="B8" s="105"/>
       <c r="C8" s="105"/>
       <c r="D8" s="105"/>
-      <c r="F8" s="159"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="105"/>
       <c r="B9" s="105"/>
       <c r="C9" s="105"/>
       <c r="D9" s="105"/>
-      <c r="F9" s="159"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="105"/>
       <c r="B10" s="105"/>
       <c r="C10" s="105"/>
       <c r="D10" s="105"/>
-      <c r="F10" s="159"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:13">
       <c r="J11" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="156" t="s">
-        <v>572</v>
+      <c r="A12" s="138" t="s">
+        <v>548</v>
       </c>
       <c r="I12" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="J12" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="K12" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="M12" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="63"/>
       <c r="J13" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="157" t="s">
-        <v>573</v>
+      <c r="A14" s="139" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="157" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" s="140" customFormat="1">
-      <c r="B18" s="140" t="s">
-        <v>585</v>
-      </c>
-      <c r="D18" s="140" t="s">
-        <v>586</v>
-      </c>
-      <c r="G18" s="140" t="s">
-        <v>587</v>
+      <c r="A15" s="139" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" s="131" customFormat="1">
+      <c r="B18" s="131" t="s">
+        <v>561</v>
+      </c>
+      <c r="D18" s="131" t="s">
+        <v>562</v>
+      </c>
+      <c r="G18" s="131" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="N20" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="2:21">
       <c r="Q21" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="2:21">
       <c r="O22" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="P22">
         <f>3/8</f>
@@ -60086,55 +61322,55 @@
     </row>
     <row r="23" spans="2:21">
       <c r="O23" t="s">
-        <v>591</v>
-      </c>
-      <c r="P23" s="139">
+        <v>567</v>
+      </c>
+      <c r="P23" s="130">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="Q23" s="139">
+      <c r="Q23" s="130">
         <f t="shared" ref="Q23:Q25" si="0">LOG(P23, 2)</f>
         <v>-3</v>
       </c>
-      <c r="R23" s="139">
+      <c r="R23" s="130">
         <f t="shared" ref="R23:R25" si="1">P23*Q23</f>
         <v>-0.375</v>
       </c>
     </row>
     <row r="24" spans="2:21">
       <c r="O24" t="s">
-        <v>592</v>
-      </c>
-      <c r="P24" s="139">
+        <v>568</v>
+      </c>
+      <c r="P24" s="130">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="Q24" s="139">
+      <c r="Q24" s="130">
         <f t="shared" si="0"/>
         <v>-1.4150374992788437</v>
       </c>
-      <c r="R24" s="139">
+      <c r="R24" s="130">
         <f t="shared" si="1"/>
         <v>-0.53063906222956636</v>
       </c>
     </row>
     <row r="25" spans="2:21">
       <c r="O25" t="s">
-        <v>593</v>
-      </c>
-      <c r="P25" s="139">
+        <v>569</v>
+      </c>
+      <c r="P25" s="130">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="Q25" s="139">
+      <c r="Q25" s="130">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="R25" s="139">
+      <c r="R25" s="130">
         <f t="shared" si="1"/>
         <v>-0.375</v>
       </c>
-      <c r="S25" s="139"/>
+      <c r="S25" s="130"/>
     </row>
     <row r="26" spans="2:21">
       <c r="R26">
@@ -60142,7 +61378,7 @@
         <v>-1.8112781244591327</v>
       </c>
       <c r="S26" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="U26">
         <f>-(R26)</f>
@@ -60151,7 +61387,7 @@
     </row>
     <row r="28" spans="2:21">
       <c r="P28" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="13:21">
@@ -60161,13 +61397,13 @@
       </c>
     </row>
     <row r="37" spans="13:21">
-      <c r="Q37" s="139" t="s">
-        <v>594</v>
+      <c r="Q37" s="130" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="13:21">
       <c r="O38" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="P38">
         <f>6/7</f>
@@ -60183,18 +61419,18 @@
       </c>
     </row>
     <row r="39" spans="13:21">
-      <c r="O39" s="139" t="s">
-        <v>598</v>
+      <c r="O39" s="130" t="s">
+        <v>574</v>
       </c>
       <c r="P39">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Q39" s="139">
+      <c r="Q39" s="130">
         <f>LOG(P39,2)</f>
         <v>-2.8073549220576046</v>
       </c>
-      <c r="R39" s="139">
+      <c r="R39" s="130">
         <f>P39*Q39</f>
         <v>-0.40105070315108637</v>
       </c>
@@ -60211,7 +61447,7 @@
     </row>
     <row r="41" spans="13:21">
       <c r="P41" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="13:21">
@@ -60222,12 +61458,12 @@
     </row>
     <row r="43" spans="13:21">
       <c r="O43" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="13:21">
-      <c r="O45" s="145" t="s">
-        <v>605</v>
+      <c r="O45" s="136" t="s">
+        <v>581</v>
       </c>
       <c r="P45">
         <f>4/16</f>
@@ -60243,69 +61479,69 @@
       </c>
     </row>
     <row r="46" spans="13:21">
-      <c r="O46" s="145" t="s">
-        <v>601</v>
+      <c r="O46" s="136" t="s">
+        <v>577</v>
       </c>
       <c r="P46">
         <f>6/16</f>
         <v>0.375</v>
       </c>
-      <c r="Q46" s="139">
+      <c r="Q46" s="130">
         <f t="shared" ref="Q46:Q49" si="2">LOG(P46, 2)</f>
         <v>-1.4150374992788437</v>
       </c>
-      <c r="R46" s="139">
+      <c r="R46" s="130">
         <f t="shared" ref="R46:R49" si="3">P46*Q46</f>
         <v>-0.53063906222956636</v>
       </c>
     </row>
     <row r="47" spans="13:21">
-      <c r="O47" s="145" t="s">
-        <v>602</v>
+      <c r="O47" s="136" t="s">
+        <v>578</v>
       </c>
       <c r="P47">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="Q47" s="139">
+      <c r="Q47" s="130">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R47" s="139">
+      <c r="R47" s="130">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="13:21">
-      <c r="O48" s="145" t="s">
-        <v>603</v>
+      <c r="O48" s="136" t="s">
+        <v>579</v>
       </c>
       <c r="P48">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="Q48" s="139">
+      <c r="Q48" s="130">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="R48" s="139">
+      <c r="R48" s="130">
         <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
     </row>
     <row r="49" spans="15:21">
-      <c r="O49" s="145" t="s">
-        <v>604</v>
+      <c r="O49" s="136" t="s">
+        <v>580</v>
       </c>
       <c r="P49">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="Q49" s="139">
+      <c r="Q49" s="130">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="R49" s="139">
+      <c r="R49" s="130">
         <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
@@ -60322,16 +61558,16 @@
     </row>
     <row r="51" spans="15:21">
       <c r="P51" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="15:21">
       <c r="O55" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="15:21">
-      <c r="O57" s="145">
+      <c r="O57" s="136">
         <v>1</v>
       </c>
       <c r="P57">
@@ -60348,86 +61584,86 @@
       </c>
     </row>
     <row r="58" spans="15:21">
-      <c r="O58" s="145">
+      <c r="O58" s="136">
         <v>2</v>
       </c>
-      <c r="P58" s="139">
+      <c r="P58" s="130">
         <f t="shared" ref="P58:P62" si="4">1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q58" s="139">
+      <c r="Q58" s="130">
         <f t="shared" ref="Q58:Q62" si="5">LOG(P58, 2)</f>
         <v>-2.5849625007211561</v>
       </c>
-      <c r="R58" s="139">
+      <c r="R58" s="130">
         <f t="shared" ref="R58:R62" si="6">P58*Q58</f>
         <v>-0.43082708345352599</v>
       </c>
     </row>
     <row r="59" spans="15:21">
-      <c r="O59" s="145">
+      <c r="O59" s="136">
         <v>3</v>
       </c>
-      <c r="P59" s="139">
+      <c r="P59" s="130">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q59" s="139">
+      <c r="Q59" s="130">
         <f t="shared" si="5"/>
         <v>-2.5849625007211561</v>
       </c>
-      <c r="R59" s="139">
+      <c r="R59" s="130">
         <f t="shared" si="6"/>
         <v>-0.43082708345352599</v>
       </c>
     </row>
     <row r="60" spans="15:21">
-      <c r="O60" s="145">
+      <c r="O60" s="136">
         <v>4</v>
       </c>
-      <c r="P60" s="139">
+      <c r="P60" s="130">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q60" s="139">
+      <c r="Q60" s="130">
         <f t="shared" si="5"/>
         <v>-2.5849625007211561</v>
       </c>
-      <c r="R60" s="139">
+      <c r="R60" s="130">
         <f t="shared" si="6"/>
         <v>-0.43082708345352599</v>
       </c>
     </row>
     <row r="61" spans="15:21">
-      <c r="O61" s="145">
+      <c r="O61" s="136">
         <v>5</v>
       </c>
-      <c r="P61" s="139">
+      <c r="P61" s="130">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q61" s="139">
+      <c r="Q61" s="130">
         <f t="shared" si="5"/>
         <v>-2.5849625007211561</v>
       </c>
-      <c r="R61" s="139">
+      <c r="R61" s="130">
         <f t="shared" si="6"/>
         <v>-0.43082708345352599</v>
       </c>
     </row>
     <row r="62" spans="15:21">
-      <c r="O62" s="145">
+      <c r="O62" s="136">
         <v>6</v>
       </c>
-      <c r="P62" s="139">
+      <c r="P62" s="130">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q62" s="139">
+      <c r="Q62" s="130">
         <f t="shared" si="5"/>
         <v>-2.5849625007211561</v>
       </c>
-      <c r="R62" s="139">
+      <c r="R62" s="130">
         <f t="shared" si="6"/>
         <v>-0.43082708345352599</v>
       </c>
@@ -60444,27 +61680,27 @@
     </row>
     <row r="64" spans="15:21">
       <c r="P64" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="140" customFormat="1">
-      <c r="B74" s="140" t="s">
-        <v>609</v>
-      </c>
-      <c r="G74" s="140" t="s">
-        <v>624</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="131" customFormat="1">
+      <c r="B74" s="131" t="s">
+        <v>585</v>
+      </c>
+      <c r="G74" s="131" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="D76" s="158"/>
-      <c r="E76" s="139" t="s">
-        <v>619</v>
+      <c r="D76" s="140"/>
+      <c r="E76" s="130" t="s">
+        <v>595</v>
       </c>
       <c r="K76" s="96" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="L76" s="96" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="M76" s="96"/>
       <c r="N76" s="96">
@@ -60473,25 +61709,25 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="139" t="s">
-        <v>610</v>
-      </c>
-      <c r="C79" s="160"/>
-      <c r="E79" s="158"/>
-      <c r="F79" s="139" t="s">
-        <v>611</v>
-      </c>
-      <c r="K79" s="139" t="s">
-        <v>614</v>
+      <c r="A79" s="130" t="s">
+        <v>586</v>
+      </c>
+      <c r="C79" s="142"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="130" t="s">
+        <v>587</v>
+      </c>
+      <c r="K79" s="130" t="s">
+        <v>590</v>
       </c>
       <c r="L79" t="s">
-        <v>615</v>
-      </c>
-      <c r="N79" s="145" t="s">
-        <v>616</v>
-      </c>
-      <c r="P79" s="145" t="s">
-        <v>617</v>
+        <v>591</v>
+      </c>
+      <c r="N79" s="136" t="s">
+        <v>592</v>
+      </c>
+      <c r="P79" s="136" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -60507,7 +61743,7 @@
     </row>
     <row r="81" spans="2:16">
       <c r="M81" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="N81" s="98">
         <f>N80*0.6</f>
@@ -60521,10 +61757,10 @@
     </row>
     <row r="83" spans="2:16">
       <c r="B83" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="M83" s="96" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="N83" s="96"/>
       <c r="O83" s="96"/>
@@ -60535,21 +61771,21 @@
     </row>
     <row r="86" spans="2:16">
       <c r="B86" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="K86" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="2:16">
-      <c r="B87" s="139" t="s">
-        <v>611</v>
-      </c>
-      <c r="H87" s="139"/>
+      <c r="B87" s="130" t="s">
+        <v>587</v>
+      </c>
+      <c r="H87" s="130"/>
     </row>
     <row r="89" spans="2:16">
       <c r="K89" s="96" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="L89" s="96"/>
       <c r="M89" s="96">
@@ -60596,113 +61832,113 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="D1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" s="140" customFormat="1">
-      <c r="B2" s="140" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" s="140" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="140" customFormat="1">
-      <c r="B44" s="140" t="s">
-        <v>545</v>
-      </c>
-      <c r="D44" s="140" t="s">
-        <v>548</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" s="131" customFormat="1">
+      <c r="B2" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="131" customFormat="1">
+      <c r="B44" s="131" t="s">
+        <v>521</v>
+      </c>
+      <c r="D44" s="131" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="C45" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="E46" s="95" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="144" t="s">
-        <v>550</v>
-      </c>
-      <c r="C48" s="144" t="s">
-        <v>551</v>
-      </c>
-      <c r="D48" s="144" t="s">
-        <v>552</v>
-      </c>
-      <c r="E48" s="147" t="s">
-        <v>557</v>
-      </c>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
+      <c r="B48" s="135" t="s">
+        <v>526</v>
+      </c>
+      <c r="C48" s="135" t="s">
+        <v>527</v>
+      </c>
+      <c r="D48" s="135" t="s">
+        <v>528</v>
+      </c>
+      <c r="E48" s="146" t="s">
+        <v>533</v>
+      </c>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="144" t="s">
-        <v>554</v>
-      </c>
-      <c r="C49" s="144" t="s">
-        <v>555</v>
-      </c>
-      <c r="D49" s="144" t="s">
-        <v>556</v>
+      <c r="B49" s="135" t="s">
+        <v>530</v>
+      </c>
+      <c r="C49" s="135" t="s">
+        <v>531</v>
+      </c>
+      <c r="D49" s="135" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="F50" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="G50" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="F51" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="G51" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="F52" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="G52" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="H52" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="H53" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="H54" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="F55" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="G55" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="F57" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -62976,7 +64212,7 @@
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="146" t="s">
+      <c r="B77" s="145" t="s">
         <v>442</v>
       </c>
       <c r="C77" s="103" t="s">
@@ -62996,7 +64232,7 @@
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="146"/>
+      <c r="B78" s="145"/>
       <c r="C78" t="s">
         <v>443</v>
       </c>
@@ -63020,23 +64256,23 @@
       <c r="B80" t="s">
         <v>450</v>
       </c>
-      <c r="F80" s="146">
+      <c r="F80" s="145">
         <f>LOG(F77/F78)</f>
         <v>0.36797678529459432</v>
       </c>
-      <c r="G80" s="146">
+      <c r="G80" s="145">
         <f t="shared" ref="G80:H80" si="5">LOG(G77/G78)</f>
         <v>-0.6020599913279624</v>
       </c>
-      <c r="H80" s="146">
+      <c r="H80" s="145">
         <f t="shared" si="5"/>
         <v>-0.95424250943932487</v>
       </c>
     </row>
     <row r="81" spans="2:14">
-      <c r="F81" s="146"/>
-      <c r="G81" s="146"/>
-      <c r="H81" s="146"/>
+      <c r="F81" s="145"/>
+      <c r="G81" s="145"/>
+      <c r="H81" s="145"/>
     </row>
     <row r="83" spans="2:14">
       <c r="E83" t="s">
@@ -63297,7 +64533,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="J21" s="1"/>
-      <c r="N21" s="146" t="s">
+      <c r="N21" s="145" t="s">
         <v>383</v>
       </c>
       <c r="O21" t="s">
@@ -63312,7 +64548,7 @@
         <v>376</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="N22" s="146"/>
+      <c r="N22" s="145"/>
       <c r="O22" t="s">
         <v>386</v>
       </c>
@@ -63563,7 +64799,7 @@
     <row r="22" spans="1:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="146" t="s">
+      <c r="O22" s="145" t="s">
         <v>383</v>
       </c>
       <c r="P22" t="s">
@@ -63579,7 +64815,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="146"/>
+      <c r="O23" s="145"/>
       <c r="P23" t="s">
         <v>386</v>
       </c>
@@ -63740,7 +64976,7 @@
   <sheetData>
     <row r="1" spans="2:16">
       <c r="B1" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="2:16">
@@ -63763,12 +64999,12 @@
     </row>
     <row r="5" spans="2:16">
       <c r="I5" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="I6" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -63852,11 +65088,11 @@
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="154" t="s">
+      <c r="O18" s="153" t="s">
         <v>439</v>
       </c>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="155">
+      <c r="P18" s="153"/>
+      <c r="Q18" s="154">
         <v>0.2</v>
       </c>
     </row>
@@ -63864,9 +65100,9 @@
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="155"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="154"/>
     </row>
     <row r="20" spans="2:17" ht="18">
       <c r="H20" s="84" t="s">
@@ -63895,12 +65131,12 @@
     <row r="22" spans="2:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="146"/>
+      <c r="O22" s="145"/>
     </row>
     <row r="23" spans="2:17">
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="146"/>
+      <c r="O23" s="145"/>
     </row>
     <row r="24" spans="2:17">
       <c r="J24" s="1"/>
@@ -64050,7 +65286,7 @@
   <sheetData>
     <row r="1" spans="2:16">
       <c r="B1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="2:16">
@@ -64063,27 +65299,27 @@
     </row>
     <row r="3" spans="2:16">
       <c r="I3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="I4" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="I5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="I6" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="I7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -64145,7 +65381,7 @@
       <c r="L17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="33"/>
     </row>
@@ -64161,7 +65397,7 @@
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="101" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P18" s="101"/>
       <c r="Q18" s="102"/>
@@ -64189,12 +65425,12 @@
     <row r="22" spans="2:17">
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="O22" s="146"/>
+      <c r="O22" s="145"/>
     </row>
     <row r="23" spans="2:17">
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="O23" s="146"/>
+      <c r="O23" s="145"/>
     </row>
     <row r="24" spans="2:17">
       <c r="J24" s="1"/>
@@ -64261,7 +65497,7 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="2:18">
@@ -64274,32 +65510,32 @@
     </row>
     <row r="3" spans="2:18">
       <c r="I3" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="I4" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="I5" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="I6" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="I7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="I8" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -64333,7 +65569,7 @@
         <v>437</v>
       </c>
       <c r="N14" s="94" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="O14" s="94"/>
     </row>
@@ -64358,7 +65594,7 @@
       <c r="L17" s="1"/>
       <c r="N17" s="1"/>
       <c r="P17" s="94" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -64371,7 +65607,7 @@
       <c r="N18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="S18" s="33"/>
     </row>
@@ -64388,7 +65624,7 @@
       <c r="N19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="101" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="R19" s="101"/>
       <c r="S19" s="102"/>
@@ -64420,13 +65656,13 @@
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="Q23" s="146"/>
+      <c r="Q23" s="145"/>
     </row>
     <row r="24" spans="2:20">
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="Q24" s="146"/>
+      <c r="Q24" s="145"/>
     </row>
     <row r="25" spans="2:20">
       <c r="J25" s="1"/>
@@ -64461,14 +65697,14 @@
     </row>
     <row r="30" spans="2:20">
       <c r="C30" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D30" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="H30"/>
       <c r="T30" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="2:20">
@@ -64476,171 +65712,171 @@
     </row>
     <row r="32" spans="2:20">
       <c r="C32" s="104"/>
-      <c r="D32" s="113"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="104"/>
       <c r="F32" s="104"/>
-      <c r="G32" s="113"/>
+      <c r="G32" s="109"/>
       <c r="H32"/>
       <c r="J32" s="104"/>
-      <c r="K32" s="113"/>
+      <c r="K32" s="109"/>
       <c r="L32" s="104"/>
       <c r="M32" s="104"/>
-      <c r="N32" s="113"/>
+      <c r="N32" s="109"/>
     </row>
     <row r="33" spans="1:18">
       <c r="C33" s="104"/>
-      <c r="D33" s="113"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="104"/>
       <c r="F33" s="104"/>
-      <c r="G33" s="113"/>
+      <c r="G33" s="109"/>
       <c r="H33"/>
       <c r="J33" s="104"/>
-      <c r="K33" s="113"/>
+      <c r="K33" s="109"/>
       <c r="L33" s="104"/>
       <c r="M33" s="104"/>
-      <c r="N33" s="113"/>
+      <c r="N33" s="109"/>
     </row>
     <row r="34" spans="1:18">
       <c r="C34" s="104"/>
-      <c r="D34" s="113"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="104"/>
       <c r="F34" s="104"/>
-      <c r="G34" s="113"/>
+      <c r="G34" s="109"/>
       <c r="H34"/>
       <c r="J34" s="104"/>
-      <c r="K34" s="113"/>
+      <c r="K34" s="109"/>
       <c r="L34" s="104"/>
       <c r="M34" s="104"/>
-      <c r="N34" s="113"/>
+      <c r="N34" s="109"/>
       <c r="P34" s="95"/>
     </row>
     <row r="35" spans="1:18">
       <c r="C35" s="104"/>
-      <c r="D35" s="113"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="104"/>
       <c r="F35" s="104"/>
-      <c r="G35" s="113"/>
+      <c r="G35" s="109"/>
       <c r="H35"/>
       <c r="J35" s="104"/>
-      <c r="K35" s="113"/>
+      <c r="K35" s="109"/>
       <c r="L35" s="104"/>
       <c r="M35" s="104"/>
-      <c r="N35" s="113"/>
+      <c r="N35" s="109"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="94" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="B36" s="94">
         <v>8</v>
       </c>
       <c r="C36" s="104"/>
-      <c r="D36" s="113"/>
+      <c r="D36" s="109"/>
       <c r="E36" s="104"/>
       <c r="F36" s="104"/>
-      <c r="G36" s="113"/>
+      <c r="G36" s="109"/>
       <c r="H36"/>
       <c r="J36" s="104"/>
-      <c r="K36" s="113"/>
+      <c r="K36" s="109"/>
       <c r="L36" s="104"/>
       <c r="M36" s="104"/>
-      <c r="N36" s="113"/>
+      <c r="N36" s="109"/>
     </row>
     <row r="37" spans="1:18">
       <c r="B37" s="94"/>
       <c r="C37" s="104"/>
-      <c r="D37" s="113"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="104"/>
       <c r="F37" s="104"/>
-      <c r="G37" s="113"/>
+      <c r="G37" s="109"/>
       <c r="H37"/>
       <c r="J37" s="104"/>
-      <c r="K37" s="113"/>
+      <c r="K37" s="109"/>
       <c r="L37" s="104"/>
       <c r="M37" s="104"/>
-      <c r="N37" s="113"/>
+      <c r="N37" s="109"/>
       <c r="P37" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="B38" s="94"/>
       <c r="C38" s="104"/>
-      <c r="D38" s="113"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="104"/>
       <c r="F38" s="104"/>
-      <c r="G38" s="113"/>
+      <c r="G38" s="109"/>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>523</v>
-      </c>
-      <c r="J38" s="134"/>
-      <c r="K38" s="135"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="135"/>
+        <v>505</v>
+      </c>
+      <c r="J38" s="126"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="127"/>
       <c r="P38" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="R38" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="B39" s="94"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="128"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
       <c r="H39"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="137"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="129"/>
     </row>
     <row r="40" spans="1:18">
       <c r="B40" s="94"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="132"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="124"/>
       <c r="H40"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="130"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="122"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B41" s="94">
         <v>2</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="114"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="110"/>
       <c r="H41"/>
-      <c r="J41" s="133"/>
+      <c r="J41" s="125"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:18">
       <c r="C42" s="105"/>
-      <c r="D42" s="115"/>
+      <c r="D42" s="111"/>
       <c r="E42" s="105"/>
       <c r="F42" s="105"/>
-      <c r="G42" s="115"/>
+      <c r="G42" s="111"/>
       <c r="H42"/>
     </row>
     <row r="47" spans="1:18">
@@ -64672,73 +65908,73 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="1" customFormat="1">
       <c r="C3" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="C4" s="116" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>478</v>
-      </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
+      <c r="C4" s="112" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="C5" s="116"/>
-      <c r="D5" s="118" t="s">
-        <v>479</v>
-      </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="114" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1">
       <c r="C8" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="D10" s="116" t="s">
-        <v>483</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
+      <c r="D10" s="112" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="D11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
+      <c r="D11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="E12" s="117" t="s">
-        <v>485</v>
+      <c r="E12" s="113" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -64900,13 +66136,13 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="145" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="146">
+      <c r="H12" s="145">
         <v>8</v>
       </c>
     </row>
@@ -64915,11 +66151,11 @@
         <f>SUM(D5:D9)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="146"/>
+      <c r="F13" s="145"/>
       <c r="G13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="146"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
@@ -64981,10 +66217,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD82"/>
+  <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -64994,798 +66230,1019 @@
     <col min="6" max="6" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
-      <c r="A1" s="112" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="L1" s="138" t="s">
-        <v>543</v>
-      </c>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="F2" s="84" t="s">
-        <v>469</v>
-      </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-    </row>
-    <row r="3" spans="1:22">
+    <row r="1" spans="1:12" s="108" customFormat="1">
+      <c r="A1" s="108" t="s">
+        <v>610</v>
+      </c>
+      <c r="L1" s="155" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="130" customFormat="1">
+      <c r="F2" s="137" t="s">
+        <v>612</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="130" customFormat="1">
       <c r="B3" s="104"/>
-      <c r="C3" s="113"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
-      <c r="F3" s="108"/>
-      <c r="L3" s="97" t="s">
-        <v>533</v>
-      </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="F3" s="156"/>
+      <c r="K3" s="97" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="130" customFormat="1">
       <c r="B4" s="104"/>
-      <c r="C4" s="113"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="104"/>
       <c r="E4" s="104"/>
-      <c r="F4" s="108"/>
-      <c r="I4" s="84" t="s">
-        <v>470</v>
-      </c>
-      <c r="L4" s="97" t="s">
-        <v>531</v>
-      </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="F4" s="156"/>
+      <c r="I4" s="137" t="s">
+        <v>614</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="130" customFormat="1">
       <c r="B5" s="104"/>
-      <c r="C5" s="113"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="104"/>
       <c r="E5" s="104"/>
-      <c r="F5" s="108"/>
-      <c r="L5" s="97" t="s">
-        <v>532</v>
-      </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="84" t="s">
-        <v>467</v>
+      <c r="F5" s="156"/>
+      <c r="K5" s="97" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="130" customFormat="1">
+      <c r="A6" s="130" t="s">
+        <v>616</v>
       </c>
       <c r="B6" s="104"/>
-      <c r="C6" s="113" t="s">
-        <v>473</v>
+      <c r="C6" s="109" t="s">
+        <v>617</v>
       </c>
       <c r="D6" s="104"/>
       <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
-        <v>475</v>
-      </c>
-      <c r="L6" s="97" t="s">
-        <v>534</v>
-      </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="F6" s="156" t="s">
+        <v>467</v>
+      </c>
+      <c r="K6" s="97" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="130" customFormat="1">
       <c r="B7" s="104"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
-      <c r="F7" s="108"/>
-      <c r="L7" s="97" t="s">
-        <v>535</v>
-      </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="F7" s="156"/>
+      <c r="K7" s="97" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="130" customFormat="1">
       <c r="B8" s="104"/>
-      <c r="C8" s="113"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="104"/>
       <c r="E8" s="104"/>
-      <c r="F8" s="108"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="F8" s="156"/>
+    </row>
+    <row r="9" spans="1:12" s="130" customFormat="1">
       <c r="B9" s="104"/>
-      <c r="C9" s="113"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
-      <c r="F9" s="108"/>
-    </row>
-    <row r="10" spans="1:22" s="10" customFormat="1">
-      <c r="A10" s="107"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="109"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="110"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="84" t="s">
+      <c r="F9" s="156"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1">
+      <c r="F10" s="106"/>
+    </row>
+    <row r="11" spans="1:12" s="130" customFormat="1">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="157"/>
+    </row>
+    <row r="12" spans="1:12" s="130" customFormat="1">
+      <c r="A12" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116" t="s">
+        <v>621</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="157" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="115" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="86" t="s">
-        <v>476</v>
-      </c>
-      <c r="I12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="B13" s="105"/>
+      <c r="I12" s="158" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="130" customFormat="1">
+      <c r="B13" s="115"/>
       <c r="C13" s="115"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="86"/>
-    </row>
-    <row r="16" spans="1:22" s="1" customFormat="1">
-      <c r="A16" s="112" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="H16" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="B18" s="121"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="113"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="113"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="113"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="113"/>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="94"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="157"/>
+    </row>
+    <row r="14" spans="1:12" s="130" customFormat="1">
+      <c r="F14" s="137"/>
+    </row>
+    <row r="15" spans="1:12" s="130" customFormat="1">
+      <c r="F15" s="137"/>
+    </row>
+    <row r="16" spans="1:12" s="130" customFormat="1">
+      <c r="F16" s="137"/>
+    </row>
+    <row r="17" spans="1:30" s="131" customFormat="1">
+      <c r="A17" s="108" t="s">
+        <v>623</v>
+      </c>
+      <c r="F17" s="132"/>
+      <c r="H17" s="131" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="130" customFormat="1">
+      <c r="F18" s="137"/>
+    </row>
+    <row r="19" spans="1:30" s="130" customFormat="1">
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
       <c r="H19" s="104"/>
-      <c r="I19" s="113"/>
+      <c r="I19" s="104"/>
       <c r="J19" s="104"/>
       <c r="K19" s="104"/>
-      <c r="L19" s="113"/>
+      <c r="L19" s="109"/>
       <c r="N19" s="104"/>
-      <c r="O19" s="113"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="104"/>
       <c r="Q19" s="104"/>
-      <c r="R19" s="113"/>
+      <c r="R19" s="109"/>
       <c r="T19" s="104"/>
-      <c r="U19" s="113"/>
+      <c r="U19" s="104"/>
       <c r="V19" s="104"/>
       <c r="W19" s="104"/>
-      <c r="X19" s="113"/>
+      <c r="X19" s="109"/>
       <c r="Z19" s="104"/>
-      <c r="AA19" s="113"/>
+      <c r="AA19" s="104"/>
       <c r="AB19" s="104"/>
       <c r="AC19" s="104"/>
-      <c r="AD19" s="113"/>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="94"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="113"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
+      <c r="AD19" s="109"/>
+    </row>
+    <row r="20" spans="1:30" s="130" customFormat="1">
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="109"/>
       <c r="N20" s="104"/>
-      <c r="O20" s="113"/>
+      <c r="O20" s="104"/>
       <c r="P20" s="104"/>
       <c r="Q20" s="104"/>
-      <c r="R20" s="113"/>
+      <c r="R20" s="109"/>
       <c r="T20" s="104"/>
-      <c r="U20" s="113"/>
+      <c r="U20" s="104"/>
       <c r="V20" s="104"/>
       <c r="W20" s="104"/>
-      <c r="X20" s="113"/>
+      <c r="X20" s="109"/>
       <c r="Z20" s="104"/>
-      <c r="AA20" s="113"/>
+      <c r="AA20" s="104"/>
       <c r="AB20" s="104"/>
       <c r="AC20" s="104"/>
-      <c r="AD20" s="113"/>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="94"/>
+      <c r="AD20" s="109"/>
+    </row>
+    <row r="21" spans="1:30" s="130" customFormat="1">
       <c r="B21" s="104"/>
-      <c r="C21" s="113"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="104"/>
       <c r="E21" s="104"/>
-      <c r="F21" s="113"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="122"/>
+      <c r="F21" s="109"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="116"/>
       <c r="N21" s="104"/>
-      <c r="O21" s="113"/>
+      <c r="O21" s="104"/>
       <c r="P21" s="104"/>
       <c r="Q21" s="104"/>
-      <c r="R21" s="113"/>
+      <c r="R21" s="109"/>
       <c r="T21" s="104"/>
-      <c r="U21" s="113"/>
+      <c r="U21" s="104"/>
       <c r="V21" s="104"/>
       <c r="W21" s="104"/>
-      <c r="X21" s="113"/>
+      <c r="X21" s="109"/>
       <c r="Z21" s="104"/>
-      <c r="AA21" s="113"/>
+      <c r="AA21" s="104"/>
       <c r="AB21" s="104"/>
       <c r="AC21" s="104"/>
-      <c r="AD21" s="113"/>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="94"/>
+      <c r="AD21" s="109"/>
+    </row>
+    <row r="22" spans="1:30" s="130" customFormat="1">
       <c r="B22" s="104"/>
-      <c r="C22" s="113"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
-      <c r="F22" s="113"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="113"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="122"/>
+      <c r="F22" s="109"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="116"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="109"/>
       <c r="T22" s="104"/>
-      <c r="U22" s="113"/>
+      <c r="U22" s="109"/>
       <c r="V22" s="104"/>
       <c r="W22" s="104"/>
-      <c r="X22" s="113"/>
+      <c r="X22" s="109"/>
       <c r="Z22" s="104"/>
-      <c r="AA22" s="113"/>
+      <c r="AA22" s="109"/>
       <c r="AB22" s="104"/>
       <c r="AC22" s="104"/>
-      <c r="AD22" s="113"/>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="94"/>
+      <c r="AD22" s="109"/>
+    </row>
+    <row r="23" spans="1:30" s="130" customFormat="1">
       <c r="B23" s="104"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
-      <c r="F23" s="113"/>
+      <c r="F23" s="109"/>
       <c r="H23" s="104"/>
-      <c r="I23" s="113"/>
+      <c r="I23" s="104"/>
       <c r="J23" s="104"/>
       <c r="K23" s="104"/>
-      <c r="L23" s="113"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="122"/>
+      <c r="L23" s="109"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
       <c r="T23" s="104"/>
-      <c r="U23" s="113"/>
+      <c r="U23" s="104"/>
       <c r="V23" s="104"/>
       <c r="W23" s="104"/>
-      <c r="X23" s="113"/>
+      <c r="X23" s="109"/>
       <c r="Z23" s="104"/>
-      <c r="AA23" s="113"/>
+      <c r="AA23" s="104"/>
       <c r="AB23" s="104"/>
       <c r="AC23" s="104"/>
-      <c r="AD23" s="113"/>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="94"/>
+      <c r="AD23" s="109"/>
+    </row>
+    <row r="24" spans="1:30" s="130" customFormat="1">
       <c r="B24" s="104"/>
-      <c r="C24" s="113"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
-      <c r="F24" s="113"/>
+      <c r="F24" s="109"/>
       <c r="H24" s="104"/>
-      <c r="I24" s="113"/>
+      <c r="I24" s="104"/>
       <c r="J24" s="104"/>
       <c r="K24" s="104"/>
-      <c r="L24" s="113"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="113"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="122"/>
+      <c r="L24" s="109"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="109"/>
       <c r="Z24" s="104"/>
-      <c r="AA24" s="113"/>
+      <c r="AA24" s="104"/>
       <c r="AB24" s="104"/>
       <c r="AC24" s="104"/>
-      <c r="AD24" s="113"/>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="94"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="120"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="124"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="120"/>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AD24" s="109"/>
+    </row>
+    <row r="25" spans="1:30" s="130" customFormat="1">
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="109"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="109"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="109"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="116"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="109"/>
+    </row>
+    <row r="26" spans="1:30" s="130" customFormat="1">
       <c r="B26" s="104"/>
-      <c r="C26" s="113"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="104"/>
       <c r="E26" s="104"/>
-      <c r="F26" s="113"/>
+      <c r="F26" s="109"/>
       <c r="H26" s="104"/>
-      <c r="I26" s="113"/>
+      <c r="I26" s="104"/>
       <c r="J26" s="104"/>
       <c r="K26" s="104"/>
-      <c r="L26" s="113"/>
+      <c r="L26" s="109"/>
       <c r="N26" s="104"/>
-      <c r="O26" s="113"/>
+      <c r="O26" s="104"/>
       <c r="P26" s="104"/>
       <c r="Q26" s="104"/>
-      <c r="R26" s="113"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="113"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="121"/>
-      <c r="AD26" s="122"/>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="R26" s="109"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="116"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="109"/>
+    </row>
+    <row r="27" spans="1:30" s="130" customFormat="1">
       <c r="B27" s="104"/>
-      <c r="C27" s="113"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="104"/>
       <c r="E27" s="104"/>
-      <c r="F27" s="113"/>
+      <c r="F27" s="109"/>
       <c r="H27" s="104"/>
-      <c r="I27" s="113"/>
+      <c r="I27" s="109"/>
       <c r="J27" s="104"/>
       <c r="K27" s="104"/>
-      <c r="L27" s="113"/>
+      <c r="L27" s="109"/>
       <c r="N27" s="104"/>
-      <c r="O27" s="113"/>
+      <c r="O27" s="109"/>
       <c r="P27" s="104"/>
       <c r="Q27" s="104"/>
-      <c r="R27" s="113"/>
+      <c r="R27" s="109"/>
       <c r="T27" s="104"/>
-      <c r="U27" s="113"/>
+      <c r="U27" s="109"/>
       <c r="V27" s="104"/>
       <c r="W27" s="104"/>
-      <c r="X27" s="113"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="122"/>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="94"/>
-      <c r="B29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C29" s="94"/>
-      <c r="D29">
-        <f>208 * 0.8</f>
+      <c r="X27" s="109"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="115"/>
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="115"/>
+      <c r="AD27" s="116"/>
+    </row>
+    <row r="28" spans="1:30" s="130" customFormat="1">
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="109"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="109"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="109"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="109"/>
+      <c r="Z28" s="115"/>
+      <c r="AA28" s="115"/>
+      <c r="AB28" s="115"/>
+      <c r="AC28" s="115"/>
+      <c r="AD28" s="116"/>
+    </row>
+    <row r="29" spans="1:30" s="130" customFormat="1">
+      <c r="F29" s="137"/>
+    </row>
+    <row r="30" spans="1:30" s="130" customFormat="1">
+      <c r="A30" s="130" t="s">
+        <v>625</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>626</v>
+      </c>
+      <c r="D30" s="130">
+        <f>208*0.8</f>
         <v>166.4</v>
       </c>
-      <c r="F29" s="125">
+      <c r="F30" s="117">
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="94"/>
-      <c r="B30" t="s">
-        <v>503</v>
-      </c>
-      <c r="C30" s="94"/>
-      <c r="D30">
-        <f>208 * 0.2</f>
+    <row r="31" spans="1:30" s="130" customFormat="1">
+      <c r="B31" s="130" t="s">
+        <v>627</v>
+      </c>
+      <c r="D31" s="130">
+        <f>208*0.2</f>
         <v>41.6</v>
       </c>
-      <c r="F30" s="125">
+      <c r="F31" s="117">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="F31" s="94"/>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="F32" s="94"/>
-    </row>
-    <row r="33" spans="1:30">
-      <c r="A33" s="94"/>
-      <c r="B33" t="s">
-        <v>504</v>
-      </c>
-      <c r="C33" s="94"/>
-      <c r="F33" s="125">
-        <v>0.85</v>
-      </c>
-      <c r="L33" s="126">
+    <row r="32" spans="1:30" s="130" customFormat="1">
+      <c r="F32" s="137"/>
+    </row>
+    <row r="33" spans="1:29" s="130" customFormat="1">
+      <c r="F33" s="137"/>
+    </row>
+    <row r="34" spans="1:29" s="130" customFormat="1">
+      <c r="F34" s="137"/>
+    </row>
+    <row r="35" spans="1:29" s="130" customFormat="1">
+      <c r="B35" s="130" t="s">
+        <v>486</v>
+      </c>
+      <c r="F35" s="117">
+        <v>0.88</v>
+      </c>
+      <c r="J35" s="118">
         <v>0.76</v>
       </c>
-      <c r="R33" s="126">
-        <v>0.78</v>
-      </c>
-      <c r="X33" s="126">
-        <v>0.85</v>
-      </c>
-      <c r="AD33" s="126">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
-      <c r="A34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="F34" s="94"/>
-    </row>
-    <row r="35" spans="1:30">
-      <c r="A35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="F35" s="94"/>
-    </row>
-    <row r="36" spans="1:30">
-      <c r="A36" s="94"/>
-      <c r="B36" t="s">
-        <v>505</v>
-      </c>
-      <c r="C36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="H36">
-        <f>AVERAGE(85,76,78,85,90)</f>
-        <v>82.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
-      <c r="A37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="F37" s="94"/>
-    </row>
-    <row r="38" spans="1:30">
-      <c r="A38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="F38" s="94"/>
-    </row>
-    <row r="39" spans="1:30">
-      <c r="A39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="F39" s="94"/>
-    </row>
-    <row r="40" spans="1:30">
-      <c r="A40" s="164" t="s">
-        <v>625</v>
-      </c>
-      <c r="C40" s="94"/>
-      <c r="F40" s="94"/>
-    </row>
-    <row r="41" spans="1:30">
-      <c r="A41" s="56" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" s="139" customFormat="1">
-      <c r="A43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="F43" s="161" t="s">
+      <c r="P35" s="118">
+        <v>0.81</v>
+      </c>
+      <c r="W35" s="118">
+        <v>0.88</v>
+      </c>
+      <c r="AC35" s="118">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="130" customFormat="1">
+      <c r="F36" s="137"/>
+    </row>
+    <row r="37" spans="1:29" s="130" customFormat="1">
+      <c r="F37" s="137"/>
+    </row>
+    <row r="38" spans="1:29" s="130" customFormat="1">
+      <c r="B38" s="130" t="s">
+        <v>487</v>
+      </c>
+      <c r="F38" s="137"/>
+      <c r="H38" s="130">
+        <f xml:space="preserve"> AVERAGE(88,76,81,88,95)</f>
+        <v>85.6</v>
+      </c>
+      <c r="I38" s="130" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="139" customFormat="1">
-      <c r="A44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="F44" s="162" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" s="139" customFormat="1">
-      <c r="A45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="F45" s="163"/>
-    </row>
-    <row r="46" spans="1:30" s="139" customFormat="1">
-      <c r="A46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="F46" s="165" t="s">
+    <row r="39" spans="1:29" s="130" customFormat="1">
+      <c r="F39" s="137"/>
+    </row>
+    <row r="40" spans="1:29" s="130" customFormat="1">
+      <c r="F40" s="137"/>
+    </row>
+    <row r="41" spans="1:29" s="130" customFormat="1">
+      <c r="A41" s="159" t="s">
+        <v>629</v>
+      </c>
+      <c r="F41" s="137"/>
+    </row>
+    <row r="42" spans="1:29" s="130" customFormat="1">
+      <c r="A42" s="159"/>
+      <c r="F42" s="137"/>
+    </row>
+    <row r="43" spans="1:29" s="130" customFormat="1">
+      <c r="A43" s="160" t="s">
+        <v>630</v>
+      </c>
+      <c r="F43" s="137"/>
+    </row>
+    <row r="44" spans="1:29" s="130" customFormat="1">
+      <c r="A44" s="159"/>
+      <c r="F44" s="137"/>
+    </row>
+    <row r="45" spans="1:29" s="130" customFormat="1">
+      <c r="A45" s="159"/>
+      <c r="F45" s="143" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="130" customFormat="1">
+      <c r="A46" s="159"/>
+      <c r="F46" s="143" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="130" customFormat="1">
+      <c r="A47" s="159"/>
+      <c r="F47" s="143"/>
+    </row>
+    <row r="48" spans="1:29" s="130" customFormat="1">
+      <c r="A48" s="159"/>
+      <c r="F48" s="144" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="130" customFormat="1">
+      <c r="A49" s="159"/>
+      <c r="F49" s="137"/>
+    </row>
+    <row r="50" spans="1:8" s="130" customFormat="1">
+      <c r="A50" s="159"/>
+      <c r="F50" s="137"/>
+    </row>
+    <row r="51" spans="1:8" s="130" customFormat="1">
+      <c r="A51" s="159"/>
+      <c r="F51" s="137"/>
+    </row>
+    <row r="52" spans="1:8" s="130" customFormat="1">
+      <c r="A52" s="161" t="s">
+        <v>602</v>
+      </c>
+      <c r="F52" s="137"/>
+      <c r="H52" s="130" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="130" customFormat="1">
+      <c r="A53" s="161" t="s">
+        <v>603</v>
+      </c>
+      <c r="F53" s="137"/>
+    </row>
+    <row r="54" spans="1:8" s="130" customFormat="1">
+      <c r="A54" s="161" t="s">
+        <v>604</v>
+      </c>
+      <c r="F54" s="137"/>
+    </row>
+    <row r="55" spans="1:8" s="130" customFormat="1">
+      <c r="A55" s="159"/>
+      <c r="F55" s="137"/>
+    </row>
+    <row r="56" spans="1:8" s="130" customFormat="1">
+      <c r="A56" s="162"/>
+      <c r="F56" s="137"/>
+    </row>
+    <row r="57" spans="1:8" s="130" customFormat="1">
+      <c r="F57" s="137"/>
+    </row>
+    <row r="58" spans="1:8" s="130" customFormat="1">
+      <c r="F58" s="137"/>
+    </row>
+    <row r="59" spans="1:8" s="130" customFormat="1">
+      <c r="F59" s="137"/>
+    </row>
+    <row r="60" spans="1:8" s="130" customFormat="1">
+      <c r="F60" s="137"/>
+    </row>
+    <row r="61" spans="1:8" s="131" customFormat="1">
+      <c r="A61" s="131" t="s">
+        <v>485</v>
+      </c>
+      <c r="B61" s="131" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" s="139" customFormat="1">
-      <c r="A47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="F47" s="145"/>
-    </row>
-    <row r="48" spans="1:30" s="139" customFormat="1">
-      <c r="A48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="F48" s="145"/>
-    </row>
-    <row r="49" spans="1:7" s="139" customFormat="1">
-      <c r="A49" s="161" t="s">
-        <v>629</v>
-      </c>
-      <c r="C49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="139" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="139" customFormat="1">
-      <c r="A50" s="162" t="s">
-        <v>630</v>
-      </c>
-      <c r="C50" s="145"/>
-      <c r="F50" s="145"/>
-    </row>
-    <row r="51" spans="1:7" s="139" customFormat="1">
-      <c r="A51" s="162" t="s">
-        <v>631</v>
-      </c>
-      <c r="C51" s="145"/>
-      <c r="F51" s="145"/>
-    </row>
-    <row r="55" spans="1:7" s="1" customFormat="1">
-      <c r="A55" s="85" t="s">
-        <v>494</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C55" s="85"/>
-      <c r="F55" s="85"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="84" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="56" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="56" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="56" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="56" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="56" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="56"/>
-    </row>
-    <row r="67" spans="1:6" s="140" customFormat="1">
-      <c r="A67" s="140" t="s">
-        <v>536</v>
-      </c>
-      <c r="F67" s="141"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="139" t="s">
-        <v>537</v>
-      </c>
-      <c r="B70" s="139"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="139"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="139"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="142"/>
-      <c r="B71" s="139"/>
-      <c r="C71" s="139"/>
-      <c r="D71" s="139"/>
-      <c r="E71" s="139"/>
-      <c r="F71" s="139"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="143" t="s">
-        <v>538</v>
-      </c>
-      <c r="B72" s="139"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="139"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="139"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="142"/>
-      <c r="B73" s="139"/>
-      <c r="C73" s="139"/>
-      <c r="D73" s="139"/>
-      <c r="E73" s="139"/>
-      <c r="F73" s="139"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="143" t="s">
-        <v>539</v>
-      </c>
-      <c r="B74" s="139"/>
-      <c r="C74" s="139"/>
-      <c r="D74" s="139"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="139"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="142"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="139"/>
-      <c r="D75" s="139"/>
-      <c r="E75" s="139"/>
-      <c r="F75" s="139"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="143" t="s">
-        <v>540</v>
-      </c>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
-      <c r="E76" s="139"/>
-      <c r="F76" s="139"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="142"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="143" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="139" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="140" customFormat="1">
-      <c r="A82" s="166" t="s">
+      <c r="F61" s="132"/>
+    </row>
+    <row r="62" spans="1:8" s="130" customFormat="1">
+      <c r="F62" s="137"/>
+    </row>
+    <row r="63" spans="1:8" s="130" customFormat="1" ht="18.75">
+      <c r="A63" s="163" t="s">
         <v>634</v>
       </c>
-      <c r="C82" s="141"/>
-      <c r="F82" s="141"/>
+      <c r="F63" s="137"/>
+    </row>
+    <row r="64" spans="1:8" s="130" customFormat="1">
+      <c r="A64" s="130" t="s">
+        <v>635</v>
+      </c>
+      <c r="F64" s="137"/>
+    </row>
+    <row r="65" spans="1:6" s="130" customFormat="1">
+      <c r="A65" s="164"/>
+      <c r="F65" s="137"/>
+    </row>
+    <row r="66" spans="1:6" s="130" customFormat="1">
+      <c r="F66" s="137"/>
+    </row>
+    <row r="67" spans="1:6" s="130" customFormat="1">
+      <c r="F67" s="137"/>
+    </row>
+    <row r="68" spans="1:6" s="131" customFormat="1">
+      <c r="A68" s="131" t="s">
+        <v>636</v>
+      </c>
+      <c r="F68" s="132"/>
+    </row>
+    <row r="69" spans="1:6" s="130" customFormat="1">
+      <c r="F69" s="137"/>
+    </row>
+    <row r="70" spans="1:6" s="130" customFormat="1">
+      <c r="F70" s="137"/>
+    </row>
+    <row r="71" spans="1:6" s="130" customFormat="1">
+      <c r="A71" s="130" t="s">
+        <v>514</v>
+      </c>
+      <c r="F71" s="137"/>
+    </row>
+    <row r="72" spans="1:6" s="130" customFormat="1">
+      <c r="A72" s="133"/>
+      <c r="F72" s="137"/>
+    </row>
+    <row r="73" spans="1:6" s="130" customFormat="1">
+      <c r="A73" s="134" t="s">
+        <v>515</v>
+      </c>
+      <c r="F73" s="137"/>
+    </row>
+    <row r="74" spans="1:6" s="130" customFormat="1">
+      <c r="A74" s="133"/>
+      <c r="F74" s="137"/>
+    </row>
+    <row r="75" spans="1:6" s="130" customFormat="1">
+      <c r="A75" s="134" t="s">
+        <v>516</v>
+      </c>
+      <c r="F75" s="137"/>
+    </row>
+    <row r="76" spans="1:6" s="130" customFormat="1">
+      <c r="A76" s="133"/>
+      <c r="F76" s="137"/>
+    </row>
+    <row r="77" spans="1:6" s="130" customFormat="1">
+      <c r="A77" s="134" t="s">
+        <v>517</v>
+      </c>
+      <c r="F77" s="137"/>
+    </row>
+    <row r="78" spans="1:6" s="130" customFormat="1">
+      <c r="A78" s="133"/>
+      <c r="F78" s="137"/>
+    </row>
+    <row r="79" spans="1:6" s="130" customFormat="1">
+      <c r="A79" s="134" t="s">
+        <v>518</v>
+      </c>
+      <c r="F79" s="137"/>
+    </row>
+    <row r="80" spans="1:6" s="130" customFormat="1">
+      <c r="F80" s="137"/>
+    </row>
+    <row r="81" spans="1:6" s="130" customFormat="1">
+      <c r="A81" s="130" t="s">
+        <v>519</v>
+      </c>
+      <c r="F81" s="137"/>
+    </row>
+    <row r="82" spans="1:6" s="130" customFormat="1">
+      <c r="F82" s="137"/>
+    </row>
+    <row r="83" spans="1:6" s="130" customFormat="1">
+      <c r="F83" s="137"/>
+    </row>
+    <row r="84" spans="1:6" s="130" customFormat="1">
+      <c r="F84" s="137"/>
+    </row>
+    <row r="85" spans="1:6" s="130" customFormat="1">
+      <c r="F85" s="137"/>
+    </row>
+    <row r="86" spans="1:6" s="130" customFormat="1">
+      <c r="F86" s="137"/>
+    </row>
+    <row r="87" spans="1:6" s="165" customFormat="1" ht="31.5">
+      <c r="A87" s="165" t="s">
+        <v>637</v>
+      </c>
+      <c r="F87" s="166"/>
+    </row>
+    <row r="88" spans="1:6" s="130" customFormat="1" ht="21.75">
+      <c r="A88" s="167"/>
+      <c r="F88" s="137"/>
+    </row>
+    <row r="89" spans="1:6" s="130" customFormat="1">
+      <c r="F89" s="137"/>
+    </row>
+    <row r="90" spans="1:6" s="130" customFormat="1" ht="21.75">
+      <c r="A90" s="168" t="s">
+        <v>638</v>
+      </c>
+      <c r="F90" s="137"/>
+    </row>
+    <row r="91" spans="1:6" s="130" customFormat="1">
+      <c r="F91" s="137"/>
+    </row>
+    <row r="92" spans="1:6" s="130" customFormat="1">
+      <c r="A92" s="96" t="s">
+        <v>639</v>
+      </c>
+      <c r="F92" s="137"/>
+    </row>
+    <row r="93" spans="1:6" s="130" customFormat="1">
+      <c r="A93" s="133"/>
+      <c r="F93" s="137"/>
+    </row>
+    <row r="94" spans="1:6" s="130" customFormat="1">
+      <c r="A94" s="133" t="s">
+        <v>640</v>
+      </c>
+      <c r="F94" s="137"/>
+    </row>
+    <row r="95" spans="1:6" s="130" customFormat="1">
+      <c r="A95" s="133" t="s">
+        <v>641</v>
+      </c>
+      <c r="F95" s="137"/>
+    </row>
+    <row r="96" spans="1:6" s="130" customFormat="1">
+      <c r="F96" s="137"/>
+    </row>
+    <row r="97" spans="1:6" s="130" customFormat="1">
+      <c r="A97" s="96" t="s">
+        <v>642</v>
+      </c>
+      <c r="F97" s="137"/>
+    </row>
+    <row r="98" spans="1:6" s="130" customFormat="1">
+      <c r="A98" s="133"/>
+      <c r="F98" s="137"/>
+    </row>
+    <row r="99" spans="1:6" s="130" customFormat="1">
+      <c r="A99" s="133" t="s">
+        <v>643</v>
+      </c>
+      <c r="F99" s="137"/>
+    </row>
+    <row r="100" spans="1:6" s="130" customFormat="1">
+      <c r="F100" s="137"/>
+    </row>
+    <row r="101" spans="1:6" s="130" customFormat="1">
+      <c r="A101" s="96" t="s">
+        <v>644</v>
+      </c>
+      <c r="F101" s="137"/>
+    </row>
+    <row r="102" spans="1:6" s="130" customFormat="1">
+      <c r="A102" s="133"/>
+      <c r="F102" s="137"/>
+    </row>
+    <row r="103" spans="1:6" s="130" customFormat="1">
+      <c r="A103" s="133" t="s">
+        <v>645</v>
+      </c>
+      <c r="F103" s="137"/>
+    </row>
+    <row r="104" spans="1:6" s="130" customFormat="1">
+      <c r="F104" s="137"/>
+    </row>
+    <row r="105" spans="1:6" s="130" customFormat="1">
+      <c r="A105" s="96" t="s">
+        <v>646</v>
+      </c>
+      <c r="F105" s="137"/>
+    </row>
+    <row r="106" spans="1:6" s="130" customFormat="1">
+      <c r="A106" s="133"/>
+      <c r="F106" s="137"/>
+    </row>
+    <row r="107" spans="1:6" s="130" customFormat="1">
+      <c r="A107" s="134" t="s">
+        <v>647</v>
+      </c>
+      <c r="F107" s="137"/>
+    </row>
+    <row r="108" spans="1:6" s="130" customFormat="1">
+      <c r="F108" s="137"/>
+    </row>
+    <row r="109" spans="1:6" s="130" customFormat="1" ht="21.75">
+      <c r="A109" s="168" t="s">
+        <v>648</v>
+      </c>
+      <c r="F109" s="137"/>
+    </row>
+    <row r="110" spans="1:6" s="130" customFormat="1">
+      <c r="F110" s="137"/>
+    </row>
+    <row r="111" spans="1:6" s="130" customFormat="1">
+      <c r="A111" s="96" t="s">
+        <v>639</v>
+      </c>
+      <c r="F111" s="137"/>
+    </row>
+    <row r="112" spans="1:6" s="130" customFormat="1">
+      <c r="A112" s="133"/>
+      <c r="F112" s="137"/>
+    </row>
+    <row r="113" spans="1:6" s="130" customFormat="1">
+      <c r="A113" s="133" t="s">
+        <v>649</v>
+      </c>
+      <c r="F113" s="137"/>
+    </row>
+    <row r="114" spans="1:6" s="130" customFormat="1">
+      <c r="A114" s="133" t="s">
+        <v>650</v>
+      </c>
+      <c r="F114" s="137"/>
+    </row>
+    <row r="115" spans="1:6" s="130" customFormat="1">
+      <c r="F115" s="137"/>
+    </row>
+    <row r="116" spans="1:6" s="130" customFormat="1">
+      <c r="A116" s="96" t="s">
+        <v>642</v>
+      </c>
+      <c r="F116" s="137"/>
+    </row>
+    <row r="117" spans="1:6" s="130" customFormat="1">
+      <c r="A117" s="133"/>
+      <c r="F117" s="137"/>
+    </row>
+    <row r="118" spans="1:6" s="130" customFormat="1">
+      <c r="A118" s="133" t="s">
+        <v>651</v>
+      </c>
+      <c r="F118" s="137"/>
+    </row>
+    <row r="119" spans="1:6" s="130" customFormat="1">
+      <c r="F119" s="137"/>
+    </row>
+    <row r="120" spans="1:6" s="130" customFormat="1">
+      <c r="A120" s="96" t="s">
+        <v>644</v>
+      </c>
+      <c r="F120" s="137"/>
+    </row>
+    <row r="121" spans="1:6" s="130" customFormat="1">
+      <c r="A121" s="133"/>
+      <c r="F121" s="137"/>
+    </row>
+    <row r="122" spans="1:6" s="130" customFormat="1">
+      <c r="A122" s="134" t="s">
+        <v>652</v>
+      </c>
+      <c r="F122" s="137"/>
+    </row>
+    <row r="123" spans="1:6" s="130" customFormat="1">
+      <c r="A123" s="134" t="s">
+        <v>653</v>
+      </c>
+      <c r="F123" s="137"/>
+    </row>
+    <row r="124" spans="1:6" s="130" customFormat="1">
+      <c r="F124" s="137"/>
+    </row>
+    <row r="125" spans="1:6" s="130" customFormat="1">
+      <c r="A125" s="96" t="s">
+        <v>646</v>
+      </c>
+      <c r="F125" s="137"/>
+    </row>
+    <row r="126" spans="1:6" s="130" customFormat="1">
+      <c r="A126" s="133"/>
+      <c r="F126" s="137"/>
+    </row>
+    <row r="127" spans="1:6" s="130" customFormat="1">
+      <c r="A127" s="133" t="s">
+        <v>654</v>
+      </c>
+      <c r="F127" s="137"/>
+    </row>
+    <row r="128" spans="1:6" s="130" customFormat="1">
+      <c r="F128" s="137"/>
+    </row>
+    <row r="129" spans="1:6" s="130" customFormat="1" ht="21.75">
+      <c r="A129" s="168" t="s">
+        <v>655</v>
+      </c>
+      <c r="F129" s="137"/>
+    </row>
+    <row r="130" spans="1:6" s="130" customFormat="1">
+      <c r="A130" s="133"/>
+      <c r="F130" s="137"/>
+    </row>
+    <row r="131" spans="1:6" s="130" customFormat="1">
+      <c r="A131" s="134" t="s">
+        <v>656</v>
+      </c>
+      <c r="F131" s="137"/>
+    </row>
+    <row r="132" spans="1:6" s="130" customFormat="1">
+      <c r="A132" s="133"/>
+      <c r="F132" s="137"/>
+    </row>
+    <row r="133" spans="1:6" s="130" customFormat="1">
+      <c r="A133" s="133"/>
+      <c r="F133" s="137"/>
+    </row>
+    <row r="134" spans="1:6" s="130" customFormat="1">
+      <c r="A134" s="169" t="s">
+        <v>657</v>
+      </c>
+      <c r="F134" s="137"/>
+    </row>
+    <row r="135" spans="1:6" s="130" customFormat="1">
+      <c r="A135" s="169" t="s">
+        <v>658</v>
+      </c>
+      <c r="F135" s="137"/>
+    </row>
+    <row r="136" spans="1:6" s="130" customFormat="1">
+      <c r="A136" s="169" t="s">
+        <v>659</v>
+      </c>
+      <c r="F136" s="137"/>
+    </row>
+    <row r="137" spans="1:6" s="130" customFormat="1">
+      <c r="A137" s="133"/>
+      <c r="F137" s="137"/>
+    </row>
+    <row r="138" spans="1:6" s="130" customFormat="1">
+      <c r="A138" s="134" t="s">
+        <v>660</v>
+      </c>
+      <c r="F138" s="137"/>
+    </row>
+    <row r="139" spans="1:6" s="130" customFormat="1">
+      <c r="A139" s="133"/>
+      <c r="F139" s="137"/>
+    </row>
+    <row r="140" spans="1:6" s="130" customFormat="1">
+      <c r="A140" s="133"/>
+      <c r="F140" s="137"/>
+    </row>
+    <row r="141" spans="1:6" s="130" customFormat="1">
+      <c r="A141" s="169" t="s">
+        <v>661</v>
+      </c>
+      <c r="F141" s="137"/>
+    </row>
+    <row r="142" spans="1:6" s="130" customFormat="1">
+      <c r="A142" s="169" t="s">
+        <v>662</v>
+      </c>
+      <c r="F142" s="137"/>
+    </row>
+    <row r="143" spans="1:6" s="130" customFormat="1">
+      <c r="A143" s="169" t="s">
+        <v>663</v>
+      </c>
+      <c r="F143" s="137"/>
+    </row>
+    <row r="144" spans="1:6" s="130" customFormat="1">
+      <c r="F144" s="137"/>
+    </row>
+    <row r="145" spans="1:6" s="130" customFormat="1" ht="21.75">
+      <c r="A145" s="168" t="s">
+        <v>664</v>
+      </c>
+      <c r="F145" s="137"/>
+    </row>
+    <row r="146" spans="1:6" s="130" customFormat="1">
+      <c r="A146" s="133"/>
+      <c r="F146" s="137"/>
+    </row>
+    <row r="147" spans="1:6" s="130" customFormat="1">
+      <c r="A147" s="134" t="s">
+        <v>665</v>
+      </c>
+      <c r="F147" s="137"/>
+    </row>
+    <row r="148" spans="1:6" s="130" customFormat="1">
+      <c r="A148" s="134" t="s">
+        <v>666</v>
+      </c>
+      <c r="F148" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -65797,31 +67254,90 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:4" s="140" customFormat="1">
-      <c r="B2" s="140" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" s="140" customFormat="1">
-      <c r="B8" s="140" t="s">
-        <v>638</v>
-      </c>
-      <c r="D8" s="140" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" t="s">
-        <v>637</v>
-      </c>
+    <row r="1" spans="2:7" s="130" customFormat="1">
+      <c r="D1" s="130" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="131" customFormat="1">
+      <c r="B2" s="131" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="130" customFormat="1"/>
+    <row r="4" spans="2:7" s="130" customFormat="1"/>
+    <row r="5" spans="2:7" s="130" customFormat="1"/>
+    <row r="6" spans="2:7" s="130" customFormat="1"/>
+    <row r="7" spans="2:7" s="130" customFormat="1"/>
+    <row r="8" spans="2:7" s="131" customFormat="1">
+      <c r="B8" s="131" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="130" customFormat="1">
+      <c r="D9" s="130" t="s">
+        <v>671</v>
+      </c>
+      <c r="G9" s="130" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="130" customFormat="1"/>
+    <row r="11" spans="2:7" s="130" customFormat="1"/>
+    <row r="12" spans="2:7" s="130" customFormat="1"/>
+    <row r="13" spans="2:7" s="131" customFormat="1">
+      <c r="B13" s="131" t="s">
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="130"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -66105,14 +67621,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -66752,13 +68268,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
@@ -67146,13 +68662,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="147" t="s">
+      <c r="A60" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="147"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="18" t="s">
@@ -68907,14 +70423,14 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
@@ -69324,11 +70840,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="147"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
+      <c r="A59" s="146"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18"/>
@@ -70191,40 +71707,40 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
         <f>SUM(G6:G10)</f>
         <v>420</v>
       </c>
-      <c r="H23" s="151">
+      <c r="H23" s="150">
         <f>G23/G24</f>
         <v>0.97674418604651159</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A24" s="148"/>
-      <c r="B24" s="150" t="s">
+      <c r="A24" s="147"/>
+      <c r="B24" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
         <f>SUM(F6:F10)</f>
         <v>430</v>
       </c>
-      <c r="H24" s="151"/>
+      <c r="H24" s="150"/>
       <c r="I24" s="17"/>
     </row>
     <row r="26" spans="1:12">
